--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -704,7 +704,7 @@
         <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -746,10 +746,10 @@
         <v>3.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
         <v>8</v>
@@ -767,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -1085,10 +1085,10 @@
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="5">
@@ -1126,10 +1126,10 @@
         <v>2.38</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
         <v>3.1</v>
@@ -1200,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1227,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
         <v>4.5</v>
@@ -1857,19 +1857,19 @@
         <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K10" t="n">
         <v>2.75</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O10" t="n">
         <v>1.1</v>
@@ -1878,18 +1878,18 @@
         <v>7</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
         <v>1.2</v>
@@ -1922,10 +1922,10 @@
         <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
         <v>12</v>
@@ -2271,28 +2271,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J13" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K13" t="n">
         <v>2.15</v>
       </c>
       <c r="L13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2315,37 +2315,37 @@
         <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Z13" t="n">
         <v>1.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
         <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AH13" t="n">
         <v>6.5</v>
@@ -2363,16 +2363,16 @@
         <v>8.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>35</v>
@@ -2553,99 +2553,99 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="L15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="R15" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="W15" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X15" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC15" t="n">
         <v>9.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AI15" t="n">
         <v>10.25</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL15" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AN15" t="n">
         <v>10.25</v>
@@ -2654,10 +2654,10 @@
         <v>35</v>
       </c>
       <c r="AP15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
         <v>4.05</v>
@@ -2706,28 +2706,28 @@
         <v>2.42</v>
       </c>
       <c r="K16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -2735,43 +2735,43 @@
         <v>2.87</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X16" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI16" t="n">
         <v>13.5</v>
@@ -2783,10 +2783,10 @@
         <v>400</v>
       </c>
       <c r="AL16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN16" t="n">
         <v>13</v>
@@ -2795,10 +2795,10 @@
         <v>65</v>
       </c>
       <c r="AP16" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ16" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2834,43 +2834,109 @@
           <t>Shamakhi</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.85</v>
+      </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.47</v>
+      </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>75</v>
+      </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
     </row>
@@ -3198,7 +3264,7 @@
         <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
@@ -3230,10 +3296,10 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
         <v>1.33</v>
@@ -3275,7 +3341,7 @@
         <v>21</v>
       </c>
       <c r="AJ20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK20" t="n">
         <v>351</v>
@@ -3348,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -3357,36 +3423,36 @@
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA21" t="n">
         <v>6</v>
@@ -3413,7 +3479,7 @@
         <v>6</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
         <v>67</v>
@@ -3422,7 +3488,7 @@
         <v>351</v>
       </c>
       <c r="AL21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM21" t="n">
         <v>19</v>
@@ -3434,7 +3500,7 @@
         <v>41</v>
       </c>
       <c r="AP21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -3478,13 +3544,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
@@ -3534,7 +3600,7 @@
         <v>1.67</v>
       </c>
       <c r="AA22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB22" t="n">
         <v>13</v>
@@ -3623,13 +3689,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J23" t="n">
         <v>4.5</v>
@@ -3638,7 +3704,7 @@
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3665,10 +3731,10 @@
         <v>1.4</v>
       </c>
       <c r="U23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
         <v>1.44</v>
@@ -3686,10 +3752,10 @@
         <v>11</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD23" t="n">
         <v>41</v>
@@ -3701,7 +3767,7 @@
         <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH23" t="n">
         <v>6.5</v>
@@ -3719,13 +3785,13 @@
         <v>7</v>
       </c>
       <c r="AM23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN23" t="n">
         <v>9</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>17</v>
@@ -3811,7 +3877,7 @@
         <v>2.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="U24" t="n">
         <v>3.5</v>
@@ -3939,10 +4005,10 @@
         <v>5.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
         <v>1.5</v>
@@ -4243,10 +4309,10 @@
         <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q27" t="n">
         <v>2.2</v>
@@ -4360,22 +4426,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H28" t="n">
         <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K28" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -4407,28 +4473,28 @@
         <v>1.42</v>
       </c>
       <c r="X28" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Y28" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AC28" t="n">
         <v>8.75</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AE28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF28" t="n">
         <v>32</v>
@@ -4443,28 +4509,28 @@
         <v>21</v>
       </c>
       <c r="AJ28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK28" t="n">
         <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM28" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO28" t="n">
         <v>120</v>
       </c>
       <c r="AP28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>70</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>75</v>
       </c>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -4519,10 +4585,10 @@
         <v>8</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O29" t="n">
         <v>1.18</v>
@@ -4646,22 +4712,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H30" t="n">
         <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K30" t="n">
         <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
@@ -4684,10 +4750,10 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W30" t="n">
         <v>1.33</v>
@@ -4738,7 +4804,7 @@
         <v>13</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN30" t="n">
         <v>13</v>
@@ -4946,10 +5012,10 @@
         <v>3.4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
         <v>1.29</v>
@@ -4958,10 +5024,10 @@
         <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R32" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -5099,10 +5165,10 @@
         <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5210,13 +5276,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J34" t="n">
         <v>3.6</v>
@@ -5269,7 +5335,7 @@
         <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
         <v>12</v>
@@ -5311,10 +5377,10 @@
         <v>21</v>
       </c>
       <c r="AP34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5492,19 +5558,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L36" t="n">
         <v>4</v>
@@ -5522,10 +5588,10 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -5551,13 +5617,13 @@
         <v>7.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC36" t="n">
         <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE36" t="n">
         <v>17</v>
@@ -5575,7 +5641,7 @@
         <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK36" t="n">
         <v>201</v>
@@ -5657,10 +5723,10 @@
         <v>7</v>
       </c>
       <c r="O37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q37" t="n">
         <v>2.5</v>
@@ -5740,10 +5806,10 @@
         <v>41</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="38">
@@ -5940,7 +6006,7 @@
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O39" t="n">
         <v>1.25</v>
@@ -6219,10 +6285,10 @@
         <v>2.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O41" t="n">
         <v>1.25</v>
@@ -6342,16 +6408,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
@@ -6363,7 +6429,7 @@
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -6392,10 +6458,10 @@
         <v>2.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA42" t="n">
         <v>7</v>
@@ -6440,7 +6506,7 @@
         <v>11</v>
       </c>
       <c r="AO42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP42" t="n">
         <v>26</v>
@@ -6765,13 +6831,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H45" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="J45" t="n">
         <v>2.25</v>
@@ -6795,10 +6861,10 @@
         <v>3.8</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R45" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -7782,7 +7848,7 @@
         <v>3.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R52" t="n">
         <v>1.85</v>
@@ -8030,13 +8096,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
         <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
         <v>2.75</v>
@@ -8045,7 +8111,7 @@
         <v>2.3</v>
       </c>
       <c r="L54" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
@@ -8102,7 +8168,7 @@
         <v>21</v>
       </c>
       <c r="AE54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF54" t="n">
         <v>21</v>
@@ -8123,10 +8189,10 @@
         <v>126</v>
       </c>
       <c r="AL54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN54" t="n">
         <v>11</v>
@@ -8135,7 +8201,7 @@
         <v>34</v>
       </c>
       <c r="AP54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ54" t="n">
         <v>26</v>
@@ -8594,16 +8660,16 @@
         <v>1.8</v>
       </c>
       <c r="H59" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I59" t="n">
         <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K59" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L59" t="n">
         <v>4.33</v>
@@ -8621,7 +8687,7 @@
         <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R59" t="n">
         <v>2.25</v>
@@ -8754,10 +8820,10 @@
         <v>2.5</v>
       </c>
       <c r="M60" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O60" t="n">
         <v>1.2</v>
@@ -8766,7 +8832,7 @@
         <v>4.33</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R60" t="n">
         <v>2.15</v>
@@ -8877,16 +8943,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H61" t="n">
         <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J61" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="K61" t="n">
         <v>2.6</v>
@@ -8907,7 +8973,7 @@
         <v>5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R61" t="n">
         <v>2.4</v>
@@ -9052,10 +9118,10 @@
         <v>6</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R62" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S62" t="n">
         <v>1.8</v>
@@ -9167,16 +9233,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H63" t="n">
         <v>3.6</v>
       </c>
       <c r="I63" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K63" t="n">
         <v>2.4</v>
@@ -9221,10 +9287,10 @@
         <v>3.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA63" t="n">
         <v>12</v>
@@ -9263,7 +9329,7 @@
         <v>15</v>
       </c>
       <c r="AM63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN63" t="n">
         <v>12</v>
@@ -9272,7 +9338,7 @@
         <v>34</v>
       </c>
       <c r="AP63" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ63" t="n">
         <v>23</v>
@@ -9493,10 +9559,10 @@
         <v>2.35</v>
       </c>
       <c r="S65" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T65" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U65" t="n">
         <v>2.38</v>
@@ -9602,13 +9668,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H66" t="n">
         <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J66" t="n">
         <v>3.1</v>
@@ -9620,10 +9686,10 @@
         <v>4.33</v>
       </c>
       <c r="M66" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O66" t="n">
         <v>1.44</v>
@@ -9635,7 +9701,7 @@
         <v>2.5</v>
       </c>
       <c r="R66" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -9682,7 +9748,7 @@
         <v>6</v>
       </c>
       <c r="AI66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ66" t="n">
         <v>67</v>
@@ -9780,7 +9846,7 @@
         <v>2.2</v>
       </c>
       <c r="R67" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
@@ -10029,40 +10095,40 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H69" t="n">
         <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J69" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K69" t="n">
         <v>2.2</v>
       </c>
       <c r="L69" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N69" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O69" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P69" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R69" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
@@ -10073,49 +10139,49 @@
         <v>1.33</v>
       </c>
       <c r="W69" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X69" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z69" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA69" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC69" t="n">
         <v>8.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE69" t="n">
         <v>15</v>
       </c>
       <c r="AF69" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG69" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH69" t="n">
         <v>6.5</v>
       </c>
       <c r="AI69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK69" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL69" t="n">
         <v>12</v>
@@ -10124,16 +10190,16 @@
         <v>21</v>
       </c>
       <c r="AN69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO69" t="n">
         <v>41</v>
       </c>
       <c r="AP69" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr"/>
@@ -10200,7 +10266,7 @@
         <v>4.33</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R70" t="n">
         <v>2.15</v>
@@ -10344,7 +10410,7 @@
         <v>2.1</v>
       </c>
       <c r="R71" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -10485,7 +10551,7 @@
         <v>2.15</v>
       </c>
       <c r="R72" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -10602,7 +10668,7 @@
         <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K73" t="n">
         <v>2.1</v>
@@ -10626,7 +10692,7 @@
         <v>2.1</v>
       </c>
       <c r="R73" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10764,10 +10830,10 @@
         <v>3.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R74" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -10884,7 +10950,7 @@
         <v>9.5</v>
       </c>
       <c r="J75" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="K75" t="n">
         <v>2.75</v>
@@ -10905,7 +10971,7 @@
         <v>5.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R75" t="n">
         <v>2.75</v>
@@ -11016,28 +11082,28 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="H76" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I76" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K76" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L76" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="M76" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O76" t="n">
         <v>1.22</v>
@@ -11046,10 +11112,10 @@
         <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="R76" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11066,61 +11132,61 @@
         <v>3.25</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AA76" t="n">
         <v>17</v>
       </c>
       <c r="AB76" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD76" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG76" t="n">
         <v>13</v>
       </c>
       <c r="AH76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AN76" t="n">
         <v>9</v>
       </c>
-      <c r="AI76" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>700</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AO76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP76" t="n">
         <v>12</v>
       </c>
       <c r="AQ76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
@@ -11166,10 +11232,10 @@
         <v>3.2</v>
       </c>
       <c r="J77" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K77" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L77" t="n">
         <v>4.33</v>
@@ -11187,10 +11253,10 @@
         <v>2.63</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R77" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
@@ -11264,10 +11330,10 @@
         <v>41</v>
       </c>
       <c r="AR77" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AS77" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="78">
@@ -11302,45 +11368,45 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H78" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I78" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J78" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L78" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M78" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O78" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P78" t="n">
         <v>3.45</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R78" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="V78" t="n">
         <v>1.37</v>
@@ -11349,22 +11415,22 @@
         <v>1.39</v>
       </c>
       <c r="X78" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z78" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA78" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC78" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD78" t="n">
         <v>90</v>
@@ -11376,37 +11442,37 @@
         <v>45</v>
       </c>
       <c r="AG78" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AH78" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AI78" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ78" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK78" t="n">
         <v>450</v>
       </c>
       <c r="AL78" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AM78" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AN78" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AO78" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP78" t="n">
         <v>13</v>
       </c>
       <c r="AQ78" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -1314,10 +1314,10 @@
         <v>2.25</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
@@ -1371,10 +1371,10 @@
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="7">
@@ -1427,10 +1427,10 @@
         <v>9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1463,10 +1463,10 @@
         <v>2.63</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA7" t="n">
         <v>5</v>
@@ -1478,7 +1478,7 @@
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1496,7 +1496,7 @@
         <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="n">
         <v>101</v>
@@ -1725,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -1745,10 +1745,10 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
         <v>1.67</v>
@@ -1866,10 +1866,10 @@
         <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O10" t="n">
         <v>1.1</v>
@@ -1878,18 +1878,18 @@
         <v>7</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>1.2</v>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
@@ -2286,25 +2286,25 @@
         <v>2.15</v>
       </c>
       <c r="L13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -2318,10 +2318,10 @@
         <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Z13" t="n">
         <v>1.9</v>
@@ -2345,7 +2345,7 @@
         <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>6.5</v>
@@ -2360,7 +2360,7 @@
         <v>600</v>
       </c>
       <c r="AL13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM13" t="n">
         <v>13</v>
@@ -2553,19 +2553,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J15" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="K15" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
         <v>3.1</v>
@@ -2574,81 +2574,81 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>4.85</v>
+        <v>4.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AA15" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE15" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>16</v>
-      </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AI15" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK15" t="n">
         <v>150</v>
       </c>
       <c r="AL15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM15" t="n">
         <v>18.5</v>
       </c>
       <c r="AN15" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
         <v>35</v>
@@ -2657,7 +2657,7 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2838,104 +2838,104 @@
         <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="K17" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="R17" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>4.05</v>
+        <v>3.65</v>
       </c>
       <c r="V17" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD17" t="n">
         <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AG17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH17" t="n">
         <v>6.7</v>
       </c>
-      <c r="AH17" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AI17" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="n">
         <v>101</v>
       </c>
       <c r="AL17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AQ17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3264,7 +3264,7 @@
         <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
@@ -3276,22 +3276,22 @@
         <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3338,22 +3338,22 @@
         <v>9</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
       </c>
       <c r="AK20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
         <v>67</v>
@@ -3838,22 +3838,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3880,10 +3880,10 @@
         <v>1.46</v>
       </c>
       <c r="U24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
         <v>1.4</v>
@@ -3931,16 +3931,16 @@
         <v>251</v>
       </c>
       <c r="AL24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM24" t="n">
         <v>12</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
@@ -4136,22 +4136,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>1.91</v>
       </c>
       <c r="L26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.13</v>
@@ -4160,40 +4160,40 @@
         <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P26" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V26" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z26" t="n">
         <v>1.57</v>
-      </c>
-      <c r="X26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.62</v>
       </c>
       <c r="AA26" t="n">
         <v>5.5</v>
@@ -4208,7 +4208,7 @@
         <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -4220,16 +4220,16 @@
         <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK26" t="n">
         <v>101</v>
       </c>
       <c r="AL26" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AM26" t="n">
         <v>17</v>
@@ -4247,10 +4247,10 @@
         <v>51</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="27">
@@ -4750,10 +4750,10 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
         <v>1.33</v>
@@ -4853,22 +4853,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K31" t="n">
         <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4909,28 +4909,28 @@
         <v>1.91</v>
       </c>
       <c r="AA31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC31" t="n">
         <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG31" t="n">
         <v>9</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -4942,19 +4942,19 @@
         <v>251</v>
       </c>
       <c r="AL31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP31" t="n">
         <v>19</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>17</v>
       </c>
       <c r="AQ31" t="n">
         <v>29</v>
@@ -5276,28 +5276,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n">
         <v>1.2</v>
@@ -5326,25 +5326,25 @@
         <v>3.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF34" t="n">
         <v>29</v>
@@ -5356,25 +5356,25 @@
         <v>7</v>
       </c>
       <c r="AI34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ34" t="n">
         <v>41</v>
       </c>
       <c r="AK34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP34" t="n">
         <v>15</v>
@@ -5420,13 +5420,13 @@
         <v>1.85</v>
       </c>
       <c r="H35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
@@ -5435,10 +5435,10 @@
         <v>4.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -5482,7 +5482,7 @@
         <v>8.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE35" t="n">
         <v>15</v>
@@ -5497,7 +5497,7 @@
         <v>6.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ35" t="n">
         <v>41</v>
@@ -5512,7 +5512,7 @@
         <v>21</v>
       </c>
       <c r="AN35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO35" t="n">
         <v>41</v>
@@ -6285,13 +6285,13 @@
         <v>2.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
         <v>11</v>
       </c>
       <c r="O41" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P41" t="n">
         <v>3.75</v>
@@ -6308,7 +6308,7 @@
         <v>3.25</v>
       </c>
       <c r="V41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W41" t="n">
         <v>1.4</v>
@@ -6408,40 +6408,40 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.2</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P42" t="n">
         <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
         <v>4.33</v>
       </c>
       <c r="V42" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W42" t="n">
         <v>1.5</v>
@@ -6458,22 +6458,22 @@
         <v>2.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA42" t="n">
         <v>7</v>
       </c>
       <c r="AB42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE42" t="n">
         <v>21</v>
@@ -6482,10 +6482,10 @@
         <v>34</v>
       </c>
       <c r="AG42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI42" t="n">
         <v>17</v>
@@ -6494,22 +6494,22 @@
         <v>51</v>
       </c>
       <c r="AK42" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
         <v>8</v>
       </c>
       <c r="AM42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO42" t="n">
         <v>34</v>
       </c>
       <c r="AP42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ42" t="n">
         <v>41</v>
@@ -6567,13 +6567,13 @@
         <v>3.1</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N43" t="n">
         <v>17</v>
       </c>
       <c r="O43" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P43" t="n">
         <v>5.5</v>
@@ -6590,7 +6590,7 @@
         <v>2.2</v>
       </c>
       <c r="V43" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W43" t="n">
         <v>1.25</v>
@@ -6708,13 +6708,13 @@
         <v>3.25</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
         <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -6731,7 +6731,7 @@
         <v>2.75</v>
       </c>
       <c r="V44" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W44" t="n">
         <v>1.36</v>
@@ -6843,99 +6843,99 @@
         <v>2.25</v>
       </c>
       <c r="K45" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P45" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R45" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="V45" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Z45" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AB45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC45" t="n">
         <v>8.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE45" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG45" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AI45" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ45" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AK45" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="AL45" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM45" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AN45" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO45" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AP45" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AQ45" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -7254,16 +7254,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H48" t="n">
         <v>3.25</v>
       </c>
       <c r="I48" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J48" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
         <v>2</v>
@@ -7272,48 +7272,48 @@
         <v>2.63</v>
       </c>
       <c r="M48" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R48" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="W48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X48" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y48" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AA48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC48" t="n">
         <v>15</v>
@@ -7328,7 +7328,7 @@
         <v>41</v>
       </c>
       <c r="AG48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH48" t="n">
         <v>6.5</v>
@@ -7340,7 +7340,7 @@
         <v>67</v>
       </c>
       <c r="AK48" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL48" t="n">
         <v>6</v>
@@ -7355,13 +7355,17 @@
         <v>15</v>
       </c>
       <c r="AP48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ48" t="n">
         <v>34</v>
       </c>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
+      <c r="AR48" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7413,30 +7417,30 @@
         <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O49" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P49" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R49" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W49" t="n">
         <v>1.44</v>
@@ -7839,7 +7843,7 @@
         <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O52" t="n">
         <v>1.29</v>
@@ -7848,7 +7852,7 @@
         <v>3.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
         <v>1.85</v>
@@ -7862,16 +7866,16 @@
         <v>1.3</v>
       </c>
       <c r="W52" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X52" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z52" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA52" t="n">
         <v>9</v>
@@ -7892,7 +7896,7 @@
         <v>29</v>
       </c>
       <c r="AG52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH52" t="n">
         <v>6</v>
@@ -7907,7 +7911,7 @@
         <v>201</v>
       </c>
       <c r="AL52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM52" t="n">
         <v>13</v>
@@ -7919,7 +7923,7 @@
         <v>29</v>
       </c>
       <c r="AP52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ52" t="n">
         <v>29</v>
@@ -7959,22 +7963,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="H53" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I53" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K53" t="n">
         <v>1.98</v>
       </c>
       <c r="L53" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
@@ -8005,34 +8009,34 @@
         <v>2.32</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Z53" t="n">
         <v>1.75</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB53" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AC53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AE53" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF53" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG53" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AI53" t="n">
         <v>13</v>
@@ -8041,25 +8045,25 @@
         <v>65</v>
       </c>
       <c r="AK53" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL53" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AM53" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AN53" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO53" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ53" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8514,45 +8518,119 @@
           <t>Maghreb Fez</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.53</v>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
-      <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="inlineStr"/>
-      <c r="AN57" t="inlineStr"/>
-      <c r="AO57" t="inlineStr"/>
-      <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr"/>
+      <c r="U57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8585,45 +8663,119 @@
           <t>Renaissance Zemamra</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N58" t="n">
+        <v>6</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.44</v>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
-      <c r="AL58" t="inlineStr"/>
-      <c r="AM58" t="inlineStr"/>
-      <c r="AN58" t="inlineStr"/>
-      <c r="AO58" t="inlineStr"/>
-      <c r="AP58" t="inlineStr"/>
-      <c r="AQ58" t="inlineStr"/>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr"/>
+      <c r="U58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8666,10 +8818,10 @@
         <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K59" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L59" t="n">
         <v>4.33</v>
@@ -8687,7 +8839,7 @@
         <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R59" t="n">
         <v>2.25</v>
@@ -8820,10 +8972,10 @@
         <v>2.5</v>
       </c>
       <c r="M60" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O60" t="n">
         <v>1.2</v>
@@ -8832,7 +8984,7 @@
         <v>4.33</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R60" t="n">
         <v>2.15</v>
@@ -8949,10 +9101,10 @@
         <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J61" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K61" t="n">
         <v>2.6</v>
@@ -8973,22 +9125,22 @@
         <v>5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R61" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S61" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T61" t="n">
         <v>1.88</v>
       </c>
-      <c r="T61" t="n">
-        <v>1.98</v>
-      </c>
       <c r="U61" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V61" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W61" t="n">
         <v>1.29</v>
@@ -8997,19 +9149,19 @@
         <v>3.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC61" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD61" t="n">
         <v>9</v>
@@ -9021,7 +9173,7 @@
         <v>23</v>
       </c>
       <c r="AG61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH61" t="n">
         <v>10</v>
@@ -9033,7 +9185,7 @@
         <v>51</v>
       </c>
       <c r="AK61" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL61" t="n">
         <v>21</v>
@@ -9042,7 +9194,7 @@
         <v>41</v>
       </c>
       <c r="AN61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO61" t="n">
         <v>81</v>
@@ -9051,7 +9203,7 @@
         <v>51</v>
       </c>
       <c r="AQ61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr"/>
@@ -9559,10 +9711,10 @@
         <v>2.35</v>
       </c>
       <c r="S65" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T65" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U65" t="n">
         <v>2.38</v>
@@ -9686,10 +9838,10 @@
         <v>4.33</v>
       </c>
       <c r="M66" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N66" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O66" t="n">
         <v>1.44</v>
@@ -9698,18 +9850,18 @@
         <v>2.63</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R66" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V66" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W66" t="n">
         <v>1.57</v>
@@ -9775,10 +9927,10 @@
         <v>41</v>
       </c>
       <c r="AR66" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="67">
@@ -9837,13 +9989,13 @@
         <v>8</v>
       </c>
       <c r="O67" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P67" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R67" t="n">
         <v>1.62</v>
@@ -9899,7 +10051,7 @@
         <v>51</v>
       </c>
       <c r="AK67" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AL67" t="n">
         <v>11</v>
@@ -10236,16 +10388,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K70" t="n">
         <v>2.3</v>
@@ -10266,7 +10418,7 @@
         <v>4.33</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R70" t="n">
         <v>2.15</v>
@@ -10325,10 +10477,10 @@
         <v>126</v>
       </c>
       <c r="AL70" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN70" t="n">
         <v>9</v>
@@ -10395,10 +10547,10 @@
         <v>2.63</v>
       </c>
       <c r="M71" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -10410,7 +10562,7 @@
         <v>2.1</v>
       </c>
       <c r="R71" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -10539,7 +10691,7 @@
         <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O72" t="n">
         <v>1.36</v>
@@ -10551,7 +10703,7 @@
         <v>2.15</v>
       </c>
       <c r="R72" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -10668,7 +10820,7 @@
         <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K73" t="n">
         <v>2.1</v>
@@ -10692,7 +10844,7 @@
         <v>2.1</v>
       </c>
       <c r="R73" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10830,10 +10982,10 @@
         <v>3.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R74" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -10950,7 +11102,7 @@
         <v>9.5</v>
       </c>
       <c r="J75" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="K75" t="n">
         <v>2.75</v>
@@ -10971,7 +11123,7 @@
         <v>5.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R75" t="n">
         <v>2.75</v>
@@ -11082,40 +11234,40 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H76" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="J76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K76" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L76" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="M76" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N76" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O76" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R76" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11132,61 +11284,61 @@
         <v>3.25</v>
       </c>
       <c r="Y76" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AA76" t="n">
         <v>17</v>
       </c>
       <c r="AB76" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE76" t="n">
         <v>41</v>
       </c>
-      <c r="AC76" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>81</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>51</v>
-      </c>
       <c r="AF76" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG76" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI76" t="n">
         <v>21</v>
       </c>
       <c r="AJ76" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK76" t="n">
         <v>800</v>
       </c>
       <c r="AL76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AM76" t="n">
         <v>7</v>
       </c>
-      <c r="AM76" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AN76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP76" t="n">
         <v>12</v>
       </c>
       <c r="AQ76" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
@@ -11223,19 +11375,19 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>3.4</v>
       </c>
       <c r="I77" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K77" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L77" t="n">
         <v>4.33</v>
@@ -11247,13 +11399,13 @@
         <v>7</v>
       </c>
       <c r="O77" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P77" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="R77" t="n">
         <v>1.5</v>
@@ -11261,10 +11413,10 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W77" t="n">
         <v>1.57</v>
@@ -11279,10 +11431,10 @@
         <v>1.57</v>
       </c>
       <c r="AA77" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC77" t="n">
         <v>10</v>
@@ -11312,7 +11464,7 @@
         <v>1000</v>
       </c>
       <c r="AL77" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM77" t="n">
         <v>15</v>
@@ -11321,7 +11473,7 @@
         <v>13</v>
       </c>
       <c r="AO77" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP77" t="n">
         <v>34</v>
@@ -11330,10 +11482,10 @@
         <v>41</v>
       </c>
       <c r="AR77" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="78">
@@ -11368,34 +11520,34 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="H78" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I78" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K78" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L78" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M78" t="n">
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O78" t="n">
         <v>1.26</v>
       </c>
       <c r="P78" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q78" t="n">
         <v>1.78</v>
@@ -11406,16 +11558,16 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="V78" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W78" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X78" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Y78" t="n">
         <v>1.75</v>
@@ -11424,7 +11576,7 @@
         <v>1.95</v>
       </c>
       <c r="AA78" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB78" t="n">
         <v>30</v>
@@ -11436,40 +11588,40 @@
         <v>90</v>
       </c>
       <c r="AE78" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF78" t="n">
         <v>45</v>
       </c>
       <c r="AG78" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AH78" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AI78" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ78" t="n">
         <v>65</v>
       </c>
       <c r="AK78" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL78" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AM78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN78" t="n">
         <v>7.9</v>
       </c>
-      <c r="AN78" t="n">
-        <v>8</v>
-      </c>
       <c r="AO78" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ78" t="n">
         <v>24</v>
@@ -12359,44 +12511,44 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>3.25</v>
       </c>
       <c r="I85" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="J85" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="K85" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L85" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P85" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="R85" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="V85" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W85" t="n">
         <v>1.4</v>
@@ -12405,52 +12557,52 @@
         <v>2.52</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AA85" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AC85" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD85" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE85" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE85" t="n">
+      <c r="AF85" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AI85" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF85" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AJ85" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK85" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL85" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM85" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN85" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO85" t="n">
         <v>80</v>
@@ -12496,33 +12648,33 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.45</v>
+        <v>2.67</v>
       </c>
       <c r="H86" t="n">
         <v>2.87</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="J86" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K86" t="n">
         <v>1.95</v>
       </c>
       <c r="L86" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P86" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R86" t="n">
         <v>1.53</v>
@@ -12530,43 +12682,43 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="V86" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W86" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X86" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AA86" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AB86" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD86" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE86" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF86" t="n">
         <v>37</v>
       </c>
       <c r="AG86" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AH86" t="n">
         <v>5.6</v>
@@ -12581,22 +12733,22 @@
         <v>800</v>
       </c>
       <c r="AL86" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AM86" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AN86" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AO86" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AP86" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AQ86" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR86" t="inlineStr"/>
       <c r="AS86" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
@@ -758,7 +758,7 @@
         <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>12</v>
@@ -773,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -788,13 +788,13 @@
         <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -852,7 +852,7 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -899,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
         <v>21</v>
@@ -1182,7 +1182,7 @@
         <v>8</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
         <v>9.5</v>
@@ -1200,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1212,13 +1212,13 @@
         <v>251</v>
       </c>
       <c r="AL5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
         <v>29</v>
@@ -1227,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1282,10 +1282,10 @@
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1371,10 +1371,10 @@
         <v>41</v>
       </c>
       <c r="AR6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS6" t="n">
         <v>1.97</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1.93</v>
       </c>
     </row>
     <row r="7">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
@@ -1725,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -1751,10 +1751,10 @@
         <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
         <v>2.5</v>
@@ -1766,7 +1766,7 @@
         <v>5.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
@@ -1784,7 +1784,7 @@
         <v>5.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI9" t="n">
         <v>23</v>
@@ -1799,7 +1799,7 @@
         <v>6</v>
       </c>
       <c r="AM9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN9" t="n">
         <v>13</v>
@@ -2271,22 +2271,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
         <v>2.15</v>
       </c>
       <c r="L13" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2309,16 +2309,16 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
         <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Y13" t="n">
         <v>1.82</v>
@@ -2327,19 +2327,19 @@
         <v>1.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>32</v>
@@ -2360,19 +2360,19 @@
         <v>600</v>
       </c>
       <c r="AL13" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AM13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AO13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ13" t="n">
         <v>35</v>
@@ -2835,107 +2835,111 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="L17" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.8</v>
+      </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="P17" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.15</v>
+        <v>2.57</v>
       </c>
       <c r="R17" t="n">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="X17" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.02</v>
+        <v>2.35</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.6</v>
+        <v>4.75</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>7.8</v>
+        <v>6.1</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI17" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AK17" t="n">
         <v>101</v>
       </c>
       <c r="AL17" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AP17" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AQ17" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2990,22 +2994,22 @@
         <v>2.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -3399,28 +3403,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -3461,13 +3465,13 @@
         <v>8.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
         <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>34</v>
@@ -3476,7 +3480,7 @@
         <v>7.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI21" t="n">
         <v>17</v>
@@ -3488,7 +3492,7 @@
         <v>351</v>
       </c>
       <c r="AL21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="n">
         <v>19</v>
@@ -3500,7 +3504,7 @@
         <v>41</v>
       </c>
       <c r="AP21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -3544,13 +3548,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
@@ -3559,13 +3563,13 @@
         <v>1.91</v>
       </c>
       <c r="L22" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.5</v>
@@ -3603,16 +3607,16 @@
         <v>7.5</v>
       </c>
       <c r="AB22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC22" t="n">
         <v>13</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>12</v>
       </c>
       <c r="AD22" t="n">
         <v>34</v>
       </c>
       <c r="AE22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF22" t="n">
         <v>41</v>
@@ -3636,25 +3640,25 @@
         <v>6</v>
       </c>
       <c r="AM22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN22" t="n">
         <v>10</v>
       </c>
       <c r="AO22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="23">
@@ -3689,13 +3693,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J23" t="n">
         <v>4.5</v>
@@ -3704,7 +3708,7 @@
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3725,16 +3729,16 @@
         <v>1.75</v>
       </c>
       <c r="S23" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="T23" t="n">
         <v>1.4</v>
       </c>
       <c r="U23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
         <v>1.44</v>
@@ -3785,13 +3789,13 @@
         <v>7</v>
       </c>
       <c r="AM23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN23" t="n">
         <v>9</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
         <v>17</v>
@@ -3838,22 +3842,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3880,10 +3884,10 @@
         <v>1.46</v>
       </c>
       <c r="U24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
         <v>1.4</v>
@@ -3898,16 +3902,16 @@
         <v>1.91</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -3934,7 +3938,7 @@
         <v>8.5</v>
       </c>
       <c r="AM24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN24" t="n">
         <v>10</v>
@@ -4136,22 +4140,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
         <v>1.91</v>
       </c>
       <c r="L26" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.13</v>
@@ -4160,28 +4164,28 @@
         <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="U26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W26" t="n">
         <v>1.62</v>
@@ -4199,13 +4203,13 @@
         <v>5.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="n">
         <v>10</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
         <v>23</v>
@@ -4232,16 +4236,16 @@
         <v>7.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
         <v>41</v>
       </c>
       <c r="AP26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
@@ -4285,19 +4289,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
         <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
         <v>3.25</v>
@@ -4315,33 +4319,33 @@
         <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W27" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X27" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AA27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB27" t="n">
         <v>13</v>
@@ -4353,13 +4357,13 @@
         <v>29</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH27" t="n">
         <v>6.5</v>
@@ -4368,16 +4372,16 @@
         <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK27" t="n">
         <v>351</v>
       </c>
       <c r="AL27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
         <v>10</v>
@@ -4386,7 +4390,7 @@
         <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
         <v>34</v>
@@ -4426,66 +4430,66 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J28" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K28" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="P28" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="V28" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="W28" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="X28" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AC28" t="n">
         <v>8.75</v>
@@ -4494,43 +4498,43 @@
         <v>11.25</v>
       </c>
       <c r="AE28" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI28" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM28" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO28" t="n">
         <v>120</v>
       </c>
       <c r="AP28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AQ28" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -4627,7 +4631,7 @@
         <v>1.73</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB29" t="n">
         <v>6.5</v>
@@ -4648,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>21</v>
@@ -4660,16 +4664,16 @@
         <v>301</v>
       </c>
       <c r="AL29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="n">
         <v>26</v>
       </c>
-      <c r="AM29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>29</v>
-      </c>
       <c r="AO29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP29" t="n">
         <v>67</v>
@@ -4712,34 +4716,34 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K30" t="n">
         <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q30" t="n">
         <v>1.7</v>
@@ -4750,10 +4754,10 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W30" t="n">
         <v>1.33</v>
@@ -4762,22 +4766,22 @@
         <v>3.25</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC30" t="n">
         <v>8.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -4798,22 +4802,22 @@
         <v>41</v>
       </c>
       <c r="AK30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM30" t="n">
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ30" t="n">
         <v>34</v>
@@ -4853,13 +4857,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
         <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J31" t="n">
         <v>3.75</v>
@@ -4871,10 +4875,10 @@
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -4927,10 +4931,10 @@
         <v>34</v>
       </c>
       <c r="AG31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -4942,7 +4946,7 @@
         <v>251</v>
       </c>
       <c r="AL31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM31" t="n">
         <v>11</v>
@@ -5006,7 +5010,7 @@
         <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
         <v>3.4</v>
@@ -5044,10 +5048,10 @@
         <v>2.75</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z32" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA32" t="n">
         <v>9</v>
@@ -5068,7 +5072,7 @@
         <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
         <v>6.5</v>
@@ -5153,10 +5157,10 @@
         <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
         <v>1.3</v>
@@ -5276,13 +5280,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I34" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -5344,10 +5348,10 @@
         <v>41</v>
       </c>
       <c r="AE34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG34" t="n">
         <v>13</v>
@@ -5368,7 +5372,7 @@
         <v>9</v>
       </c>
       <c r="AM34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN34" t="n">
         <v>8.5</v>
@@ -5377,7 +5381,7 @@
         <v>17</v>
       </c>
       <c r="AP34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ34" t="n">
         <v>21</v>
@@ -5588,10 +5592,10 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -5985,28 +5989,28 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
         <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O39" t="n">
         <v>1.25</v>
@@ -6041,10 +6045,10 @@
         <v>2.1</v>
       </c>
       <c r="AA39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC39" t="n">
         <v>10</v>
@@ -6056,7 +6060,7 @@
         <v>21</v>
       </c>
       <c r="AF39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG39" t="n">
         <v>12</v>
@@ -6074,13 +6078,13 @@
         <v>151</v>
       </c>
       <c r="AL39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM39" t="n">
         <v>13</v>
       </c>
       <c r="AN39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO39" t="n">
         <v>23</v>
@@ -6156,10 +6160,10 @@
         <v>3.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R40" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -6285,13 +6289,13 @@
         <v>2.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
         <v>11</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P41" t="n">
         <v>3.75</v>
@@ -6308,7 +6312,7 @@
         <v>3.25</v>
       </c>
       <c r="V41" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W41" t="n">
         <v>1.4</v>
@@ -6426,13 +6430,13 @@
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
         <v>8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
         <v>2.75</v>
@@ -6449,7 +6453,7 @@
         <v>4.33</v>
       </c>
       <c r="V42" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W42" t="n">
         <v>1.5</v>
@@ -6567,13 +6571,13 @@
         <v>3.1</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
         <v>17</v>
       </c>
       <c r="O43" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P43" t="n">
         <v>5.5</v>
@@ -6590,7 +6594,7 @@
         <v>2.2</v>
       </c>
       <c r="V43" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W43" t="n">
         <v>1.25</v>
@@ -6708,13 +6712,13 @@
         <v>3.25</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
         <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -6731,7 +6735,7 @@
         <v>2.75</v>
       </c>
       <c r="V44" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W44" t="n">
         <v>1.36</v>
@@ -6887,7 +6891,7 @@
         <v>2</v>
       </c>
       <c r="AA45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB45" t="n">
         <v>8.5</v>
@@ -6908,7 +6912,7 @@
         <v>13</v>
       </c>
       <c r="AH45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI45" t="n">
         <v>15</v>
@@ -6972,22 +6976,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J46" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K46" t="n">
         <v>2.3</v>
       </c>
       <c r="L46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -6996,10 +7000,10 @@
         <v>13</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
         <v>1.7</v>
@@ -7028,7 +7032,7 @@
         <v>2.2</v>
       </c>
       <c r="AA46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB46" t="n">
         <v>11</v>
@@ -7037,7 +7041,7 @@
         <v>9</v>
       </c>
       <c r="AD46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE46" t="n">
         <v>15</v>
@@ -7052,7 +7056,7 @@
         <v>7</v>
       </c>
       <c r="AI46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ46" t="n">
         <v>41</v>
@@ -7064,13 +7068,13 @@
         <v>13</v>
       </c>
       <c r="AM46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP46" t="n">
         <v>26</v>
@@ -7254,13 +7258,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J48" t="n">
         <v>5</v>
@@ -7269,13 +7273,13 @@
         <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O48" t="n">
         <v>1.44</v>
@@ -7310,22 +7314,22 @@
         <v>1.67</v>
       </c>
       <c r="AA48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
         <v>15</v>
       </c>
       <c r="AD48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE48" t="n">
         <v>41</v>
       </c>
       <c r="AF48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG48" t="n">
         <v>7.5</v>
@@ -7343,10 +7347,10 @@
         <v>501</v>
       </c>
       <c r="AL48" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN48" t="n">
         <v>9</v>
@@ -7355,16 +7359,16 @@
         <v>15</v>
       </c>
       <c r="AP48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ48" t="n">
         <v>34</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="49">
@@ -7699,10 +7703,10 @@
         <v>4.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O51" t="n">
         <v>1.29</v>
@@ -7843,7 +7847,7 @@
         <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
         <v>1.29</v>
@@ -7852,10 +7856,10 @@
         <v>3.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R52" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -7963,59 +7967,59 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="H53" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I53" t="n">
         <v>2.6</v>
       </c>
       <c r="J53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K53" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="L53" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="P53" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="R53" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="V53" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W53" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="X53" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AA53" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB53" t="n">
         <v>9.75</v>
@@ -8027,43 +8031,43 @@
         <v>22</v>
       </c>
       <c r="AE53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF53" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG53" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AH53" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AI53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ53" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK53" t="n">
         <v>450</v>
       </c>
       <c r="AL53" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AM53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN53" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO53" t="n">
         <v>23</v>
       </c>
       <c r="AP53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ53" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8100,13 +8104,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J54" t="n">
         <v>2.75</v>
@@ -8115,7 +8119,7 @@
         <v>2.3</v>
       </c>
       <c r="L54" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
@@ -8172,7 +8176,7 @@
         <v>21</v>
       </c>
       <c r="AE54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF54" t="n">
         <v>21</v>
@@ -8205,7 +8209,7 @@
         <v>34</v>
       </c>
       <c r="AP54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ54" t="n">
         <v>26</v>
@@ -8537,10 +8541,10 @@
         <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.44</v>
@@ -8563,25 +8567,25 @@
         <v>1.18</v>
       </c>
       <c r="W57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z57" t="n">
         <v>1.57</v>
-      </c>
-      <c r="X57" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1.53</v>
       </c>
       <c r="AA57" t="n">
         <v>5</v>
       </c>
       <c r="AB57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD57" t="n">
         <v>13</v>
@@ -8614,7 +8618,7 @@
         <v>26</v>
       </c>
       <c r="AN57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO57" t="n">
         <v>67</v>
@@ -8623,7 +8627,7 @@
         <v>51</v>
       </c>
       <c r="AQ57" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR57" t="n">
         <v>1.83</v>
@@ -8682,22 +8686,22 @@
         <v>4.33</v>
       </c>
       <c r="M58" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N58" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P58" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R58" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -8771,10 +8775,10 @@
         <v>51</v>
       </c>
       <c r="AR58" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="59">
@@ -9104,7 +9108,7 @@
         <v>8</v>
       </c>
       <c r="J61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K61" t="n">
         <v>2.6</v>
@@ -9116,7 +9120,7 @@
         <v>1.03</v>
       </c>
       <c r="N61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O61" t="n">
         <v>1.17</v>
@@ -9155,7 +9159,7 @@
         <v>1.83</v>
       </c>
       <c r="AA61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB61" t="n">
         <v>7</v>
@@ -9176,7 +9180,7 @@
         <v>15</v>
       </c>
       <c r="AH61" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI61" t="n">
         <v>19</v>
@@ -9194,7 +9198,7 @@
         <v>41</v>
       </c>
       <c r="AN61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO61" t="n">
         <v>81</v>
@@ -9249,7 +9253,7 @@
         <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K62" t="n">
         <v>2.6</v>
@@ -9294,10 +9298,10 @@
         <v>3.75</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA62" t="n">
         <v>11</v>
@@ -9385,13 +9389,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>3.6</v>
       </c>
       <c r="I63" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J63" t="n">
         <v>2.6</v>
@@ -9400,7 +9404,7 @@
         <v>2.4</v>
       </c>
       <c r="L63" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -9445,16 +9449,16 @@
         <v>2.5</v>
       </c>
       <c r="AA63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB63" t="n">
         <v>12</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>13</v>
       </c>
       <c r="AC63" t="n">
         <v>9</v>
       </c>
       <c r="AD63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE63" t="n">
         <v>15</v>
@@ -9493,7 +9497,7 @@
         <v>23</v>
       </c>
       <c r="AQ63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
@@ -9560,10 +9564,10 @@
         <v>4.33</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R64" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S64" t="n">
         <v>1.93</v>
@@ -9593,7 +9597,7 @@
         <v>9</v>
       </c>
       <c r="AB64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC64" t="n">
         <v>8.5</v>
@@ -9729,10 +9733,10 @@
         <v>3.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z65" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA65" t="n">
         <v>13</v>
@@ -9759,10 +9763,10 @@
         <v>8</v>
       </c>
       <c r="AI65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK65" t="n">
         <v>126</v>
@@ -9774,7 +9778,7 @@
         <v>13</v>
       </c>
       <c r="AN65" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO65" t="n">
         <v>21</v>
@@ -9823,7 +9827,7 @@
         <v>2.2</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I66" t="n">
         <v>3.5</v>
@@ -9832,36 +9836,36 @@
         <v>3.1</v>
       </c>
       <c r="K66" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L66" t="n">
         <v>4.33</v>
       </c>
       <c r="M66" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R66" t="n">
         <v>1.44</v>
-      </c>
-      <c r="P66" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R66" t="n">
-        <v>1.53</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="V66" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="W66" t="n">
         <v>1.57</v>
@@ -9870,10 +9874,10 @@
         <v>2.25</v>
       </c>
       <c r="Y66" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA66" t="n">
         <v>6</v>
@@ -9888,13 +9892,13 @@
         <v>21</v>
       </c>
       <c r="AE66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF66" t="n">
         <v>41</v>
       </c>
       <c r="AG66" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH66" t="n">
         <v>6</v>
@@ -9903,7 +9907,7 @@
         <v>19</v>
       </c>
       <c r="AJ66" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK66" t="n">
         <v>101</v>
@@ -9924,13 +9928,13 @@
         <v>34</v>
       </c>
       <c r="AQ66" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR66" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="67">
@@ -10412,30 +10416,30 @@
         <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P70" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R70" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X70" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y70" t="n">
         <v>1.57</v>
@@ -10459,7 +10463,7 @@
         <v>23</v>
       </c>
       <c r="AF70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG70" t="n">
         <v>15</v>
@@ -10477,10 +10481,10 @@
         <v>126</v>
       </c>
       <c r="AL70" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN70" t="n">
         <v>9</v>
@@ -10538,7 +10542,7 @@
         <v>1.95</v>
       </c>
       <c r="J71" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K71" t="n">
         <v>2.1</v>
@@ -10547,10 +10551,10 @@
         <v>2.63</v>
       </c>
       <c r="M71" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -10585,19 +10589,19 @@
         <v>1.8</v>
       </c>
       <c r="AA71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB71" t="n">
         <v>17</v>
       </c>
       <c r="AC71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD71" t="n">
         <v>41</v>
       </c>
       <c r="AE71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF71" t="n">
         <v>41</v>
@@ -11099,22 +11103,22 @@
         <v>7.5</v>
       </c>
       <c r="I75" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J75" t="n">
         <v>1.57</v>
       </c>
       <c r="K75" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L75" t="n">
         <v>8.5</v>
       </c>
       <c r="M75" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="N75" t="n">
-        <v>13</v>
+        <v>1.03</v>
       </c>
       <c r="O75" t="n">
         <v>1.13</v>
@@ -11149,13 +11153,13 @@
         <v>1.73</v>
       </c>
       <c r="AA75" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB75" t="n">
         <v>7</v>
       </c>
       <c r="AC75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD75" t="n">
         <v>7.5</v>
@@ -11258,16 +11262,16 @@
         <v>10</v>
       </c>
       <c r="O76" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P76" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R76" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11455,7 +11459,7 @@
         <v>7</v>
       </c>
       <c r="AI77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ77" t="n">
         <v>81</v>
@@ -11473,7 +11477,7 @@
         <v>13</v>
       </c>
       <c r="AO77" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP77" t="n">
         <v>34</v>
@@ -11685,16 +11689,16 @@
         <v>6.5</v>
       </c>
       <c r="O79" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P79" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R79" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
@@ -11768,10 +11772,10 @@
         <v>41</v>
       </c>
       <c r="AR79" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="80">
@@ -11806,31 +11810,31 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="H80" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I80" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J80" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K80" t="n">
         <v>2.12</v>
       </c>
       <c r="L80" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="M80" t="n">
         <v>1.05</v>
       </c>
       <c r="N80" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O80" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P80" t="n">
         <v>3.55</v>
@@ -11847,7 +11851,7 @@
         <v>2.8</v>
       </c>
       <c r="V80" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W80" t="n">
         <v>1.38</v>
@@ -11859,34 +11863,34 @@
         <v>1.62</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AA80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC80" t="n">
         <v>10.5</v>
       </c>
-      <c r="AB80" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>10</v>
-      </c>
       <c r="AD80" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AE80" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF80" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG80" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI80" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ80" t="n">
         <v>50</v>
@@ -11895,22 +11899,22 @@
         <v>300</v>
       </c>
       <c r="AL80" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM80" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AN80" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO80" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ80" t="n">
         <v>24</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>25</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -11947,22 +11951,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I81" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="J81" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="K81" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L81" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
@@ -11971,21 +11975,21 @@
         <v>8.25</v>
       </c>
       <c r="O81" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P81" t="n">
         <v>3.8</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R81" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V81" t="n">
         <v>1.44</v>
@@ -11997,25 +12001,25 @@
         <v>3</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="AA81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC81" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB81" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AD81" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE81" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF81" t="n">
         <v>22</v>
@@ -12024,34 +12028,34 @@
         <v>8.25</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AI81" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ81" t="n">
         <v>50</v>
       </c>
       <c r="AK81" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL81" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AM81" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AN81" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AO81" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AP81" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AQ81" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -12229,7 +12233,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H83" t="n">
         <v>3.9</v>
@@ -12241,7 +12245,7 @@
         <v>2.25</v>
       </c>
       <c r="K83" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L83" t="n">
         <v>5</v>
@@ -12250,27 +12254,27 @@
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O83" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R83" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V83" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W83" t="n">
         <v>1.36</v>
@@ -12279,16 +12283,16 @@
         <v>3</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z83" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA83" t="n">
         <v>7.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC83" t="n">
         <v>8.5</v>
@@ -12300,7 +12304,7 @@
         <v>13</v>
       </c>
       <c r="AF83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG83" t="n">
         <v>12</v>
@@ -12309,19 +12313,19 @@
         <v>7.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ83" t="n">
         <v>51</v>
       </c>
       <c r="AK83" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL83" t="n">
         <v>13</v>
       </c>
       <c r="AM83" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN83" t="n">
         <v>15</v>
@@ -12648,22 +12652,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.67</v>
+        <v>2.47</v>
       </c>
       <c r="H86" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I86" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K86" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L86" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -12682,7 +12686,7 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="V86" t="n">
         <v>1.2</v>
@@ -12700,22 +12704,22 @@
         <v>1.78</v>
       </c>
       <c r="AA86" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB86" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC86" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE86" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AF86" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG86" t="n">
         <v>7.1</v>
@@ -12724,31 +12728,31 @@
         <v>5.6</v>
       </c>
       <c r="AI86" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ86" t="n">
         <v>80</v>
       </c>
       <c r="AK86" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL86" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AM86" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AN86" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AO86" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AP86" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AQ86" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR86" t="inlineStr"/>
       <c r="AS86" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -716,16 +716,16 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>2.06</v>
@@ -734,10 +734,10 @@
         <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W2" t="n">
         <v>1.33</v>
@@ -758,7 +758,7 @@
         <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>12</v>
@@ -773,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -788,13 +788,13 @@
         <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -861,10 +861,10 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
         <v>2.1</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.1</v>
@@ -1173,10 +1173,10 @@
         <v>2.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
         <v>8</v>
@@ -1200,19 +1200,19 @@
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM5" t="n">
         <v>15</v>
@@ -1282,10 +1282,10 @@
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1314,10 +1314,10 @@
         <v>2.25</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
@@ -1359,10 +1359,10 @@
         <v>11</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1371,10 +1371,10 @@
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
@@ -1427,10 +1427,10 @@
         <v>9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1445,10 +1445,10 @@
         <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U7" t="n">
         <v>4</v>
@@ -1520,10 +1520,10 @@
         <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="8">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>1.8</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.14</v>
@@ -1737,10 +1737,10 @@
         <v>2.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1754,7 +1754,7 @@
         <v>1.73</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="Y9" t="n">
         <v>2.5</v>
@@ -1763,19 +1763,19 @@
         <v>1.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -1784,7 +1784,7 @@
         <v>5.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
         <v>23</v>
@@ -1799,13 +1799,13 @@
         <v>6</v>
       </c>
       <c r="AM9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="n">
         <v>34</v>
@@ -1857,19 +1857,19 @@
         <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
         <v>2.75</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O10" t="n">
         <v>1.1</v>
@@ -1886,10 +1886,10 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
         <v>1.2</v>
@@ -1904,7 +1904,7 @@
         <v>2.75</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
@@ -1925,7 +1925,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
         <v>12</v>
@@ -1989,22 +1989,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="J11" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K11" t="n">
         <v>2.18</v>
       </c>
       <c r="L11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2016,7 +2016,7 @@
         <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q11" t="n">
         <v>1.65</v>
@@ -2027,10 +2027,10 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="V11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W11" t="n">
         <v>1.35</v>
@@ -2048,16 +2048,16 @@
         <v>10.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
         <v>9.25</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF11" t="n">
         <v>22</v>
@@ -2078,19 +2078,19 @@
         <v>250</v>
       </c>
       <c r="AL11" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM11" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>25</v>
@@ -2271,72 +2271,72 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>2.15</v>
       </c>
       <c r="L13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2345,7 +2345,7 @@
         <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AH13" t="n">
         <v>6.5</v>
@@ -2354,13 +2354,13 @@
         <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
         <v>600</v>
       </c>
       <c r="AL13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM13" t="n">
         <v>12.5</v>
@@ -2369,13 +2369,13 @@
         <v>10</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP13" t="n">
         <v>22</v>
       </c>
       <c r="AQ13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
         <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2442,7 +2442,7 @@
         <v>3.35</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
         <v>1.88</v>
@@ -2468,16 +2468,16 @@
         <v>2.02</v>
       </c>
       <c r="AA14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB14" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE14" t="n">
         <v>30</v>
@@ -2489,7 +2489,7 @@
         <v>7.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI14" t="n">
         <v>13.5</v>
@@ -2501,19 +2501,19 @@
         <v>450</v>
       </c>
       <c r="AL14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AM14" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AN14" t="n">
         <v>8.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
         <v>25</v>
@@ -2553,19 +2553,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="J15" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L15" t="n">
         <v>3.1</v>
@@ -2591,7 +2591,7 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="V15" t="n">
         <v>1.62</v>
@@ -2609,55 +2609,55 @@
         <v>2.65</v>
       </c>
       <c r="AA15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE15" t="n">
         <v>16.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG15" t="n">
         <v>9.25</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AI15" t="n">
         <v>10.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
         <v>150</v>
       </c>
       <c r="AL15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AN15" t="n">
         <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2853,10 +2853,10 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.55</v>
@@ -3153,10 +3153,10 @@
         <v>2.35</v>
       </c>
       <c r="S19" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T19" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
         <v>2.38</v>
@@ -3330,7 +3330,7 @@
         <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
         <v>26</v>
@@ -3424,7 +3424,7 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -3566,10 +3566,10 @@
         <v>3.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O22" t="n">
         <v>1.5</v>
@@ -3655,10 +3655,10 @@
         <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="23">
@@ -3693,16 +3693,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
         <v>1.95</v>
       </c>
       <c r="J23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
@@ -3714,25 +3714,25 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
         <v>2.05</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="T23" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U23" t="n">
         <v>3.5</v>
@@ -3756,10 +3756,10 @@
         <v>11</v>
       </c>
       <c r="AB23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
         <v>41</v>
@@ -3771,7 +3771,7 @@
         <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH23" t="n">
         <v>6.5</v>
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="AK23" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL23" t="n">
         <v>7</v>
@@ -3804,10 +3804,10 @@
         <v>29</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="24">
@@ -3842,22 +3842,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3884,10 +3884,10 @@
         <v>1.46</v>
       </c>
       <c r="U24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
         <v>1.4</v>
@@ -3902,16 +3902,16 @@
         <v>1.91</v>
       </c>
       <c r="AA24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4307,10 +4307,10 @@
         <v>3.25</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -4319,10 +4319,10 @@
         <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -4430,60 +4430,60 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O28" t="n">
         <v>1.24</v>
       </c>
       <c r="P28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R28" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="V28" t="n">
         <v>1.42</v>
       </c>
       <c r="W28" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Y28" t="n">
         <v>1.83</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="AA28" t="n">
         <v>6.9</v>
@@ -4495,19 +4495,19 @@
         <v>8.75</v>
       </c>
       <c r="AD28" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF28" t="n">
         <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI28" t="n">
         <v>18.5</v>
@@ -4519,7 +4519,7 @@
         <v>700</v>
       </c>
       <c r="AL28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM28" t="n">
         <v>37</v>
@@ -4734,30 +4734,30 @@
         <v>4.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R30" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
         <v>1.33</v>
@@ -4775,7 +4775,7 @@
         <v>8</v>
       </c>
       <c r="AB30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC30" t="n">
         <v>8.5</v>
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
         <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J31" t="n">
         <v>3.75</v>
@@ -4875,10 +4875,10 @@
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -4931,10 +4931,10 @@
         <v>34</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -4946,7 +4946,7 @@
         <v>251</v>
       </c>
       <c r="AL31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM31" t="n">
         <v>11</v>
@@ -5022,16 +5022,16 @@
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R32" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -5169,10 +5169,10 @@
         <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H34" t="n">
         <v>3.7</v>
@@ -5336,7 +5336,7 @@
         <v>2.2</v>
       </c>
       <c r="AA34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB34" t="n">
         <v>21</v>
@@ -5351,10 +5351,10 @@
         <v>29</v>
       </c>
       <c r="AF34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH34" t="n">
         <v>7</v>
@@ -5381,7 +5381,7 @@
         <v>17</v>
       </c>
       <c r="AP34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ34" t="n">
         <v>21</v>
@@ -5522,7 +5522,7 @@
         <v>41</v>
       </c>
       <c r="AP35" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AQ35" t="n">
         <v>41</v>
@@ -5703,13 +5703,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H37" t="n">
         <v>2.88</v>
       </c>
       <c r="I37" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>3.4</v>
@@ -5721,10 +5721,10 @@
         <v>3.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.5</v>
@@ -5733,10 +5733,10 @@
         <v>2.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R37" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -5768,7 +5768,7 @@
         <v>11</v>
       </c>
       <c r="AD37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE37" t="n">
         <v>23</v>
@@ -5783,7 +5783,7 @@
         <v>6</v>
       </c>
       <c r="AI37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="n">
         <v>67</v>
@@ -5801,7 +5801,7 @@
         <v>12</v>
       </c>
       <c r="AO37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP37" t="n">
         <v>29</v>
@@ -5810,10 +5810,10 @@
         <v>41</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="38">
@@ -5860,7 +5860,7 @@
         <v>3.6</v>
       </c>
       <c r="K38" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L38" t="n">
         <v>3.1</v>
@@ -5898,13 +5898,13 @@
         <v>2.63</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="n">
         <v>15</v>
@@ -5916,7 +5916,7 @@
         <v>29</v>
       </c>
       <c r="AE38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF38" t="n">
         <v>34</v>
@@ -5934,16 +5934,16 @@
         <v>51</v>
       </c>
       <c r="AK38" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM38" t="n">
         <v>11</v>
       </c>
       <c r="AN38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO38" t="n">
         <v>23</v>
@@ -5952,7 +5952,7 @@
         <v>21</v>
       </c>
       <c r="AQ38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -5989,10 +5989,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I39" t="n">
         <v>2.38</v>
@@ -6007,10 +6007,10 @@
         <v>3.1</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O39" t="n">
         <v>1.25</v>
@@ -6051,10 +6051,10 @@
         <v>15</v>
       </c>
       <c r="AC39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE39" t="n">
         <v>21</v>
@@ -6063,7 +6063,7 @@
         <v>29</v>
       </c>
       <c r="AG39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH39" t="n">
         <v>6.5</v>
@@ -6078,13 +6078,13 @@
         <v>151</v>
       </c>
       <c r="AL39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM39" t="n">
         <v>13</v>
       </c>
       <c r="AN39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO39" t="n">
         <v>23</v>
@@ -6295,16 +6295,16 @@
         <v>11</v>
       </c>
       <c r="O41" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P41" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R41" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -6412,16 +6412,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>3.2</v>
       </c>
       <c r="I42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J42" t="n">
         <v>3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.1</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
@@ -6430,10 +6430,10 @@
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -6468,7 +6468,7 @@
         <v>1.8</v>
       </c>
       <c r="AA42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB42" t="n">
         <v>10</v>
@@ -6489,7 +6489,7 @@
         <v>8</v>
       </c>
       <c r="AH42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI42" t="n">
         <v>17</v>
@@ -6501,7 +6501,7 @@
         <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM42" t="n">
         <v>15</v>
@@ -6571,10 +6571,10 @@
         <v>3.1</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O43" t="n">
         <v>1.14</v>
@@ -6583,18 +6583,18 @@
         <v>5.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R43" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V43" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W43" t="n">
         <v>1.25</v>
@@ -7000,10 +7000,10 @@
         <v>13</v>
       </c>
       <c r="O46" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q46" t="n">
         <v>1.7</v>
@@ -7288,10 +7288,10 @@
         <v>2.63</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R48" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -7365,10 +7365,10 @@
         <v>34</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="49">
@@ -7433,18 +7433,18 @@
         <v>2.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R49" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V49" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W49" t="n">
         <v>1.44</v>
@@ -7544,22 +7544,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H50" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J50" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K50" t="n">
         <v>2.05</v>
       </c>
       <c r="L50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
@@ -7603,16 +7603,16 @@
         <v>5.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC50" t="n">
         <v>9</v>
       </c>
       <c r="AD50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF50" t="n">
         <v>34</v>
@@ -7621,7 +7621,7 @@
         <v>8</v>
       </c>
       <c r="AH50" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI50" t="n">
         <v>21</v>
@@ -7633,19 +7633,19 @@
         <v>501</v>
       </c>
       <c r="AL50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ50" t="n">
         <v>51</v>
@@ -7856,10 +7856,10 @@
         <v>3.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -8668,22 +8668,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H58" t="n">
         <v>2.88</v>
       </c>
       <c r="I58" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J58" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K58" t="n">
         <v>1.91</v>
       </c>
       <c r="L58" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>1.11</v>
@@ -8712,10 +8712,10 @@
         <v>1.14</v>
       </c>
       <c r="W58" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X58" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y58" t="n">
         <v>2.2</v>
@@ -8727,7 +8727,7 @@
         <v>6</v>
       </c>
       <c r="AB58" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC58" t="n">
         <v>10</v>
@@ -8742,7 +8742,7 @@
         <v>41</v>
       </c>
       <c r="AG58" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH58" t="n">
         <v>6</v>
@@ -8766,13 +8766,13 @@
         <v>13</v>
       </c>
       <c r="AO58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP58" t="n">
         <v>34</v>
       </c>
       <c r="AQ58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR58" t="n">
         <v>1.98</v>
@@ -9099,19 +9099,19 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H61" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J61" t="n">
         <v>1.83</v>
       </c>
       <c r="K61" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L61" t="n">
         <v>7</v>
@@ -9123,28 +9123,28 @@
         <v>15</v>
       </c>
       <c r="O61" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R61" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S61" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T61" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U61" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V61" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W61" t="n">
         <v>1.29</v>
@@ -9274,10 +9274,10 @@
         <v>6</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R62" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S62" t="n">
         <v>1.8</v>
@@ -9425,16 +9425,16 @@
         <v>2.4</v>
       </c>
       <c r="S63" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T63" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U63" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V63" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W63" t="n">
         <v>1.29</v>
@@ -9534,13 +9534,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>3.6</v>
       </c>
       <c r="I64" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J64" t="n">
         <v>2.5</v>
@@ -9552,10 +9552,10 @@
         <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O64" t="n">
         <v>1.2</v>
@@ -9564,10 +9564,10 @@
         <v>4.33</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R64" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S64" t="n">
         <v>1.93</v>
@@ -9639,7 +9639,7 @@
         <v>41</v>
       </c>
       <c r="AP64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ64" t="n">
         <v>29</v>
@@ -9999,18 +9999,18 @@
         <v>2.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R67" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V67" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W67" t="n">
         <v>1.5</v>
@@ -10110,28 +10110,28 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H68" t="n">
         <v>3.4</v>
       </c>
       <c r="I68" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J68" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K68" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L68" t="n">
         <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O68" t="n">
         <v>1.25</v>
@@ -10172,10 +10172,10 @@
         <v>10</v>
       </c>
       <c r="AC68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE68" t="n">
         <v>15</v>
@@ -10184,7 +10184,7 @@
         <v>23</v>
       </c>
       <c r="AG68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH68" t="n">
         <v>6.5</v>
@@ -10199,10 +10199,10 @@
         <v>151</v>
       </c>
       <c r="AL68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM68" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN68" t="n">
         <v>13</v>
@@ -10269,22 +10269,22 @@
         <v>4.5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O69" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P69" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R69" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
@@ -10551,10 +10551,10 @@
         <v>2.63</v>
       </c>
       <c r="M71" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -10836,7 +10836,7 @@
         <v>1.07</v>
       </c>
       <c r="N73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O73" t="n">
         <v>1.33</v>
@@ -10956,16 +10956,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I74" t="n">
         <v>3.9</v>
       </c>
       <c r="J74" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K74" t="n">
         <v>2.2</v>
@@ -10974,22 +10974,22 @@
         <v>4.33</v>
       </c>
       <c r="M74" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N74" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O74" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P74" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R74" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -11000,10 +11000,10 @@
         <v>1.33</v>
       </c>
       <c r="W74" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X74" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y74" t="n">
         <v>1.8</v>
@@ -11015,7 +11015,7 @@
         <v>7.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC74" t="n">
         <v>9</v>
@@ -11097,22 +11097,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H75" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J75" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K75" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L75" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M75" t="n">
         <v>21</v>
@@ -11147,22 +11147,22 @@
         <v>4</v>
       </c>
       <c r="Y75" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AA75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB75" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC75" t="n">
         <v>10</v>
       </c>
       <c r="AD75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE75" t="n">
         <v>11</v>
@@ -11174,25 +11174,25 @@
         <v>21</v>
       </c>
       <c r="AH75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ75" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK75" t="n">
         <v>700</v>
       </c>
       <c r="AL75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM75" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO75" t="n">
         <v>101</v>
@@ -11201,7 +11201,7 @@
         <v>51</v>
       </c>
       <c r="AQ75" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -11238,22 +11238,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I76" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K76" t="n">
         <v>2.38</v>
       </c>
       <c r="L76" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M76" t="n">
         <v>1.03</v>
@@ -11262,10 +11262,10 @@
         <v>10</v>
       </c>
       <c r="O76" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q76" t="n">
         <v>1.67</v>
@@ -11294,16 +11294,16 @@
         <v>1.83</v>
       </c>
       <c r="AA76" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC76" t="n">
         <v>17</v>
       </c>
-      <c r="AB76" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>19</v>
-      </c>
       <c r="AD76" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE76" t="n">
         <v>41</v>
@@ -11312,31 +11312,31 @@
         <v>41</v>
       </c>
       <c r="AG76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ76" t="n">
         <v>51</v>
       </c>
       <c r="AK76" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL76" t="n">
         <v>7.5</v>
       </c>
       <c r="AM76" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN76" t="n">
         <v>8.5</v>
       </c>
       <c r="AO76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP76" t="n">
         <v>12</v>
@@ -11382,10 +11382,10 @@
         <v>2.1</v>
       </c>
       <c r="H77" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I77" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J77" t="n">
         <v>2.88</v>
@@ -11397,10 +11397,10 @@
         <v>4.33</v>
       </c>
       <c r="M77" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N77" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O77" t="n">
         <v>1.5</v>
@@ -11417,10 +11417,10 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W77" t="n">
         <v>1.57</v>
@@ -11429,13 +11429,13 @@
         <v>2.25</v>
       </c>
       <c r="Y77" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA77" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB77" t="n">
         <v>9</v>
@@ -11453,13 +11453,13 @@
         <v>41</v>
       </c>
       <c r="AG77" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ77" t="n">
         <v>81</v>
@@ -11468,10 +11468,10 @@
         <v>1000</v>
       </c>
       <c r="AL77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN77" t="n">
         <v>13</v>
@@ -11483,13 +11483,13 @@
         <v>34</v>
       </c>
       <c r="AQ77" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR77" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="78">
@@ -11524,34 +11524,34 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="H78" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I78" t="n">
         <v>1.62</v>
       </c>
       <c r="J78" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
         <v>2.18</v>
       </c>
       <c r="L78" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="M78" t="n">
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O78" t="n">
         <v>1.26</v>
       </c>
       <c r="P78" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q78" t="n">
         <v>1.78</v>
@@ -11580,10 +11580,10 @@
         <v>1.95</v>
       </c>
       <c r="AA78" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB78" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC78" t="n">
         <v>15.5</v>
@@ -11592,31 +11592,31 @@
         <v>90</v>
       </c>
       <c r="AE78" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AF78" t="n">
         <v>45</v>
       </c>
       <c r="AG78" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AH78" t="n">
         <v>7.2</v>
       </c>
       <c r="AI78" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ78" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK78" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL78" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AM78" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AN78" t="n">
         <v>7.9</v>
@@ -11625,7 +11625,7 @@
         <v>12.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ78" t="n">
         <v>24</v>
@@ -11668,10 +11668,10 @@
         <v>2.3</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I79" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J79" t="n">
         <v>3.2</v>
@@ -11689,16 +11689,16 @@
         <v>6.5</v>
       </c>
       <c r="O79" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P79" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R79" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
@@ -11769,13 +11769,13 @@
         <v>34</v>
       </c>
       <c r="AQ79" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR79" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="80">
@@ -11951,22 +11951,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H81" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I81" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J81" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="K81" t="n">
         <v>2.22</v>
       </c>
       <c r="L81" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
@@ -11978,7 +11978,7 @@
         <v>1.23</v>
       </c>
       <c r="P81" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q81" t="n">
         <v>1.7</v>
@@ -11989,16 +11989,16 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="V81" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W81" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X81" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Y81" t="n">
         <v>1.62</v>
@@ -12010,7 +12010,7 @@
         <v>9</v>
       </c>
       <c r="AB81" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC81" t="n">
         <v>8.5</v>
@@ -12028,7 +12028,7 @@
         <v>8.25</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI81" t="n">
         <v>13</v>
@@ -12040,19 +12040,19 @@
         <v>300</v>
       </c>
       <c r="AL81" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM81" t="n">
         <v>19</v>
       </c>
       <c r="AN81" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AO81" t="n">
         <v>45</v>
       </c>
       <c r="AP81" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ81" t="n">
         <v>30</v>
@@ -12518,19 +12518,19 @@
         <v>1.8</v>
       </c>
       <c r="H85" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I85" t="n">
         <v>4.45</v>
       </c>
       <c r="J85" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="K85" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L85" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
@@ -12549,10 +12549,10 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="V85" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W85" t="n">
         <v>1.4</v>
@@ -12567,7 +12567,7 @@
         <v>1.8</v>
       </c>
       <c r="AA85" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB85" t="n">
         <v>8.25</v>
@@ -12579,31 +12579,31 @@
         <v>15</v>
       </c>
       <c r="AE85" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF85" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG85" t="n">
         <v>8.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AI85" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ85" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK85" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL85" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM85" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN85" t="n">
         <v>14.5</v>
@@ -12612,10 +12612,10 @@
         <v>80</v>
       </c>
       <c r="AP85" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ85" t="n">
         <v>50</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>55</v>
       </c>
       <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr"/>
@@ -12652,22 +12652,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J86" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K86" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L86" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -12686,64 +12686,64 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="V86" t="n">
         <v>1.2</v>
       </c>
       <c r="W86" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X86" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Z86" t="n">
         <v>1.78</v>
       </c>
       <c r="AA86" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB86" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC86" t="n">
         <v>9.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE86" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF86" t="n">
         <v>35</v>
       </c>
       <c r="AG86" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AH86" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AI86" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ86" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK86" t="n">
         <v>700</v>
       </c>
       <c r="AL86" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AM86" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN86" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AO86" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>5.75</v>
@@ -981,7 +981,7 @@
         <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>4.5</v>
@@ -1070,7 +1070,7 @@
         <v>9</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="n">
         <v>15</v>
@@ -1085,10 +1085,10 @@
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="5">
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1182,13 +1182,13 @@
         <v>8</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
         <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1197,7 +1197,7 @@
         <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1212,7 +1212,7 @@
         <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM5" t="n">
         <v>15</v>
@@ -1221,10 +1221,10 @@
         <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>34</v>
@@ -1294,10 +1294,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1314,10 +1314,10 @@
         <v>2.25</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
@@ -1338,7 +1338,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
@@ -1359,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>26</v>
@@ -1439,22 +1439,22 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
         <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
         <v>1.44</v>
@@ -1520,10 +1520,10 @@
         <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="8">
@@ -1558,28 +1558,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>1.8</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.67</v>
@@ -1591,13 +1591,13 @@
         <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U8" t="n">
         <v>7</v>
@@ -1618,19 +1618,19 @@
         <v>1.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1642,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
         <v>101</v>
@@ -1651,19 +1651,19 @@
         <v>451</v>
       </c>
       <c r="AL8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AP8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1707,16 +1707,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>1.8</v>
@@ -1725,10 +1725,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -1737,7 +1737,7 @@
         <v>2.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R9" t="n">
         <v>1.33</v>
@@ -1754,7 +1754,7 @@
         <v>1.73</v>
       </c>
       <c r="X9" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
         <v>2.5</v>
@@ -1766,7 +1766,7 @@
         <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
@@ -1784,7 +1784,7 @@
         <v>5.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI9" t="n">
         <v>23</v>
@@ -1796,7 +1796,7 @@
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM9" t="n">
         <v>11</v>
@@ -1808,7 +1808,7 @@
         <v>29</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
         <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>2.05</v>
@@ -1866,30 +1866,30 @@
         <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="R10" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>1.2</v>
@@ -1949,10 +1949,10 @@
         <v>51</v>
       </c>
       <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>26</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -1989,22 +1989,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="J11" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L11" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2016,7 +2016,7 @@
         <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q11" t="n">
         <v>1.65</v>
@@ -2027,73 +2027,73 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="V11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X11" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AA11" t="n">
         <v>10.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
         <v>26</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>22</v>
       </c>
       <c r="AG11" t="n">
         <v>8.25</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI11" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL11" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AM11" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2412,66 +2412,66 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
         <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L14" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="V14" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X14" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Y14" t="n">
         <v>1.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
         <v>12</v>
@@ -2480,43 +2480,43 @@
         <v>50</v>
       </c>
       <c r="AE14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF14" t="n">
         <v>35</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI14" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AM14" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AO14" t="n">
         <v>17.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2553,19 +2553,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
         <v>2.65</v>
       </c>
       <c r="J15" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="K15" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
         <v>3.1</v>
@@ -2591,16 +2591,16 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
         <v>1.62</v>
       </c>
       <c r="W15" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Y15" t="n">
         <v>1.42</v>
@@ -2612,13 +2612,13 @@
         <v>13</v>
       </c>
       <c r="AB15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC15" t="n">
         <v>9.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
         <v>16.5</v>
@@ -2630,13 +2630,13 @@
         <v>9.25</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AI15" t="n">
         <v>10.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK15" t="n">
         <v>150</v>
@@ -2657,7 +2657,7 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2694,54 +2694,54 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L16" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X16" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="Y16" t="n">
         <v>1.7</v>
@@ -2750,7 +2750,7 @@
         <v>2.05</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AB16" t="n">
         <v>9.25</v>
@@ -2759,25 +2759,25 @@
         <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI16" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="n">
         <v>400</v>
@@ -2789,7 +2789,7 @@
         <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO16" t="n">
         <v>65</v>
@@ -3000,16 +3000,16 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -3138,7 +3138,7 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O19" t="n">
         <v>1.17</v>
@@ -3262,28 +3262,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H20" t="n">
         <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
@@ -3312,10 +3312,10 @@
         <v>3.25</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA20" t="n">
         <v>7</v>
@@ -3403,28 +3403,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -3459,7 +3459,7 @@
         <v>1.73</v>
       </c>
       <c r="AA21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB21" t="n">
         <v>8.5</v>
@@ -3471,7 +3471,7 @@
         <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>34</v>
@@ -3480,7 +3480,7 @@
         <v>7.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI21" t="n">
         <v>17</v>
@@ -3492,7 +3492,7 @@
         <v>351</v>
       </c>
       <c r="AL21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM21" t="n">
         <v>19</v>
@@ -3504,7 +3504,7 @@
         <v>41</v>
       </c>
       <c r="AP21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -3548,16 +3548,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K22" t="n">
         <v>1.91</v>
@@ -3598,10 +3598,10 @@
         <v>2.25</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA22" t="n">
         <v>7.5</v>
@@ -3613,7 +3613,7 @@
         <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE22" t="n">
         <v>34</v>
@@ -3631,7 +3631,7 @@
         <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="n">
         <v>251</v>
@@ -3711,34 +3711,34 @@
         <v>2.63</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.29</v>
       </c>
       <c r="W23" t="n">
         <v>1.44</v>
@@ -3804,10 +3804,10 @@
         <v>29</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
@@ -3878,10 +3878,10 @@
         <v>1.85</v>
       </c>
       <c r="S24" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T24" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="U24" t="n">
         <v>3.4</v>
@@ -3953,10 +3953,10 @@
         <v>29</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="25">
@@ -3991,40 +3991,40 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L25" t="n">
         <v>5.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P25" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
         <v>4.4</v>
@@ -4039,10 +4039,10 @@
         <v>1.14</v>
       </c>
       <c r="W25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y25" t="n">
         <v>2.38</v>
@@ -4054,7 +4054,7 @@
         <v>5</v>
       </c>
       <c r="AB25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC25" t="n">
         <v>9.5</v>
@@ -4063,19 +4063,19 @@
         <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH25" t="n">
         <v>6.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
         <v>81</v>
@@ -4084,10 +4084,10 @@
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN25" t="n">
         <v>17</v>
@@ -4102,10 +4102,10 @@
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="26">
@@ -4146,7 +4146,7 @@
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
@@ -4158,10 +4158,10 @@
         <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.53</v>
@@ -4251,10 +4251,10 @@
         <v>51</v>
       </c>
       <c r="AR26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="27">
@@ -4289,22 +4289,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L27" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
@@ -4313,30 +4313,30 @@
         <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R27" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y27" t="n">
         <v>2</v>
@@ -4345,28 +4345,28 @@
         <v>1.73</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC27" t="n">
         <v>11</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
@@ -4378,25 +4378,29 @@
         <v>351</v>
       </c>
       <c r="AL27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN27" t="n">
         <v>11</v>
       </c>
-      <c r="AN27" t="n">
-        <v>10</v>
-      </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4430,54 +4434,54 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="I28" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L28" t="n">
         <v>5.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R28" t="n">
         <v>2.07</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L28" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.05</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="V28" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W28" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X28" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Y28" t="n">
         <v>1.83</v>
@@ -4486,7 +4490,7 @@
         <v>1.88</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB28" t="n">
         <v>7.7</v>
@@ -4495,22 +4499,22 @@
         <v>8.75</v>
       </c>
       <c r="AD28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF28" t="n">
         <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="n">
         <v>90</v>
@@ -4519,19 +4523,19 @@
         <v>700</v>
       </c>
       <c r="AL28" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM28" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO28" t="n">
         <v>120</v>
       </c>
       <c r="AP28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AQ28" t="n">
         <v>60</v>
@@ -4577,10 +4581,10 @@
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K29" t="n">
         <v>2.6</v>
@@ -4595,28 +4599,28 @@
         <v>15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R29" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T29" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U29" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W29" t="n">
         <v>1.29</v>
@@ -4625,22 +4629,22 @@
         <v>3.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA29" t="n">
         <v>8</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -4649,10 +4653,10 @@
         <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI29" t="n">
         <v>21</v>
@@ -4664,16 +4668,16 @@
         <v>301</v>
       </c>
       <c r="AL29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP29" t="n">
         <v>67</v>
@@ -5022,16 +5026,16 @@
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R32" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -5139,13 +5143,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
         <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J33" t="n">
         <v>2.3</v>
@@ -5160,7 +5164,7 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.3</v>
@@ -5169,10 +5173,10 @@
         <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5189,10 +5193,10 @@
         <v>2.75</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA33" t="n">
         <v>6.5</v>
@@ -5204,7 +5208,7 @@
         <v>8.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE33" t="n">
         <v>15</v>
@@ -5213,10 +5217,10 @@
         <v>29</v>
       </c>
       <c r="AG33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI33" t="n">
         <v>17</v>
@@ -5310,10 +5314,10 @@
         <v>4.33</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R34" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -5324,16 +5328,16 @@
         <v>1.44</v>
       </c>
       <c r="W34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA34" t="n">
         <v>15</v>
@@ -5357,7 +5361,7 @@
         <v>15</v>
       </c>
       <c r="AH34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI34" t="n">
         <v>13</v>
@@ -5369,7 +5373,7 @@
         <v>151</v>
       </c>
       <c r="AL34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM34" t="n">
         <v>10</v>
@@ -5381,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="AP34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ34" t="n">
         <v>21</v>
@@ -5421,28 +5425,28 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L35" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -5451,10 +5455,10 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R35" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -5471,10 +5475,10 @@
         <v>2.75</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z35" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA35" t="n">
         <v>7.5</v>
@@ -5562,19 +5566,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L36" t="n">
         <v>4</v>
@@ -5583,7 +5587,7 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O36" t="n">
         <v>1.3</v>
@@ -5592,18 +5596,18 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R36" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W36" t="n">
         <v>1.4</v>
@@ -5612,22 +5616,22 @@
         <v>2.75</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z36" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA36" t="n">
         <v>7.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC36" t="n">
         <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="n">
         <v>17</v>
@@ -5636,10 +5640,10 @@
         <v>26</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI36" t="n">
         <v>13</v>
@@ -5648,7 +5652,7 @@
         <v>51</v>
       </c>
       <c r="AK36" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL36" t="n">
         <v>11</v>
@@ -5848,22 +5852,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
         <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
@@ -5878,10 +5882,10 @@
         <v>3.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R38" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -5898,10 +5902,10 @@
         <v>2.63</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA38" t="n">
         <v>9</v>
@@ -5910,13 +5914,13 @@
         <v>15</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF38" t="n">
         <v>34</v>
@@ -5925,7 +5929,7 @@
         <v>9</v>
       </c>
       <c r="AH38" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI38" t="n">
         <v>15</v>
@@ -5934,10 +5938,10 @@
         <v>51</v>
       </c>
       <c r="AK38" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM38" t="n">
         <v>11</v>
@@ -5946,10 +5950,10 @@
         <v>9.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ38" t="n">
         <v>29</v>
@@ -6013,24 +6017,24 @@
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W39" t="n">
         <v>1.36</v>
@@ -6130,16 +6134,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
         <v>2.05</v>
@@ -6148,36 +6152,36 @@
         <v>3.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P40" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="R40" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W40" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X40" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y40" t="n">
         <v>1.83</v>
@@ -6192,22 +6196,22 @@
         <v>11</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE40" t="n">
         <v>21</v>
       </c>
-      <c r="AE40" t="n">
-        <v>19</v>
-      </c>
       <c r="AF40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH40" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI40" t="n">
         <v>15</v>
@@ -6219,7 +6223,7 @@
         <v>301</v>
       </c>
       <c r="AL40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM40" t="n">
         <v>15</v>
@@ -6234,7 +6238,7 @@
         <v>26</v>
       </c>
       <c r="AQ40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -6274,7 +6278,7 @@
         <v>3.4</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
         <v>2.05</v>
@@ -6289,10 +6293,10 @@
         <v>2.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O41" t="n">
         <v>1.29</v>
@@ -6301,10 +6305,10 @@
         <v>3.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R41" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -6339,7 +6343,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF41" t="n">
         <v>34</v>
@@ -6412,28 +6416,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -6442,10 +6446,10 @@
         <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6462,22 +6466,22 @@
         <v>2.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC42" t="n">
         <v>10</v>
       </c>
-      <c r="AC42" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE42" t="n">
         <v>21</v>
@@ -6486,7 +6490,7 @@
         <v>34</v>
       </c>
       <c r="AG42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH42" t="n">
         <v>6</v>
@@ -6498,10 +6502,10 @@
         <v>51</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM42" t="n">
         <v>15</v>
@@ -6553,63 +6557,67 @@
         </is>
       </c>
       <c r="G43" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N43" t="n">
+        <v>15</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U43" t="n">
         <v>2.5</v>
       </c>
-      <c r="H43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N43" t="n">
-        <v>19</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V43" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="W43" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X43" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB43" t="n">
         <v>15</v>
@@ -6618,7 +6626,7 @@
         <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE43" t="n">
         <v>17</v>
@@ -6627,22 +6635,22 @@
         <v>21</v>
       </c>
       <c r="AG43" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI43" t="n">
         <v>11</v>
       </c>
       <c r="AJ43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK43" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM43" t="n">
         <v>17</v>
@@ -6654,10 +6662,10 @@
         <v>29</v>
       </c>
       <c r="AP43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6718,24 +6726,24 @@
         <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R44" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W44" t="n">
         <v>1.36</v>
@@ -6835,22 +6843,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
         <v>4.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K45" t="n">
         <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
@@ -6865,10 +6873,10 @@
         <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R45" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -6891,7 +6899,7 @@
         <v>2</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB45" t="n">
         <v>8.5</v>
@@ -6918,13 +6926,13 @@
         <v>15</v>
       </c>
       <c r="AJ45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK45" t="n">
         <v>201</v>
       </c>
       <c r="AL45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM45" t="n">
         <v>23</v>
@@ -7258,16 +7266,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H48" t="n">
         <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K48" t="n">
         <v>2</v>
@@ -7308,10 +7316,10 @@
         <v>2.38</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA48" t="n">
         <v>9.5</v>
@@ -7332,16 +7340,16 @@
         <v>51</v>
       </c>
       <c r="AG48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH48" t="n">
         <v>6.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ48" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="n">
         <v>501</v>
@@ -7362,7 +7370,7 @@
         <v>17</v>
       </c>
       <c r="AQ48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR48" t="n">
         <v>1.83</v>
@@ -7433,10 +7441,10 @@
         <v>2.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R49" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
@@ -7715,10 +7723,10 @@
         <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -7835,87 +7843,87 @@
         <v>2.8</v>
       </c>
       <c r="J52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K52" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L52" t="n">
         <v>3.4</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P52" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="R52" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V52" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W52" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X52" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AA52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB52" t="n">
         <v>13</v>
       </c>
       <c r="AC52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD52" t="n">
         <v>26</v>
       </c>
       <c r="AE52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG52" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AH52" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI52" t="n">
         <v>13</v>
       </c>
       <c r="AJ52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK52" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL52" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM52" t="n">
         <v>13</v>
@@ -7927,10 +7935,10 @@
         <v>29</v>
       </c>
       <c r="AP52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
@@ -7967,10 +7975,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="H53" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>2.6</v>
@@ -8010,7 +8018,7 @@
         <v>1.47</v>
       </c>
       <c r="X53" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Y53" t="n">
         <v>2.06</v>
@@ -8019,10 +8027,10 @@
         <v>1.68</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB53" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AC53" t="n">
         <v>8.5</v>
@@ -8040,7 +8048,7 @@
         <v>6.9</v>
       </c>
       <c r="AH53" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AI53" t="n">
         <v>14</v>
@@ -8052,7 +8060,7 @@
         <v>450</v>
       </c>
       <c r="AL53" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AM53" t="n">
         <v>9.5</v>
@@ -8061,10 +8069,10 @@
         <v>8.75</v>
       </c>
       <c r="AO53" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP53" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ53" t="n">
         <v>32</v>
@@ -8104,13 +8112,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
         <v>2.75</v>
@@ -8119,7 +8127,7 @@
         <v>2.3</v>
       </c>
       <c r="L54" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
@@ -8176,7 +8184,7 @@
         <v>21</v>
       </c>
       <c r="AE54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF54" t="n">
         <v>21</v>
@@ -8209,7 +8217,7 @@
         <v>34</v>
       </c>
       <c r="AP54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ54" t="n">
         <v>26</v>
@@ -8267,10 +8275,10 @@
         <v>3.6</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O55" t="n">
         <v>1.33</v>
@@ -8279,10 +8287,10 @@
         <v>3.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R55" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -8523,63 +8531,63 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H57" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J57" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L57" t="n">
         <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O57" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P57" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R57" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V57" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W57" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X57" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB57" t="n">
         <v>7</v>
@@ -8588,19 +8596,19 @@
         <v>9</v>
       </c>
       <c r="AD57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE57" t="n">
         <v>17</v>
       </c>
       <c r="AF57" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG57" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI57" t="n">
         <v>21</v>
@@ -8612,7 +8620,7 @@
         <v>101</v>
       </c>
       <c r="AL57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM57" t="n">
         <v>26</v>
@@ -8671,69 +8679,69 @@
         <v>2.25</v>
       </c>
       <c r="H58" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q58" t="n">
         <v>2.88</v>
       </c>
-      <c r="I58" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N58" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.6</v>
-      </c>
       <c r="R58" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
+        <v>6</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA58" t="n">
         <v>5.5</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W58" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X58" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>6</v>
       </c>
       <c r="AB58" t="n">
         <v>9.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE58" t="n">
         <v>23</v>
@@ -8742,13 +8750,13 @@
         <v>41</v>
       </c>
       <c r="AG58" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH58" t="n">
         <v>6</v>
       </c>
       <c r="AI58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ58" t="n">
         <v>81</v>
@@ -8757,7 +8765,7 @@
         <v>101</v>
       </c>
       <c r="AL58" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM58" t="n">
         <v>15</v>
@@ -8766,13 +8774,13 @@
         <v>13</v>
       </c>
       <c r="AO58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP58" t="n">
         <v>34</v>
       </c>
       <c r="AQ58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR58" t="n">
         <v>1.98</v>
@@ -8813,22 +8821,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H59" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J59" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K59" t="n">
         <v>2.38</v>
       </c>
       <c r="L59" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
@@ -8876,13 +8884,13 @@
         <v>9.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC59" t="n">
         <v>8.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE59" t="n">
         <v>13</v>
@@ -8897,7 +8905,7 @@
         <v>7.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ59" t="n">
         <v>41</v>
@@ -8909,7 +8917,7 @@
         <v>15</v>
       </c>
       <c r="AM59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN59" t="n">
         <v>13</v>
@@ -8976,13 +8984,13 @@
         <v>2.5</v>
       </c>
       <c r="M60" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N60" t="n">
         <v>13</v>
       </c>
       <c r="O60" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P60" t="n">
         <v>4.33</v>
@@ -8996,10 +9004,10 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V60" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W60" t="n">
         <v>1.33</v>
@@ -9117,34 +9125,34 @@
         <v>7</v>
       </c>
       <c r="M61" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N61" t="n">
         <v>15</v>
       </c>
       <c r="O61" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P61" t="n">
         <v>4.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R61" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T61" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U61" t="n">
         <v>2.5</v>
       </c>
       <c r="V61" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W61" t="n">
         <v>1.29</v>
@@ -9262,13 +9270,13 @@
         <v>4.75</v>
       </c>
       <c r="M62" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N62" t="n">
         <v>19</v>
       </c>
       <c r="O62" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P62" t="n">
         <v>6</v>
@@ -9289,7 +9297,7 @@
         <v>2.1</v>
       </c>
       <c r="V62" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W62" t="n">
         <v>1.25</v>
@@ -9407,22 +9415,22 @@
         <v>3.6</v>
       </c>
       <c r="M63" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N63" t="n">
         <v>17</v>
       </c>
       <c r="O63" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P63" t="n">
         <v>5.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R63" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S63" t="n">
         <v>1.83</v>
@@ -9434,7 +9442,7 @@
         <v>2.2</v>
       </c>
       <c r="V63" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W63" t="n">
         <v>1.29</v>
@@ -9534,13 +9542,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H64" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I64" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J64" t="n">
         <v>2.5</v>
@@ -9552,10 +9560,10 @@
         <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O64" t="n">
         <v>1.2</v>
@@ -9564,10 +9572,10 @@
         <v>4.33</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R64" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S64" t="n">
         <v>1.93</v>
@@ -9606,7 +9614,7 @@
         <v>17</v>
       </c>
       <c r="AE64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF64" t="n">
         <v>21</v>
@@ -9642,7 +9650,7 @@
         <v>29</v>
       </c>
       <c r="AQ64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr"/>
@@ -9931,10 +9939,10 @@
         <v>51</v>
       </c>
       <c r="AR66" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="67">
@@ -10392,54 +10400,54 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J70" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.75</v>
       </c>
       <c r="K70" t="n">
         <v>2.3</v>
       </c>
       <c r="L70" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M70" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O70" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P70" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R70" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V70" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W70" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X70" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y70" t="n">
         <v>1.57</v>
@@ -10451,10 +10459,10 @@
         <v>13</v>
       </c>
       <c r="AB70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD70" t="n">
         <v>34</v>
@@ -10466,7 +10474,7 @@
         <v>26</v>
       </c>
       <c r="AG70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH70" t="n">
         <v>7</v>
@@ -10490,10 +10498,10 @@
         <v>9</v>
       </c>
       <c r="AO70" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ70" t="n">
         <v>21</v>
@@ -10533,13 +10541,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
         <v>4.33</v>
@@ -10548,7 +10556,7 @@
         <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M71" t="n">
         <v>1.06</v>
@@ -10589,7 +10597,7 @@
         <v>1.8</v>
       </c>
       <c r="AA71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB71" t="n">
         <v>17</v>
@@ -10610,7 +10618,7 @@
         <v>9</v>
       </c>
       <c r="AH71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI71" t="n">
         <v>17</v>
@@ -10622,7 +10630,7 @@
         <v>351</v>
       </c>
       <c r="AL71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM71" t="n">
         <v>9</v>
@@ -10674,16 +10682,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H72" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3</v>
       </c>
       <c r="K72" t="n">
         <v>2.05</v>
@@ -10730,16 +10738,16 @@
         <v>1.83</v>
       </c>
       <c r="AA72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB72" t="n">
         <v>11</v>
       </c>
       <c r="AC72" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD72" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE72" t="n">
         <v>21</v>
@@ -10748,7 +10756,7 @@
         <v>34</v>
       </c>
       <c r="AG72" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH72" t="n">
         <v>6</v>
@@ -11042,7 +11050,7 @@
         <v>51</v>
       </c>
       <c r="AK74" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL74" t="n">
         <v>12</v>
@@ -11097,48 +11105,48 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H75" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J75" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K75" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L75" t="n">
         <v>8</v>
       </c>
       <c r="M75" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>1.03</v>
+        <v>15</v>
       </c>
       <c r="O75" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P75" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R75" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V75" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W75" t="n">
         <v>1.22</v>
@@ -11168,25 +11176,25 @@
         <v>11</v>
       </c>
       <c r="AF75" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI75" t="n">
         <v>26</v>
       </c>
-      <c r="AG75" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ75" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK75" t="n">
         <v>700</v>
       </c>
       <c r="AL75" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM75" t="n">
         <v>41</v>
@@ -11201,7 +11209,7 @@
         <v>51</v>
       </c>
       <c r="AQ75" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -11244,7 +11252,7 @@
         <v>4.75</v>
       </c>
       <c r="I76" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J76" t="n">
         <v>5.5</v>
@@ -11256,10 +11264,10 @@
         <v>1.95</v>
       </c>
       <c r="M76" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O76" t="n">
         <v>1.2</v>
@@ -11294,7 +11302,7 @@
         <v>1.83</v>
       </c>
       <c r="AA76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB76" t="n">
         <v>29</v>
@@ -11312,7 +11320,7 @@
         <v>41</v>
       </c>
       <c r="AG76" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH76" t="n">
         <v>9</v>
@@ -11342,7 +11350,7 @@
         <v>12</v>
       </c>
       <c r="AQ76" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
@@ -11379,13 +11387,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H77" t="n">
         <v>3.1</v>
       </c>
       <c r="I77" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J77" t="n">
         <v>2.88</v>
@@ -11438,7 +11446,7 @@
         <v>6</v>
       </c>
       <c r="AB77" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC77" t="n">
         <v>10</v>
@@ -11468,13 +11476,13 @@
         <v>1000</v>
       </c>
       <c r="AL77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM77" t="n">
         <v>17</v>
       </c>
       <c r="AN77" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO77" t="n">
         <v>41</v>
@@ -11524,10 +11532,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H78" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I78" t="n">
         <v>1.62</v>
@@ -11536,22 +11544,22 @@
         <v>5</v>
       </c>
       <c r="K78" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L78" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="M78" t="n">
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="O78" t="n">
         <v>1.26</v>
       </c>
       <c r="P78" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q78" t="n">
         <v>1.78</v>
@@ -11562,10 +11570,10 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="V78" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W78" t="n">
         <v>1.38</v>
@@ -11574,16 +11582,16 @@
         <v>2.82</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Z78" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AA78" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB78" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC78" t="n">
         <v>15.5</v>
@@ -11598,34 +11606,34 @@
         <v>45</v>
       </c>
       <c r="AG78" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AH78" t="n">
         <v>7.2</v>
       </c>
       <c r="AI78" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ78" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK78" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL78" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AM78" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AN78" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AO78" t="n">
         <v>12.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ78" t="n">
         <v>24</v>
@@ -11665,22 +11673,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J79" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K79" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L79" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M79" t="n">
         <v>1.11</v>
@@ -11689,57 +11697,57 @@
         <v>6.5</v>
       </c>
       <c r="O79" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P79" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R79" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V79" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W79" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X79" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y79" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA79" t="n">
         <v>6</v>
       </c>
       <c r="AB79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC79" t="n">
         <v>9.5</v>
       </c>
-      <c r="AC79" t="n">
-        <v>10</v>
-      </c>
       <c r="AD79" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE79" t="n">
         <v>21</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>23</v>
       </c>
       <c r="AF79" t="n">
         <v>41</v>
       </c>
       <c r="AG79" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH79" t="n">
         <v>6</v>
@@ -11748,34 +11756,34 @@
         <v>19</v>
       </c>
       <c r="AJ79" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK79" t="n">
         <v>101</v>
       </c>
       <c r="AL79" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN79" t="n">
         <v>15</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>13</v>
       </c>
       <c r="AO79" t="n">
         <v>41</v>
       </c>
       <c r="AP79" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ79" t="n">
         <v>51</v>
       </c>
       <c r="AR79" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="80">
@@ -11810,84 +11818,84 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I80" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J80" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K80" t="n">
         <v>2.12</v>
       </c>
       <c r="L80" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="M80" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P80" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R80" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="V80" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W80" t="n">
         <v>1.39</v>
       </c>
-      <c r="W80" t="n">
-        <v>1.38</v>
-      </c>
       <c r="X80" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AA80" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AB80" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC80" t="n">
         <v>10.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE80" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF80" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG80" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI80" t="n">
         <v>12.5</v>
@@ -11896,19 +11904,19 @@
         <v>50</v>
       </c>
       <c r="AK80" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL80" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM80" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AN80" t="n">
         <v>8.75</v>
       </c>
       <c r="AO80" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP80" t="n">
         <v>17</v>
@@ -11954,19 +11962,19 @@
         <v>1.98</v>
       </c>
       <c r="H81" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I81" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J81" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="K81" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L81" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
@@ -11995,22 +12003,22 @@
         <v>1.42</v>
       </c>
       <c r="W81" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X81" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Y81" t="n">
         <v>1.62</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AA81" t="n">
         <v>9</v>
       </c>
       <c r="AB81" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC81" t="n">
         <v>8.5</v>
@@ -12028,7 +12036,7 @@
         <v>8.25</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AI81" t="n">
         <v>13</v>
@@ -12037,22 +12045,22 @@
         <v>50</v>
       </c>
       <c r="AK81" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL81" t="n">
         <v>11.75</v>
       </c>
       <c r="AM81" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN81" t="n">
         <v>11.5</v>
       </c>
       <c r="AO81" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP81" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ81" t="n">
         <v>30</v>
@@ -12092,13 +12100,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H82" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J82" t="n">
         <v>1.67</v>
@@ -12107,7 +12115,7 @@
         <v>2.88</v>
       </c>
       <c r="L82" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M82" t="n">
         <v>1.02</v>
@@ -12116,10 +12124,10 @@
         <v>21</v>
       </c>
       <c r="O82" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P82" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q82" t="n">
         <v>1.4</v>
@@ -12142,10 +12150,10 @@
         <v>4</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA82" t="n">
         <v>10</v>
@@ -12157,13 +12165,13 @@
         <v>9.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE82" t="n">
         <v>10</v>
       </c>
       <c r="AF82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG82" t="n">
         <v>21</v>
@@ -12172,7 +12180,7 @@
         <v>12</v>
       </c>
       <c r="AI82" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ82" t="n">
         <v>51</v>
@@ -12233,22 +12241,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L83" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K83" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L83" t="n">
-        <v>5</v>
       </c>
       <c r="M83" t="n">
         <v>1.04</v>
@@ -12263,10 +12271,10 @@
         <v>3.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R83" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
@@ -12283,16 +12291,16 @@
         <v>3</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Z83" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AA83" t="n">
         <v>7.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC83" t="n">
         <v>8.5</v>
@@ -12304,7 +12312,7 @@
         <v>13</v>
       </c>
       <c r="AF83" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG83" t="n">
         <v>12</v>
@@ -12313,13 +12321,13 @@
         <v>7.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ83" t="n">
         <v>51</v>
       </c>
       <c r="AK83" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL83" t="n">
         <v>13</v>
@@ -12334,7 +12342,7 @@
         <v>51</v>
       </c>
       <c r="AP83" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ83" t="n">
         <v>41</v>
@@ -12374,13 +12382,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H84" t="n">
         <v>3.25</v>
       </c>
       <c r="I84" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J84" t="n">
         <v>3.1</v>
@@ -12515,44 +12523,44 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H85" t="n">
         <v>3.2</v>
       </c>
       <c r="I85" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="J85" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="K85" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L85" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P85" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R85" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="V85" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W85" t="n">
         <v>1.4</v>
@@ -12561,49 +12569,49 @@
         <v>2.52</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA85" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB85" t="n">
         <v>8.25</v>
       </c>
       <c r="AC85" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD85" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE85" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF85" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG85" t="n">
         <v>8.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AI85" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ85" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK85" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL85" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM85" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN85" t="n">
         <v>14.5</v>
@@ -12652,107 +12660,107 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H86" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="I86" t="n">
         <v>3.05</v>
       </c>
       <c r="J86" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K86" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L86" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="P86" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="R86" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="V86" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W86" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X86" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AA86" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AB86" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC86" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD86" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE86" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF86" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG86" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="AH86" t="n">
         <v>5.4</v>
       </c>
       <c r="AI86" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AJ86" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AK86" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AL86" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="AM86" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN86" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AO86" t="n">
         <v>40</v>
       </c>
       <c r="AP86" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ86" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR86" t="inlineStr"/>
       <c r="AS86" t="inlineStr"/>
@@ -12792,60 +12800,60 @@
         <v>1.7</v>
       </c>
       <c r="H87" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I87" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="J87" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="K87" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L87" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="M87" t="n">
         <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O87" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P87" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R87" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="V87" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="W87" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X87" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z87" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA87" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB87" t="n">
         <v>8.25</v>
@@ -12863,37 +12871,37 @@
         <v>24</v>
       </c>
       <c r="AG87" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AH87" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AI87" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN87" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>14</v>
       </c>
       <c r="AO87" t="n">
         <v>75</v>
       </c>
       <c r="AP87" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ87" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR87" t="inlineStr"/>
       <c r="AS87" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
         <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -770,7 +770,7 @@
         <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>7.5</v>
@@ -779,7 +779,7 @@
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>201</v>
@@ -846,13 +846,13 @@
         <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -923,13 +923,13 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL3" t="n">
         <v>9.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN3" t="n">
         <v>12</v>
@@ -984,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1037,7 +1037,7 @@
         <v>5.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC4" t="n">
         <v>9.5</v>
@@ -1076,7 +1076,7 @@
         <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP4" t="n">
         <v>41</v>
@@ -1123,16 +1123,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1173,52 +1173,52 @@
         <v>2.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
         <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL5" t="n">
         <v>10</v>
       </c>
       <c r="AM5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
         <v>34</v>
@@ -1264,75 +1264,75 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.57</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1341,40 +1341,40 @@
         <v>7</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>67</v>
       </c>
       <c r="AK6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN6" t="n">
         <v>11</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>26</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="7">
@@ -1439,22 +1439,22 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
         <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="U7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
         <v>1.44</v>
@@ -1463,10 +1463,10 @@
         <v>2.63</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA7" t="n">
         <v>5</v>
@@ -1478,7 +1478,7 @@
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1496,7 +1496,7 @@
         <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK7" t="n">
         <v>101</v>
@@ -1520,10 +1520,10 @@
         <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.34</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="8">
@@ -1558,16 +1558,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
         <v>1.8</v>
@@ -1582,40 +1582,40 @@
         <v>5.5</v>
       </c>
       <c r="O8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.67</v>
       </c>
-      <c r="P8" t="n">
+      <c r="X8" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U8" t="n">
-        <v>7</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X8" t="n">
-        <v>2.05</v>
-      </c>
       <c r="Y8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA8" t="n">
         <v>7</v>
@@ -1624,7 +1624,7 @@
         <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
         <v>41</v>
@@ -1636,22 +1636,22 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH8" t="n">
         <v>6</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="n">
         <v>451</v>
       </c>
       <c r="AL8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AM8" t="n">
         <v>9.5</v>
@@ -1663,10 +1663,10 @@
         <v>23</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>1.9</v>
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1740,7 +1740,7 @@
         <v>3.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1769,10 +1769,10 @@
         <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
         <v>34</v>
@@ -1805,7 +1805,7 @@
         <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -1848,19 +1848,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L10" t="n">
         <v>4.5</v>
@@ -1892,22 +1892,22 @@
         <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA10" t="n">
         <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
@@ -1922,10 +1922,10 @@
         <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
         <v>12</v>
@@ -1937,7 +1937,7 @@
         <v>81</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.25</v>
@@ -2004,7 +2004,7 @@
         <v>2.22</v>
       </c>
       <c r="L11" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2016,7 +2016,7 @@
         <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q11" t="n">
         <v>1.65</v>
@@ -2027,7 +2027,7 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="V11" t="n">
         <v>1.44</v>
@@ -2045,10 +2045,10 @@
         <v>2.27</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC11" t="n">
         <v>10</v>
@@ -2060,7 +2060,7 @@
         <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG11" t="n">
         <v>8.25</v>
@@ -2075,25 +2075,25 @@
         <v>45</v>
       </c>
       <c r="AK11" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL11" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN11" t="n">
         <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2130,111 +2130,111 @@
         </is>
       </c>
       <c r="G12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H12" t="n">
         <v>2.65</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.85</v>
-      </c>
       <c r="I12" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="L12" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="N12" t="n">
-        <v>5.6</v>
+        <v>4.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="P12" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X12" t="n">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE12" t="n">
         <v>30</v>
       </c>
-      <c r="AE12" t="n">
-        <v>24</v>
-      </c>
       <c r="AF12" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.6</v>
+        <v>4.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AI12" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AL12" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AM12" t="n">
         <v>13</v>
       </c>
       <c r="AN12" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AO12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP12" t="n">
         <v>35</v>
       </c>
-      <c r="AP12" t="n">
-        <v>30</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2271,81 +2271,81 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
         <v>2.15</v>
       </c>
       <c r="L13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AA13" t="n">
         <v>8</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF13" t="n">
         <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>6.5</v>
@@ -2354,22 +2354,22 @@
         <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
         <v>600</v>
       </c>
       <c r="AL13" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AM13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN13" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP13" t="n">
         <v>22</v>
@@ -2421,25 +2421,25 @@
         <v>1.95</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>2.15</v>
       </c>
       <c r="L14" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
         <v>1.78</v>
@@ -2450,16 +2450,16 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="V14" t="n">
         <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X14" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Y14" t="n">
         <v>1.7</v>
@@ -2468,10 +2468,10 @@
         <v>2.05</v>
       </c>
       <c r="AA14" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
         <v>12</v>
@@ -2480,13 +2480,13 @@
         <v>50</v>
       </c>
       <c r="AE14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF14" t="n">
         <v>35</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AH14" t="n">
         <v>6.7</v>
@@ -2501,22 +2501,22 @@
         <v>400</v>
       </c>
       <c r="AL14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AM14" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AN14" t="n">
         <v>8.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2553,22 +2553,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="J15" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2580,39 +2580,39 @@
         <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="Q15" t="n">
         <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W15" t="n">
         <v>1.28</v>
       </c>
       <c r="X15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AA15" t="n">
         <v>13</v>
       </c>
       <c r="AB15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC15" t="n">
         <v>9.5</v>
@@ -2621,40 +2621,40 @@
         <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG15" t="n">
         <v>9.25</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="n">
         <v>13</v>
       </c>
       <c r="AM15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J16" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="K16" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2732,7 +2732,7 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V16" t="n">
         <v>1.38</v>
@@ -2741,64 +2741,64 @@
         <v>1.39</v>
       </c>
       <c r="X16" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AB16" t="n">
         <v>9.25</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
         <v>7.7</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
         <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN16" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP16" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AQ16" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -3138,7 +3138,7 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
         <v>1.17</v>
@@ -3153,10 +3153,10 @@
         <v>2.35</v>
       </c>
       <c r="S19" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U19" t="n">
         <v>2.38</v>
@@ -3280,10 +3280,10 @@
         <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
@@ -3300,10 +3300,10 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W20" t="n">
         <v>1.33</v>
@@ -3424,7 +3424,7 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -3433,18 +3433,18 @@
         <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V21" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
         <v>1.5</v>
@@ -3578,18 +3578,18 @@
         <v>2.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W22" t="n">
         <v>1.57</v>
@@ -3655,10 +3655,10 @@
         <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="23">
@@ -3723,16 +3723,16 @@
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S23" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="T23" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U23" t="n">
         <v>3.4</v>
@@ -3804,10 +3804,10 @@
         <v>29</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="24">
@@ -3842,22 +3842,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3884,10 +3884,10 @@
         <v>1.44</v>
       </c>
       <c r="U24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
         <v>1.4</v>
@@ -3902,16 +3902,16 @@
         <v>1.91</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -3991,22 +3991,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K25" t="n">
         <v>1.91</v>
       </c>
       <c r="L25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>1.13</v>
@@ -4045,22 +4045,22 @@
         <v>2.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
         <v>21</v>
@@ -4072,7 +4072,7 @@
         <v>6</v>
       </c>
       <c r="AH25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
         <v>21</v>
@@ -4084,16 +4084,16 @@
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP25" t="n">
         <v>41</v>
@@ -4176,10 +4176,10 @@
         <v>1.44</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="U26" t="n">
         <v>5.5</v>
@@ -4289,16 +4289,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
         <v>1.95</v>
@@ -4319,10 +4319,10 @@
         <v>2.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -4357,7 +4357,7 @@
         <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>41</v>
@@ -4378,7 +4378,7 @@
         <v>351</v>
       </c>
       <c r="AL27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="n">
         <v>12</v>
@@ -4387,7 +4387,7 @@
         <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
@@ -4396,10 +4396,10 @@
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="28">
@@ -4437,10 +4437,10 @@
         <v>1.5</v>
       </c>
       <c r="H28" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J28" t="n">
         <v>2.02</v>
@@ -4449,7 +4449,7 @@
         <v>2.3</v>
       </c>
       <c r="L28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4472,7 +4472,7 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="V28" t="n">
         <v>1.44</v>
@@ -4484,7 +4484,7 @@
         <v>3</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Z28" t="n">
         <v>1.88</v>
@@ -4499,7 +4499,7 @@
         <v>8.75</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AE28" t="n">
         <v>12.5</v>
@@ -4511,13 +4511,13 @@
         <v>9</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="n">
         <v>700</v>
@@ -4526,16 +4526,16 @@
         <v>15</v>
       </c>
       <c r="AM28" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO28" t="n">
         <v>120</v>
       </c>
       <c r="AP28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AQ28" t="n">
         <v>60</v>
@@ -4575,58 +4575,58 @@
         </is>
       </c>
       <c r="G29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>7</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>13</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.3</v>
       </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>8</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
-        <v>15</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.29</v>
-      </c>
       <c r="X29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y29" t="n">
         <v>1.91</v>
@@ -4635,7 +4635,7 @@
         <v>1.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB29" t="n">
         <v>7</v>
@@ -4644,22 +4644,22 @@
         <v>8.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
         <v>51</v>
@@ -4668,19 +4668,19 @@
         <v>301</v>
       </c>
       <c r="AL29" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP29" t="n">
         <v>51</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>126</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>67</v>
       </c>
       <c r="AQ29" t="n">
         <v>51</v>
@@ -4720,66 +4720,70 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K30" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L30" t="n">
         <v>4.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
+        <v>2.3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.83</v>
+      </c>
       <c r="U30" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="Z30" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC30" t="n">
         <v>8.5</v>
@@ -4791,13 +4795,13 @@
         <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -4806,13 +4810,13 @@
         <v>41</v>
       </c>
       <c r="AK30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL30" t="n">
         <v>15</v>
       </c>
       <c r="AM30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN30" t="n">
         <v>15</v>
@@ -4861,28 +4865,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="J31" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="K31" t="n">
         <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -4891,10 +4895,10 @@
         <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -4911,34 +4915,34 @@
         <v>2.63</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>9</v>
-      </c>
       <c r="AH31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -4947,22 +4951,22 @@
         <v>51</v>
       </c>
       <c r="AK31" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM31" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AN31" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ31" t="n">
         <v>29</v>
@@ -5002,13 +5006,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J32" t="n">
         <v>3.1</v>
@@ -5032,10 +5036,10 @@
         <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R32" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -5061,7 +5065,7 @@
         <v>9</v>
       </c>
       <c r="AB32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
         <v>10</v>
@@ -5070,7 +5074,7 @@
         <v>23</v>
       </c>
       <c r="AE32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF32" t="n">
         <v>29</v>
@@ -5143,40 +5147,40 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="H33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>11</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P33" t="n">
         <v>3.5</v>
       </c>
-      <c r="I33" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q33" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R33" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5193,25 +5197,25 @@
         <v>2.75</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AA33" t="n">
         <v>6.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC33" t="n">
         <v>8.5</v>
       </c>
       <c r="AD33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE33" t="n">
         <v>13</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>15</v>
       </c>
       <c r="AF33" t="n">
         <v>29</v>
@@ -5220,7 +5224,7 @@
         <v>9.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI33" t="n">
         <v>17</v>
@@ -5229,25 +5233,25 @@
         <v>51</v>
       </c>
       <c r="AK33" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM33" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN33" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP33" t="n">
         <v>51</v>
       </c>
-      <c r="AP33" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5284,13 +5288,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H34" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -5308,10 +5312,10 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q34" t="n">
         <v>1.65</v>
@@ -5322,10 +5326,10 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W34" t="n">
         <v>1.3</v>
@@ -5340,7 +5344,7 @@
         <v>2.25</v>
       </c>
       <c r="AA34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB34" t="n">
         <v>21</v>
@@ -5352,7 +5356,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF34" t="n">
         <v>29</v>
@@ -5361,31 +5365,31 @@
         <v>15</v>
       </c>
       <c r="AH34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ34" t="n">
         <v>41</v>
       </c>
       <c r="AK34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL34" t="n">
         <v>9.5</v>
       </c>
       <c r="AM34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO34" t="n">
         <v>17</v>
       </c>
       <c r="AP34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ34" t="n">
         <v>21</v>
@@ -5425,13 +5429,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J35" t="n">
         <v>2.3</v>
@@ -5443,10 +5447,10 @@
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -5455,10 +5459,10 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -5475,10 +5479,10 @@
         <v>2.75</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA35" t="n">
         <v>7.5</v>
@@ -5566,19 +5570,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L36" t="n">
         <v>4</v>
@@ -5587,27 +5591,27 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="R36" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W36" t="n">
         <v>1.4</v>
@@ -5616,13 +5620,13 @@
         <v>2.75</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB36" t="n">
         <v>10</v>
@@ -5631,7 +5635,7 @@
         <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE36" t="n">
         <v>17</v>
@@ -5640,19 +5644,19 @@
         <v>26</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI36" t="n">
         <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL36" t="n">
         <v>11</v>
@@ -5707,28 +5711,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>2.88</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K37" t="n">
         <v>1.91</v>
       </c>
       <c r="L37" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M37" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O37" t="n">
         <v>1.5</v>
@@ -5763,19 +5767,19 @@
         <v>1.67</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
         <v>11</v>
       </c>
       <c r="AD37" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF37" t="n">
         <v>41</v>
@@ -5787,7 +5791,7 @@
         <v>6</v>
       </c>
       <c r="AI37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ37" t="n">
         <v>67</v>
@@ -5796,19 +5800,19 @@
         <v>1250</v>
       </c>
       <c r="AL37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ37" t="n">
         <v>41</v>
@@ -5852,28 +5856,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H38" t="n">
         <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
         <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O38" t="n">
         <v>1.33</v>
@@ -5908,10 +5912,10 @@
         <v>1.83</v>
       </c>
       <c r="AA38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="n">
         <v>12</v>
@@ -5920,13 +5924,13 @@
         <v>34</v>
       </c>
       <c r="AE38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH38" t="n">
         <v>6.5</v>
@@ -5941,10 +5945,10 @@
         <v>301</v>
       </c>
       <c r="AL38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN38" t="n">
         <v>9.5</v>
@@ -5993,22 +5997,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
         <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
@@ -6023,10 +6027,10 @@
         <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R39" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -6037,16 +6041,16 @@
         <v>1.33</v>
       </c>
       <c r="W39" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X39" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA39" t="n">
         <v>10</v>
@@ -6061,7 +6065,7 @@
         <v>29</v>
       </c>
       <c r="AE39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF39" t="n">
         <v>29</v>
@@ -6079,16 +6083,16 @@
         <v>41</v>
       </c>
       <c r="AK39" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN39" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>10</v>
       </c>
       <c r="AO39" t="n">
         <v>23</v>
@@ -6152,10 +6156,10 @@
         <v>3.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O40" t="n">
         <v>1.4</v>
@@ -6416,28 +6420,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M42" t="n">
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -6466,10 +6470,10 @@
         <v>2.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA42" t="n">
         <v>7</v>
@@ -6484,7 +6488,7 @@
         <v>23</v>
       </c>
       <c r="AE42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF42" t="n">
         <v>34</v>
@@ -6505,19 +6509,19 @@
         <v>900</v>
       </c>
       <c r="AL42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ42" t="n">
         <v>41</v>
@@ -6557,19 +6561,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I43" t="n">
         <v>2.75</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K43" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L43" t="n">
         <v>3.2</v>
@@ -6578,46 +6582,46 @@
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P43" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2</v>
+      </c>
+      <c r="U43" t="n">
         <v>2.25</v>
       </c>
-      <c r="S43" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V43" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W43" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB43" t="n">
         <v>15</v>
@@ -6635,16 +6639,16 @@
         <v>21</v>
       </c>
       <c r="AG43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI43" t="n">
         <v>11</v>
       </c>
       <c r="AJ43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK43" t="n">
         <v>101</v>
@@ -6662,10 +6666,10 @@
         <v>29</v>
       </c>
       <c r="AP43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ43" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>23</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6705,25 +6709,25 @@
         <v>2.5</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L44" t="n">
         <v>3.25</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O44" t="n">
         <v>1.25</v>
@@ -6732,54 +6736,54 @@
         <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W44" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB44" t="n">
         <v>13</v>
       </c>
       <c r="AC44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD44" t="n">
         <v>23</v>
       </c>
       <c r="AE44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF44" t="n">
         <v>26</v>
       </c>
       <c r="AG44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI44" t="n">
         <v>13</v>
@@ -6788,13 +6792,13 @@
         <v>41</v>
       </c>
       <c r="AK44" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN44" t="n">
         <v>10</v>
@@ -6806,7 +6810,7 @@
         <v>21</v>
       </c>
       <c r="AQ44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -6846,63 +6850,63 @@
         <v>1.7</v>
       </c>
       <c r="H45" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J45" t="n">
         <v>2.3</v>
       </c>
       <c r="K45" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="R45" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X45" t="n">
         <v>2.75</v>
       </c>
-      <c r="V45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X45" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Y45" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Z45" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB45" t="n">
         <v>8</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>8.5</v>
       </c>
       <c r="AC45" t="n">
         <v>8.5</v>
@@ -6911,28 +6915,28 @@
         <v>13</v>
       </c>
       <c r="AE45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL45" t="n">
         <v>13</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>15</v>
       </c>
       <c r="AM45" t="n">
         <v>23</v>
@@ -6944,7 +6948,7 @@
         <v>51</v>
       </c>
       <c r="AP45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ45" t="n">
         <v>41</v>
@@ -7266,54 +7270,54 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="H48" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q48" t="n">
         <v>2.6</v>
       </c>
-      <c r="M48" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N48" t="n">
-        <v>8</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.4</v>
-      </c>
       <c r="R48" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="W48" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X48" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y48" t="n">
         <v>2.2</v>
@@ -7322,16 +7326,16 @@
         <v>1.62</v>
       </c>
       <c r="AA48" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AB48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC48" t="n">
         <v>15</v>
       </c>
       <c r="AD48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE48" t="n">
         <v>41</v>
@@ -7340,7 +7344,7 @@
         <v>51</v>
       </c>
       <c r="AG48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH48" t="n">
         <v>6.5</v>
@@ -7358,25 +7362,25 @@
         <v>5.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP48" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ48" t="n">
         <v>41</v>
       </c>
       <c r="AR48" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS48" t="n">
         <v>1.83</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>2.03</v>
       </c>
     </row>
     <row r="49">
@@ -7858,16 +7862,16 @@
         <v>9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R52" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -7975,30 +7979,30 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I53" t="n">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="J53" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K53" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L53" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P53" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="Q53" t="n">
         <v>2.27</v>
@@ -8009,73 +8013,73 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="V53" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W53" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X53" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="AB53" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AC53" t="n">
         <v>8.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE53" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF53" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG53" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AH53" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AI53" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ53" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="n">
         <v>450</v>
       </c>
       <c r="AL53" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AM53" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AN53" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AO53" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AP53" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AQ53" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8112,10 +8116,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
         <v>3</v>
@@ -8136,40 +8140,40 @@
         <v>15</v>
       </c>
       <c r="O54" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P54" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R54" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T54" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U54" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V54" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W54" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X54" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA54" t="n">
         <v>10</v>
@@ -8184,7 +8188,7 @@
         <v>21</v>
       </c>
       <c r="AE54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF54" t="n">
         <v>21</v>
@@ -8193,7 +8197,7 @@
         <v>15</v>
       </c>
       <c r="AH54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI54" t="n">
         <v>12</v>
@@ -8205,7 +8209,7 @@
         <v>126</v>
       </c>
       <c r="AL54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM54" t="n">
         <v>17</v>
@@ -8257,63 +8261,63 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H55" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J55" t="n">
         <v>3.1</v>
       </c>
       <c r="K55" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P55" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R55" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W55" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X55" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z55" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z55" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AA55" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB55" t="n">
         <v>11</v>
@@ -8322,16 +8326,16 @@
         <v>9.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE55" t="n">
         <v>21</v>
       </c>
       <c r="AF55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH55" t="n">
         <v>6</v>
@@ -8343,25 +8347,25 @@
         <v>51</v>
       </c>
       <c r="AK55" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM55" t="n">
         <v>15</v>
       </c>
       <c r="AN55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO55" t="n">
         <v>34</v>
       </c>
       <c r="AP55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
@@ -8694,10 +8698,10 @@
         <v>4.33</v>
       </c>
       <c r="M58" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N58" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O58" t="n">
         <v>1.57</v>
@@ -8706,10 +8710,10 @@
         <v>2.25</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R58" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -8821,22 +8825,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H59" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J59" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K59" t="n">
         <v>2.38</v>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
@@ -8875,25 +8879,25 @@
         <v>3.4</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA59" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB59" t="n">
         <v>11</v>
       </c>
       <c r="AC59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD59" t="n">
         <v>17</v>
       </c>
       <c r="AE59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF59" t="n">
         <v>21</v>
@@ -8926,7 +8930,7 @@
         <v>41</v>
       </c>
       <c r="AP59" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ59" t="n">
         <v>29</v>
@@ -8969,7 +8973,7 @@
         <v>4</v>
       </c>
       <c r="H60" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I60" t="n">
         <v>1.83</v>
@@ -8978,54 +8982,58 @@
         <v>4</v>
       </c>
       <c r="K60" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L60" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M60" t="n">
         <v>1.03</v>
       </c>
       <c r="N60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P60" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R60" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.83</v>
+      </c>
       <c r="U60" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="V60" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="W60" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X60" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA60" t="n">
         <v>15</v>
       </c>
       <c r="AB60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC60" t="n">
         <v>13</v>
@@ -9037,25 +9045,25 @@
         <v>29</v>
       </c>
       <c r="AF60" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH60" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ60" t="n">
         <v>41</v>
       </c>
       <c r="AK60" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL60" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM60" t="n">
         <v>10</v>
@@ -9107,16 +9115,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H61" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I61" t="n">
         <v>7.5</v>
       </c>
       <c r="J61" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K61" t="n">
         <v>2.5</v>
@@ -9125,49 +9133,49 @@
         <v>7</v>
       </c>
       <c r="M61" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O61" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P61" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R61" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S61" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T61" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U61" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V61" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W61" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X61" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB61" t="n">
         <v>7</v>
@@ -9179,16 +9187,16 @@
         <v>9</v>
       </c>
       <c r="AE61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF61" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH61" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI61" t="n">
         <v>19</v>
@@ -9197,10 +9205,10 @@
         <v>51</v>
       </c>
       <c r="AK61" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM61" t="n">
         <v>41</v>
@@ -9270,22 +9278,22 @@
         <v>4.75</v>
       </c>
       <c r="M62" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N62" t="n">
         <v>19</v>
       </c>
       <c r="O62" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P62" t="n">
         <v>6</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R62" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S62" t="n">
         <v>1.8</v>
@@ -9297,7 +9305,7 @@
         <v>2.1</v>
       </c>
       <c r="V62" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W62" t="n">
         <v>1.25</v>
@@ -9400,16 +9408,16 @@
         <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I63" t="n">
         <v>3.3</v>
       </c>
       <c r="J63" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K63" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L63" t="n">
         <v>3.6</v>
@@ -9418,10 +9426,10 @@
         <v>1.02</v>
       </c>
       <c r="N63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O63" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P63" t="n">
         <v>5.5</v>
@@ -9433,34 +9441,34 @@
         <v>2.5</v>
       </c>
       <c r="S63" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T63" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U63" t="n">
         <v>2.2</v>
       </c>
       <c r="V63" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W63" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X63" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z63" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC63" t="n">
         <v>9</v>
@@ -9475,22 +9483,22 @@
         <v>19</v>
       </c>
       <c r="AG63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI63" t="n">
         <v>11</v>
       </c>
       <c r="AJ63" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK63" t="n">
         <v>101</v>
       </c>
       <c r="AL63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM63" t="n">
         <v>21</v>
@@ -9499,13 +9507,13 @@
         <v>12</v>
       </c>
       <c r="AO63" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP63" t="n">
         <v>23</v>
       </c>
       <c r="AQ63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
@@ -9542,28 +9550,28 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>3.7</v>
       </c>
       <c r="I64" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K64" t="n">
         <v>2.3</v>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M64" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O64" t="n">
         <v>1.2</v>
@@ -9572,10 +9580,10 @@
         <v>4.33</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R64" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S64" t="n">
         <v>1.93</v>
@@ -9605,13 +9613,13 @@
         <v>9</v>
       </c>
       <c r="AB64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC64" t="n">
         <v>8.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE64" t="n">
         <v>13</v>
@@ -9623,7 +9631,7 @@
         <v>13</v>
       </c>
       <c r="AH64" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI64" t="n">
         <v>13</v>
@@ -9635,10 +9643,10 @@
         <v>151</v>
       </c>
       <c r="AL64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN64" t="n">
         <v>13</v>
@@ -9687,16 +9695,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H65" t="n">
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K65" t="n">
         <v>2.38</v>
@@ -9723,10 +9731,10 @@
         <v>2.35</v>
       </c>
       <c r="S65" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T65" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U65" t="n">
         <v>2.38</v>
@@ -9735,10 +9743,10 @@
         <v>1.53</v>
       </c>
       <c r="W65" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X65" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y65" t="n">
         <v>1.53</v>
@@ -9756,7 +9764,7 @@
         <v>11</v>
       </c>
       <c r="AD65" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE65" t="n">
         <v>21</v>
@@ -9783,7 +9791,7 @@
         <v>11</v>
       </c>
       <c r="AM65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN65" t="n">
         <v>9</v>
@@ -10124,42 +10132,42 @@
         <v>3.4</v>
       </c>
       <c r="I68" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J68" t="n">
         <v>2.63</v>
       </c>
       <c r="K68" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N68" t="n">
+        <v>12</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P68" t="n">
         <v>4</v>
       </c>
-      <c r="M68" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N68" t="n">
-        <v>11</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P68" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q68" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R68" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V68" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W68" t="n">
         <v>1.36</v>
@@ -10174,10 +10182,10 @@
         <v>2.1</v>
       </c>
       <c r="AA68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC68" t="n">
         <v>9</v>
@@ -10192,7 +10200,7 @@
         <v>23</v>
       </c>
       <c r="AG68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH68" t="n">
         <v>6.5</v>
@@ -10213,16 +10221,16 @@
         <v>19</v>
       </c>
       <c r="AN68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO68" t="n">
         <v>41</v>
       </c>
       <c r="AP68" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ68" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>34</v>
       </c>
       <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr"/>
@@ -10289,18 +10297,18 @@
         <v>3.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R69" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V69" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W69" t="n">
         <v>1.4</v>
@@ -10553,16 +10561,16 @@
         <v>4.33</v>
       </c>
       <c r="K71" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L71" t="n">
         <v>2.75</v>
       </c>
       <c r="M71" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -10571,18 +10579,18 @@
         <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R71" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V71" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W71" t="n">
         <v>1.44</v>
@@ -10597,25 +10605,25 @@
         <v>1.8</v>
       </c>
       <c r="AA71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB71" t="n">
         <v>17</v>
       </c>
       <c r="AC71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD71" t="n">
         <v>41</v>
       </c>
       <c r="AE71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF71" t="n">
         <v>41</v>
       </c>
       <c r="AG71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH71" t="n">
         <v>6.5</v>
@@ -10630,7 +10638,7 @@
         <v>351</v>
       </c>
       <c r="AL71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM71" t="n">
         <v>9</v>
@@ -10642,10 +10650,10 @@
         <v>17</v>
       </c>
       <c r="AP71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10823,22 +10831,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J73" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K73" t="n">
         <v>2.1</v>
       </c>
       <c r="L73" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M73" t="n">
         <v>1.07</v>
@@ -10873,16 +10881,16 @@
         <v>2.63</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA73" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC73" t="n">
         <v>9</v>
@@ -10900,10 +10908,10 @@
         <v>8.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ73" t="n">
         <v>51</v>
@@ -10918,7 +10926,7 @@
         <v>19</v>
       </c>
       <c r="AN73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO73" t="n">
         <v>41</v>
@@ -10964,48 +10972,48 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H74" t="n">
         <v>3.9</v>
       </c>
       <c r="I74" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J74" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K74" t="n">
         <v>2.2</v>
       </c>
       <c r="L74" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N74" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O74" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P74" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R74" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V74" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W74" t="n">
         <v>1.36</v>
@@ -11014,16 +11022,16 @@
         <v>3</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA74" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB74" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC74" t="n">
         <v>9</v>
@@ -11035,22 +11043,22 @@
         <v>15</v>
       </c>
       <c r="AF74" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH74" t="n">
         <v>7.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ74" t="n">
         <v>51</v>
       </c>
       <c r="AK74" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="AL74" t="n">
         <v>12</v>
@@ -11065,10 +11073,10 @@
         <v>41</v>
       </c>
       <c r="AP74" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ74" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>41</v>
       </c>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
@@ -11105,28 +11113,28 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="H75" t="n">
+        <v>7</v>
+      </c>
+      <c r="I75" t="n">
         <v>7.5</v>
       </c>
-      <c r="I75" t="n">
-        <v>8.5</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K75" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M75" t="n">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="N75" t="n">
-        <v>15</v>
+        <v>1.02</v>
       </c>
       <c r="O75" t="n">
         <v>1.11</v>
@@ -11155,22 +11163,22 @@
         <v>4</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA75" t="n">
         <v>10</v>
       </c>
       <c r="AB75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC75" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE75" t="n">
         <v>11</v>
@@ -11185,31 +11193,31 @@
         <v>15</v>
       </c>
       <c r="AI75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ75" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK75" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="AL75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM75" t="n">
         <v>41</v>
       </c>
       <c r="AN75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO75" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP75" t="n">
         <v>51</v>
       </c>
       <c r="AQ75" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -11264,16 +11272,16 @@
         <v>1.95</v>
       </c>
       <c r="M76" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N76" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O76" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P76" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="n">
         <v>1.67</v>
@@ -11387,96 +11395,96 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I77" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J77" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="L77" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M77" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N77" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O77" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P77" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R77" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="V77" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="W77" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X77" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y77" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB77" t="n">
         <v>8.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD77" t="n">
         <v>19</v>
       </c>
       <c r="AE77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF77" t="n">
         <v>41</v>
       </c>
       <c r="AG77" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH77" t="n">
         <v>6.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ77" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="n">
         <v>1000</v>
       </c>
       <c r="AL77" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AM77" t="n">
         <v>17</v>
@@ -11488,16 +11496,16 @@
         <v>41</v>
       </c>
       <c r="AP77" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ77" t="n">
         <v>51</v>
       </c>
       <c r="AR77" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="78">
@@ -11679,16 +11687,16 @@
         <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J79" t="n">
         <v>2.88</v>
       </c>
       <c r="K79" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L79" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M79" t="n">
         <v>1.11</v>
@@ -11697,45 +11705,45 @@
         <v>6.5</v>
       </c>
       <c r="O79" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P79" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R79" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V79" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W79" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z79" t="n">
         <v>1.57</v>
       </c>
-      <c r="X79" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AA79" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB79" t="n">
         <v>8.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD79" t="n">
         <v>19</v>
@@ -11747,16 +11755,16 @@
         <v>41</v>
       </c>
       <c r="AG79" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH79" t="n">
         <v>6</v>
       </c>
       <c r="AI79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ79" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK79" t="n">
         <v>101</v>
@@ -11765,7 +11773,7 @@
         <v>8.5</v>
       </c>
       <c r="AM79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN79" t="n">
         <v>15</v>
@@ -11780,10 +11788,10 @@
         <v>51</v>
       </c>
       <c r="AR79" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="80">
@@ -11818,111 +11826,111 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H80" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I80" t="n">
         <v>2.25</v>
       </c>
       <c r="J80" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K80" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L80" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="M80" t="n">
         <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="O80" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P80" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="Q80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R80" t="n">
         <v>1.8</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1.91</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="V80" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="W80" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X80" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="AA80" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB80" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC80" t="n">
         <v>10.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE80" t="n">
         <v>25</v>
       </c>
       <c r="AF80" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG80" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AI80" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ80" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK80" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AL80" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN80" t="n">
         <v>9</v>
       </c>
-      <c r="AM80" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AO80" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP80" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -11959,87 +11967,87 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="H81" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I81" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J81" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="K81" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L81" t="n">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O81" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P81" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R81" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="V81" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W81" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X81" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AA81" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB81" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD81" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF81" t="n">
         <v>22</v>
       </c>
       <c r="AG81" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AI81" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ81" t="n">
         <v>50</v>
@@ -12048,22 +12056,22 @@
         <v>350</v>
       </c>
       <c r="AL81" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AM81" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AN81" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO81" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AP81" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AQ81" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -12100,10 +12108,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H82" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I82" t="n">
         <v>8.5</v>
@@ -12118,36 +12126,36 @@
         <v>7.5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N82" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O82" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P82" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="R82" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V82" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W82" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X82" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Y82" t="n">
         <v>1.73</v>
@@ -12156,10 +12164,10 @@
         <v>2</v>
       </c>
       <c r="AA82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB82" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC82" t="n">
         <v>9.5</v>
@@ -12174,10 +12182,10 @@
         <v>21</v>
       </c>
       <c r="AG82" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI82" t="n">
         <v>19</v>
@@ -12186,7 +12194,7 @@
         <v>51</v>
       </c>
       <c r="AK82" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL82" t="n">
         <v>29</v>
@@ -12204,7 +12212,7 @@
         <v>51</v>
       </c>
       <c r="AQ82" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12262,7 +12270,7 @@
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O83" t="n">
         <v>1.25</v>
@@ -12400,10 +12408,10 @@
         <v>3.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O84" t="n">
         <v>1.29</v>
@@ -12412,10 +12420,10 @@
         <v>3.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R84" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -692,40 +692,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
         <v>2.06</v>
@@ -734,10 +734,10 @@
         <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W2" t="n">
         <v>1.33</v>
@@ -746,13 +746,13 @@
         <v>3.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
         <v>8</v>
@@ -770,13 +770,13 @@
         <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
@@ -785,7 +785,7 @@
         <v>201</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -855,22 +855,22 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
         <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -878,7 +878,7 @@
         <v>3.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
         <v>1.44</v>
@@ -911,7 +911,7 @@
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -941,7 +941,7 @@
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -996,22 +996,22 @@
         <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1019,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
         <v>1.57</v>
@@ -1028,10 +1028,10 @@
         <v>2.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA4" t="n">
         <v>5.5</v>
@@ -1043,7 +1043,7 @@
         <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1061,7 +1061,7 @@
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="n">
         <v>501</v>
@@ -1085,10 +1085,10 @@
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="5">
@@ -1126,22 +1126,22 @@
         <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
         <v>10</v>
@@ -1150,57 +1150,57 @@
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB5" t="n">
         <v>10</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
         <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1209,10 +1209,10 @@
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
@@ -1224,10 +1224,10 @@
         <v>34</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1270,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1282,22 +1282,22 @@
         <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1305,7 +1305,7 @@
         <v>4.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
         <v>1.53</v>
@@ -1427,13 +1427,13 @@
         <v>9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1442,19 +1442,19 @@
         <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="U7" t="n">
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
         <v>1.44</v>
@@ -1520,10 +1520,10 @@
         <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="8">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J8" t="n">
         <v>4.33</v>
@@ -1582,10 +1582,10 @@
         <v>5.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
         <v>3.1</v>
@@ -1594,7 +1594,7 @@
         <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="T8" t="n">
         <v>1.15</v>
@@ -1624,7 +1624,7 @@
         <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
         <v>41</v>
@@ -1636,7 +1636,7 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
         <v>6</v>
@@ -1645,7 +1645,7 @@
         <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="n">
         <v>451</v>
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1722,13 +1722,13 @@
         <v>1.8</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -1737,10 +1737,10 @@
         <v>2.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1754,7 +1754,7 @@
         <v>1.73</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="Y9" t="n">
         <v>2.5</v>
@@ -1784,7 +1784,7 @@
         <v>5.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
         <v>23</v>
@@ -1848,48 +1848,48 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
         <v>2.63</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
         <v>1.22</v>
@@ -1898,22 +1898,22 @@
         <v>4</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
         <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -1925,16 +1925,16 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL10" t="n">
         <v>21</v>
@@ -2130,111 +2130,111 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="H12" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="I12" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>4.75</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>5.1</v>
+        <v>4.45</v>
       </c>
       <c r="V12" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="X12" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="AB12" t="n">
         <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE12" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.75</v>
+        <v>5.4</v>
       </c>
       <c r="AH12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="n">
         <v>900</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AM12" t="n">
         <v>13</v>
       </c>
       <c r="AN12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2976,13 +2976,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
@@ -3020,7 +3020,7 @@
         <v>1.3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X18" t="n">
         <v>2.75</v>
@@ -3041,10 +3041,10 @@
         <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
         <v>34</v>
@@ -3068,19 +3068,19 @@
         <v>7.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN18" t="n">
         <v>9</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="n">
         <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
         <v>2.5</v>
@@ -3132,7 +3132,7 @@
         <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3165,19 +3165,19 @@
         <v>1.53</v>
       </c>
       <c r="W19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X19" t="n">
         <v>3.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="n">
         <v>11</v>
@@ -3186,7 +3186,7 @@
         <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H20" t="n">
         <v>4.5</v>
@@ -3280,10 +3280,10 @@
         <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
@@ -3306,7 +3306,7 @@
         <v>1.44</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X20" t="n">
         <v>3.25</v>
@@ -3447,7 +3447,7 @@
         <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X21" t="n">
         <v>2.5</v>
@@ -3548,117 +3548,117 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J22" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P22" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R22" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X22" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AA22" t="n">
         <v>7.5</v>
       </c>
       <c r="AB22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC22" t="n">
         <v>15</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>13</v>
       </c>
       <c r="AD22" t="n">
         <v>41</v>
       </c>
       <c r="AE22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH22" t="n">
         <v>6.5</v>
       </c>
-      <c r="AH22" t="n">
-        <v>6</v>
-      </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="n">
         <v>251</v>
       </c>
       <c r="AL22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM22" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AN22" t="n">
         <v>10</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="23">
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
@@ -3705,10 +3705,10 @@
         <v>4.33</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3717,46 +3717,46 @@
         <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R23" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X23" t="n">
         <v>2.75</v>
       </c>
-      <c r="T23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X23" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Y23" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
         <v>13</v>
@@ -3765,13 +3765,13 @@
         <v>41</v>
       </c>
       <c r="AE23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
         <v>6.5</v>
@@ -3783,13 +3783,13 @@
         <v>51</v>
       </c>
       <c r="AK23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN23" t="n">
         <v>9</v>
@@ -3798,16 +3798,16 @@
         <v>17</v>
       </c>
       <c r="AP23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="24">
@@ -3991,13 +3991,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
@@ -4009,10 +4009,10 @@
         <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.53</v>
@@ -4027,10 +4027,10 @@
         <v>1.44</v>
       </c>
       <c r="S25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U25" t="n">
         <v>5.5</v>
@@ -4152,40 +4152,40 @@
         <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M26" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.11</v>
-      </c>
-      <c r="N26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.14</v>
       </c>
       <c r="W26" t="n">
         <v>1.62</v>
@@ -4251,10 +4251,10 @@
         <v>51</v>
       </c>
       <c r="AR26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="27">
@@ -4307,22 +4307,22 @@
         <v>3.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
         <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -4330,7 +4330,7 @@
         <v>4.5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W27" t="n">
         <v>1.53</v>
@@ -4396,10 +4396,10 @@
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="28">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I28" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J28" t="n">
         <v>2.02</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L28" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4461,7 +4461,7 @@
         <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q28" t="n">
         <v>1.7</v>
@@ -4478,28 +4478,28 @@
         <v>1.44</v>
       </c>
       <c r="W28" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AC28" t="n">
         <v>8.75</v>
       </c>
       <c r="AD28" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AE28" t="n">
         <v>12.5</v>
@@ -4575,13 +4575,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H29" t="n">
         <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J29" t="n">
         <v>1.83</v>
@@ -4590,19 +4590,19 @@
         <v>2.5</v>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
         <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q29" t="n">
         <v>1.7</v>
@@ -4617,34 +4617,34 @@
         <v>1.83</v>
       </c>
       <c r="U29" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V29" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC29" t="n">
         <v>8.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -4653,34 +4653,34 @@
         <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK29" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
         <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
         <v>101</v>
       </c>
       <c r="AP29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ29" t="n">
         <v>51</v>
@@ -4738,13 +4738,13 @@
         <v>4.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
         <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P30" t="n">
         <v>4.5</v>
@@ -4765,7 +4765,7 @@
         <v>2.5</v>
       </c>
       <c r="V30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W30" t="n">
         <v>1.3</v>
@@ -4865,7 +4865,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
@@ -4874,45 +4874,45 @@
         <v>1.85</v>
       </c>
       <c r="J31" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L31" t="n">
         <v>2.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
         <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V31" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y31" t="n">
         <v>1.83</v>
@@ -4927,7 +4927,7 @@
         <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD31" t="n">
         <v>41</v>
@@ -4939,7 +4939,7 @@
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
         <v>6.5</v>
@@ -4951,7 +4951,7 @@
         <v>51</v>
       </c>
       <c r="AK31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL31" t="n">
         <v>7</v>
@@ -4969,7 +4969,7 @@
         <v>15</v>
       </c>
       <c r="AQ31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -5009,7 +5009,7 @@
         <v>2.5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
         <v>2.75</v>
@@ -5024,22 +5024,22 @@
         <v>3.4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
         <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R32" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -5047,7 +5047,7 @@
         <v>3.25</v>
       </c>
       <c r="V32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W32" t="n">
         <v>1.4</v>
@@ -5147,48 +5147,48 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J33" t="n">
         <v>2.1</v>
       </c>
       <c r="K33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R33" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W33" t="n">
         <v>1.4</v>
@@ -5197,22 +5197,22 @@
         <v>2.75</v>
       </c>
       <c r="Y33" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB33" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>7</v>
       </c>
       <c r="AC33" t="n">
         <v>8.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
@@ -5221,16 +5221,16 @@
         <v>29</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK33" t="n">
         <v>351</v>
@@ -5245,7 +5245,7 @@
         <v>21</v>
       </c>
       <c r="AO33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP33" t="n">
         <v>51</v>
@@ -5288,13 +5288,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H34" t="n">
         <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -5312,10 +5312,10 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q34" t="n">
         <v>1.65</v>
@@ -5326,10 +5326,10 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W34" t="n">
         <v>1.3</v>
@@ -5344,7 +5344,7 @@
         <v>2.25</v>
       </c>
       <c r="AA34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB34" t="n">
         <v>21</v>
@@ -5365,10 +5365,10 @@
         <v>15</v>
       </c>
       <c r="AH34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ34" t="n">
         <v>41</v>
@@ -5383,7 +5383,7 @@
         <v>11</v>
       </c>
       <c r="AN34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO34" t="n">
         <v>17</v>
@@ -5447,10 +5447,10 @@
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -5459,10 +5459,10 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R35" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K36" t="n">
         <v>2.2</v>
@@ -5600,10 +5600,10 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R36" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -5635,7 +5635,7 @@
         <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="n">
         <v>17</v>
@@ -5665,7 +5665,7 @@
         <v>19</v>
       </c>
       <c r="AN36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO36" t="n">
         <v>41</v>
@@ -5711,22 +5711,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H37" t="n">
         <v>2.88</v>
       </c>
       <c r="I37" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
         <v>1.91</v>
       </c>
       <c r="L37" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M37" t="n">
         <v>1.1</v>
@@ -5767,7 +5767,7 @@
         <v>1.67</v>
       </c>
       <c r="AA37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB37" t="n">
         <v>12</v>
@@ -5776,7 +5776,7 @@
         <v>11</v>
       </c>
       <c r="AD37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE37" t="n">
         <v>26</v>
@@ -5806,13 +5806,13 @@
         <v>12</v>
       </c>
       <c r="AN37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO37" t="n">
         <v>29</v>
       </c>
       <c r="AP37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ37" t="n">
         <v>41</v>
@@ -5856,28 +5856,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
         <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K38" t="n">
         <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O38" t="n">
         <v>1.33</v>
@@ -5912,10 +5912,10 @@
         <v>1.83</v>
       </c>
       <c r="AA38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
         <v>12</v>
@@ -5924,10 +5924,10 @@
         <v>34</v>
       </c>
       <c r="AE38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG38" t="n">
         <v>8.5</v>
@@ -5945,10 +5945,10 @@
         <v>301</v>
       </c>
       <c r="AL38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN38" t="n">
         <v>9.5</v>
@@ -5997,16 +5997,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K39" t="n">
         <v>2.2</v>
@@ -6027,10 +6027,10 @@
         <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R39" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -6062,16 +6062,16 @@
         <v>11</v>
       </c>
       <c r="AD39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE39" t="n">
         <v>23</v>
       </c>
       <c r="AF39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH39" t="n">
         <v>6.5</v>
@@ -6089,13 +6089,13 @@
         <v>8.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN39" t="n">
         <v>9.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP39" t="n">
         <v>19</v>
@@ -6138,19 +6138,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H40" t="n">
         <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
         <v>3.75</v>
@@ -6188,13 +6188,13 @@
         <v>2.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB40" t="n">
         <v>11</v>
@@ -6224,19 +6224,19 @@
         <v>51</v>
       </c>
       <c r="AK40" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP40" t="n">
         <v>26</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H41" t="n">
         <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M41" t="n">
         <v>1.06</v>
@@ -6344,10 +6344,10 @@
         <v>12</v>
       </c>
       <c r="AD41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF41" t="n">
         <v>34</v>
@@ -6371,13 +6371,13 @@
         <v>8</v>
       </c>
       <c r="AM41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN41" t="n">
         <v>9</v>
       </c>
       <c r="AO41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP41" t="n">
         <v>17</v>
@@ -6426,7 +6426,7 @@
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J42" t="n">
         <v>3.25</v>
@@ -6450,10 +6450,10 @@
         <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6494,7 +6494,7 @@
         <v>34</v>
       </c>
       <c r="AG42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH42" t="n">
         <v>6</v>
@@ -6506,10 +6506,10 @@
         <v>51</v>
       </c>
       <c r="AK42" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AL42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM42" t="n">
         <v>13</v>
@@ -6561,52 +6561,52 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J43" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L43" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P43" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V43" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.57</v>
       </c>
       <c r="W43" t="n">
         <v>1.29</v>
@@ -6615,13 +6615,13 @@
         <v>3.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB43" t="n">
         <v>15</v>
@@ -6630,7 +6630,7 @@
         <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE43" t="n">
         <v>17</v>
@@ -6642,13 +6642,13 @@
         <v>17</v>
       </c>
       <c r="AH43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI43" t="n">
         <v>11</v>
       </c>
       <c r="AJ43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK43" t="n">
         <v>101</v>
@@ -6669,7 +6669,7 @@
         <v>19</v>
       </c>
       <c r="AQ43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6706,13 +6706,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H44" t="n">
         <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J44" t="n">
         <v>3.2</v>
@@ -6736,10 +6736,10 @@
         <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R44" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6756,10 +6756,10 @@
         <v>2.75</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA44" t="n">
         <v>9</v>
@@ -6771,13 +6771,13 @@
         <v>10</v>
       </c>
       <c r="AD44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE44" t="n">
         <v>21</v>
       </c>
       <c r="AF44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG44" t="n">
         <v>11</v>
@@ -6795,7 +6795,7 @@
         <v>201</v>
       </c>
       <c r="AL44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM44" t="n">
         <v>13</v>
@@ -6847,13 +6847,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H45" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
         <v>2.3</v>
@@ -6862,7 +6862,7 @@
         <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
@@ -6906,7 +6906,7 @@
         <v>7</v>
       </c>
       <c r="AB45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC45" t="n">
         <v>8.5</v>
@@ -6915,7 +6915,7 @@
         <v>13</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
         <v>26</v>
@@ -6924,7 +6924,7 @@
         <v>10</v>
       </c>
       <c r="AH45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI45" t="n">
         <v>17</v>
@@ -6939,7 +6939,7 @@
         <v>13</v>
       </c>
       <c r="AM45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN45" t="n">
         <v>15</v>
@@ -7270,22 +7270,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="H48" t="n">
         <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J48" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="K48" t="n">
         <v>1.91</v>
       </c>
       <c r="L48" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M48" t="n">
         <v>1.1</v>
@@ -7314,28 +7314,28 @@
         <v>1.14</v>
       </c>
       <c r="W48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z48" t="n">
         <v>1.57</v>
       </c>
-      <c r="X48" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AA48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
         <v>15</v>
       </c>
       <c r="AD48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE48" t="n">
         <v>41</v>
@@ -7359,10 +7359,10 @@
         <v>501</v>
       </c>
       <c r="AL48" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AM48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN48" t="n">
         <v>9.5</v>
@@ -7377,10 +7377,10 @@
         <v>41</v>
       </c>
       <c r="AR48" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="49">
@@ -7445,10 +7445,10 @@
         <v>2.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R49" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
@@ -7574,10 +7574,10 @@
         <v>6</v>
       </c>
       <c r="M50" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O50" t="n">
         <v>1.4</v>
@@ -7586,18 +7586,18 @@
         <v>2.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R50" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W50" t="n">
         <v>1.5</v>
@@ -7862,16 +7862,16 @@
         <v>9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P52" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R52" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -7979,25 +7979,29 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="H53" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
         <v>1.91</v>
       </c>
       <c r="L53" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+        <v>3.7</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N53" t="n">
+        <v>6</v>
+      </c>
       <c r="O53" t="n">
         <v>1.5</v>
       </c>
@@ -8022,7 +8026,7 @@
         <v>1.5</v>
       </c>
       <c r="X53" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="Y53" t="n">
         <v>2.1</v>
@@ -8031,55 +8035,55 @@
         <v>1.66</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AB53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD53" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF53" t="n">
         <v>35</v>
       </c>
       <c r="AG53" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AI53" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ53" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK53" t="n">
         <v>450</v>
       </c>
       <c r="AL53" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AM53" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AN53" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AO53" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP53" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ53" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8261,22 +8265,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J55" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L55" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
@@ -8291,24 +8295,24 @@
         <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R55" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V55" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W55" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X55" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y55" t="n">
         <v>1.95</v>
@@ -8320,7 +8324,7 @@
         <v>7</v>
       </c>
       <c r="AB55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC55" t="n">
         <v>9.5</v>
@@ -8329,13 +8333,13 @@
         <v>21</v>
       </c>
       <c r="AE55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH55" t="n">
         <v>6</v>
@@ -8347,19 +8351,19 @@
         <v>51</v>
       </c>
       <c r="AK55" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN55" t="n">
         <v>12</v>
       </c>
       <c r="AO55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP55" t="n">
         <v>29</v>
@@ -8825,13 +8829,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I59" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J59" t="n">
         <v>2.5</v>
@@ -8840,7 +8844,7 @@
         <v>2.38</v>
       </c>
       <c r="L59" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
@@ -8855,16 +8859,16 @@
         <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R59" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S59" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T59" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U59" t="n">
         <v>2.5</v>
@@ -8879,10 +8883,10 @@
         <v>3.4</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA59" t="n">
         <v>10</v>
@@ -8891,13 +8895,13 @@
         <v>11</v>
       </c>
       <c r="AC59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD59" t="n">
         <v>17</v>
       </c>
       <c r="AE59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF59" t="n">
         <v>21</v>
@@ -8976,16 +8980,16 @@
         <v>3.7</v>
       </c>
       <c r="I60" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K60" t="n">
         <v>2.38</v>
       </c>
       <c r="L60" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M60" t="n">
         <v>1.03</v>
@@ -8994,22 +8998,22 @@
         <v>15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P60" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R60" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S60" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T60" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U60" t="n">
         <v>2.5</v>
@@ -9063,7 +9067,7 @@
         <v>126</v>
       </c>
       <c r="AL60" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM60" t="n">
         <v>10</v>
@@ -9072,7 +9076,7 @@
         <v>8.5</v>
       </c>
       <c r="AO60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP60" t="n">
         <v>13</v>
@@ -9115,16 +9119,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H61" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J61" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K61" t="n">
         <v>2.5</v>
@@ -9187,7 +9191,7 @@
         <v>9</v>
       </c>
       <c r="AE61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF61" t="n">
         <v>26</v>
@@ -9208,13 +9212,13 @@
         <v>301</v>
       </c>
       <c r="AL61" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM61" t="n">
         <v>41</v>
       </c>
       <c r="AN61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO61" t="n">
         <v>81</v>
@@ -9260,22 +9264,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H62" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J62" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
         <v>2.6</v>
       </c>
       <c r="L62" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M62" t="n">
         <v>1.02</v>
@@ -9290,10 +9294,10 @@
         <v>6</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R62" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S62" t="n">
         <v>1.8</v>
@@ -9323,13 +9327,13 @@
         <v>11</v>
       </c>
       <c r="AB62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC62" t="n">
         <v>8.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE62" t="n">
         <v>11</v>
@@ -9338,25 +9342,25 @@
         <v>19</v>
       </c>
       <c r="AG62" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI62" t="n">
         <v>13</v>
       </c>
       <c r="AJ62" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK62" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL62" t="n">
         <v>21</v>
       </c>
       <c r="AM62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN62" t="n">
         <v>17</v>
@@ -9365,7 +9369,7 @@
         <v>51</v>
       </c>
       <c r="AP62" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ62" t="n">
         <v>34</v>
@@ -9405,19 +9409,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H63" t="n">
         <v>3.7</v>
       </c>
       <c r="I63" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J63" t="n">
         <v>2.5</v>
       </c>
       <c r="K63" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L63" t="n">
         <v>3.6</v>
@@ -9468,7 +9472,7 @@
         <v>12</v>
       </c>
       <c r="AB63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC63" t="n">
         <v>9</v>
@@ -9477,7 +9481,7 @@
         <v>19</v>
       </c>
       <c r="AE63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF63" t="n">
         <v>19</v>
@@ -9486,13 +9490,13 @@
         <v>19</v>
       </c>
       <c r="AH63" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI63" t="n">
         <v>11</v>
       </c>
       <c r="AJ63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK63" t="n">
         <v>101</v>
@@ -9513,7 +9517,7 @@
         <v>23</v>
       </c>
       <c r="AQ63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
@@ -9731,10 +9735,10 @@
         <v>2.35</v>
       </c>
       <c r="S65" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T65" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U65" t="n">
         <v>2.38</v>
@@ -9947,10 +9951,10 @@
         <v>51</v>
       </c>
       <c r="AR66" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="67">
@@ -10147,7 +10151,7 @@
         <v>1.04</v>
       </c>
       <c r="N68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O68" t="n">
         <v>1.22</v>
@@ -10156,10 +10160,10 @@
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R68" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -10267,63 +10271,63 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I69" t="n">
         <v>4.33</v>
       </c>
       <c r="J69" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K69" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L69" t="n">
         <v>4.5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N69" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O69" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P69" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R69" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X69" t="n">
         <v>3</v>
       </c>
-      <c r="V69" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W69" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X69" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Y69" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA69" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB69" t="n">
         <v>9</v>
@@ -10338,28 +10342,28 @@
         <v>15</v>
       </c>
       <c r="AF69" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG69" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH69" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ69" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK69" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN69" t="n">
         <v>15</v>
@@ -10371,7 +10375,7 @@
         <v>34</v>
       </c>
       <c r="AQ69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr"/>
@@ -10567,10 +10571,10 @@
         <v>2.75</v>
       </c>
       <c r="M71" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -10579,18 +10583,18 @@
         <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R71" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V71" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W71" t="n">
         <v>1.44</v>
@@ -10831,28 +10835,28 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H73" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I73" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K73" t="n">
         <v>2.1</v>
       </c>
       <c r="L73" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M73" t="n">
         <v>1.07</v>
       </c>
       <c r="N73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O73" t="n">
         <v>1.33</v>
@@ -10881,16 +10885,16 @@
         <v>2.63</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA73" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC73" t="n">
         <v>9</v>
@@ -10908,10 +10912,10 @@
         <v>8.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ73" t="n">
         <v>51</v>
@@ -10926,7 +10930,7 @@
         <v>19</v>
       </c>
       <c r="AN73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO73" t="n">
         <v>41</v>
@@ -11058,7 +11062,7 @@
         <v>51</v>
       </c>
       <c r="AK74" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL74" t="n">
         <v>12</v>
@@ -11119,22 +11123,22 @@
         <v>7</v>
       </c>
       <c r="I75" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J75" t="n">
         <v>1.62</v>
       </c>
       <c r="K75" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L75" t="n">
         <v>7</v>
       </c>
       <c r="M75" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>1.02</v>
+        <v>15</v>
       </c>
       <c r="O75" t="n">
         <v>1.11</v>
@@ -11157,52 +11161,52 @@
         <v>1.8</v>
       </c>
       <c r="W75" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X75" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AA75" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC75" t="n">
         <v>9.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE75" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG75" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH75" t="n">
         <v>15</v>
       </c>
       <c r="AI75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ75" t="n">
         <v>51</v>
       </c>
       <c r="AK75" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AL75" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM75" t="n">
         <v>41</v>
@@ -11214,7 +11218,7 @@
         <v>81</v>
       </c>
       <c r="AP75" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ75" t="n">
         <v>41</v>
@@ -11278,10 +11282,10 @@
         <v>10</v>
       </c>
       <c r="O76" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q76" t="n">
         <v>1.67</v>
@@ -11340,7 +11344,7 @@
         <v>51</v>
       </c>
       <c r="AK76" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL76" t="n">
         <v>7.5</v>
@@ -11425,18 +11429,18 @@
         <v>2.2</v>
       </c>
       <c r="Q77" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R77" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W77" t="n">
         <v>1.67</v>
@@ -11540,19 +11544,19 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H78" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I78" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K78" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L78" t="n">
         <v>2.2</v>
@@ -11561,13 +11565,13 @@
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O78" t="n">
         <v>1.26</v>
       </c>
       <c r="P78" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q78" t="n">
         <v>1.78</v>
@@ -11578,34 +11582,34 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X78" t="n">
         <v>2.85</v>
       </c>
-      <c r="V78" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W78" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X78" t="n">
-        <v>2.82</v>
-      </c>
       <c r="Y78" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="Z78" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AA78" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC78" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD78" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AE78" t="n">
         <v>45</v>
@@ -11614,37 +11618,37 @@
         <v>45</v>
       </c>
       <c r="AG78" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AH78" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ78" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK78" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL78" t="n">
         <v>7.2</v>
       </c>
       <c r="AM78" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AN78" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AO78" t="n">
         <v>12.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ78" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11684,7 +11688,7 @@
         <v>2.1</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I79" t="n">
         <v>4.1</v>
@@ -11699,30 +11703,30 @@
         <v>4.75</v>
       </c>
       <c r="M79" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N79" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O79" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P79" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R79" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V79" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W79" t="n">
         <v>1.62</v>
@@ -11755,7 +11759,7 @@
         <v>41</v>
       </c>
       <c r="AG79" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH79" t="n">
         <v>6</v>
@@ -11770,7 +11774,7 @@
         <v>101</v>
       </c>
       <c r="AL79" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM79" t="n">
         <v>19</v>
@@ -11967,111 +11971,111 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="H81" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I81" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="K81" t="n">
         <v>2.27</v>
       </c>
       <c r="L81" t="n">
-        <v>4.05</v>
+        <v>4.35</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O81" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P81" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R81" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="V81" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W81" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X81" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AA81" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB81" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>9.5</v>
       </c>
       <c r="AC81" t="n">
         <v>8.25</v>
       </c>
       <c r="AD81" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF81" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG81" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AI81" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AJ81" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK81" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AL81" t="n">
         <v>13</v>
       </c>
       <c r="AM81" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN81" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO81" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP81" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AQ81" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -710,22 +710,22 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>2.06</v>
@@ -734,10 +734,10 @@
         <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W2" t="n">
         <v>1.33</v>
@@ -855,22 +855,22 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
         <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -878,7 +878,7 @@
         <v>3.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
         <v>1.44</v>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -993,25 +993,25 @@
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1019,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
         <v>1.57</v>
@@ -1034,13 +1034,13 @@
         <v>1.67</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
         <v>8.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>19</v>
@@ -1055,7 +1055,7 @@
         <v>6</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1085,10 +1085,10 @@
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="5">
@@ -1126,22 +1126,22 @@
         <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>10</v>
@@ -1150,21 +1150,21 @@
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
         <v>1.44</v>
@@ -1173,19 +1173,19 @@
         <v>2.63</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
         <v>21</v>
@@ -1197,7 +1197,7 @@
         <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1209,10 +1209,10 @@
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
@@ -1224,10 +1224,10 @@
         <v>34</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1282,22 +1282,22 @@
         <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1305,7 +1305,7 @@
         <v>4.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
         <v>1.53</v>
@@ -1371,10 +1371,10 @@
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="7">
@@ -1427,13 +1427,13 @@
         <v>9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1442,7 +1442,7 @@
         <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>3.25</v>
@@ -1454,7 +1454,7 @@
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
         <v>1.44</v>
@@ -1588,22 +1588,22 @@
         <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="U8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
         <v>1.67</v>
@@ -2133,60 +2133,60 @@
         <v>2.67</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="I12" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="V12" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X12" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AB12" t="n">
         <v>12</v>
@@ -2198,40 +2198,40 @@
         <v>32</v>
       </c>
       <c r="AE12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AH12" t="n">
         <v>5.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK12" t="n">
         <v>900</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AM12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AO12" t="n">
         <v>37</v>
       </c>
       <c r="AP12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ12" t="n">
         <v>50</v>
@@ -2271,81 +2271,81 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.82</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
         <v>2.15</v>
       </c>
       <c r="L13" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AA13" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AH13" t="n">
         <v>6.5</v>
@@ -2354,28 +2354,28 @@
         <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
         <v>600</v>
       </c>
       <c r="AL13" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AM13" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -3000,27 +3000,27 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X18" t="n">
         <v>2.75</v>
@@ -3153,10 +3153,10 @@
         <v>2.35</v>
       </c>
       <c r="S19" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T19" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
         <v>2.38</v>
@@ -3165,7 +3165,7 @@
         <v>1.53</v>
       </c>
       <c r="W19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X19" t="n">
         <v>3.5</v>
@@ -3306,7 +3306,7 @@
         <v>1.44</v>
       </c>
       <c r="W20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
         <v>3.25</v>
@@ -3403,22 +3403,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -3433,10 +3433,10 @@
         <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3447,7 +3447,7 @@
         <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X21" t="n">
         <v>2.5</v>
@@ -3459,16 +3459,16 @@
         <v>1.73</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
@@ -3492,13 +3492,13 @@
         <v>351</v>
       </c>
       <c r="AL21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
         <v>41</v>
@@ -3548,16 +3548,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>1.83</v>
@@ -3586,10 +3586,10 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W22" t="n">
         <v>1.67</v>
@@ -3622,7 +3622,7 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH22" t="n">
         <v>6.5</v>
@@ -3729,10 +3729,10 @@
         <v>1.95</v>
       </c>
       <c r="S23" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U23" t="n">
         <v>3.25</v>
@@ -3804,10 +3804,10 @@
         <v>26</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="24">
@@ -3842,22 +3842,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3902,19 +3902,19 @@
         <v>1.91</v>
       </c>
       <c r="AA24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>29</v>
@@ -3935,22 +3935,22 @@
         <v>251</v>
       </c>
       <c r="AL24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AP24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR24" t="n">
         <v>1.49</v>
@@ -3991,91 +3991,91 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L25" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U25" t="n">
         <v>5</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="V25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z25" t="n">
         <v>1.53</v>
       </c>
-      <c r="P25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="U25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AA25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
         <v>81</v>
@@ -4084,28 +4084,28 @@
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ25" t="n">
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="26">
@@ -4140,22 +4140,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L26" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>1.13</v>
@@ -4170,10 +4170,10 @@
         <v>2.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -4188,37 +4188,37 @@
         <v>1.11</v>
       </c>
       <c r="W26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AE26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH26" t="n">
         <v>6</v>
@@ -4227,22 +4227,22 @@
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="n">
         <v>101</v>
       </c>
       <c r="AL26" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AM26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AP26" t="n">
         <v>34</v>
@@ -4289,7 +4289,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
@@ -4307,30 +4307,30 @@
         <v>3.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
         <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V27" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W27" t="n">
         <v>1.53</v>
@@ -4357,7 +4357,7 @@
         <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>41</v>
@@ -4390,16 +4390,16 @@
         <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="28">
@@ -4575,19 +4575,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L29" t="n">
         <v>7.5</v>
@@ -4596,76 +4596,76 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O29" t="n">
         <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="R29" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="S29" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y29" t="n">
         <v>1.83</v>
       </c>
-      <c r="U29" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>2</v>
-      </c>
       <c r="Z29" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AA29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB29" t="n">
         <v>7</v>
       </c>
-      <c r="AB29" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AC29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
         <v>8.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK29" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AL29" t="n">
         <v>23</v>
@@ -4674,13 +4674,13 @@
         <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
         <v>101</v>
       </c>
       <c r="AP29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ29" t="n">
         <v>51</v>
@@ -4720,85 +4720,85 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>4.1</v>
       </c>
       <c r="I30" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K30" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
         <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R30" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S30" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U30" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V30" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC30" t="n">
         <v>8.5</v>
       </c>
       <c r="AD30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG30" t="n">
         <v>13</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>15</v>
       </c>
       <c r="AH30" t="n">
         <v>8</v>
@@ -4810,7 +4810,7 @@
         <v>41</v>
       </c>
       <c r="AK30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL30" t="n">
         <v>15</v>
@@ -4825,10 +4825,10 @@
         <v>51</v>
       </c>
       <c r="AP30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4883,13 +4883,13 @@
         <v>2.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
         <v>3.5</v>
@@ -4906,7 +4906,7 @@
         <v>3.4</v>
       </c>
       <c r="V31" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W31" t="n">
         <v>1.4</v>
@@ -5024,22 +5024,22 @@
         <v>3.4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
         <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R32" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -5047,7 +5047,7 @@
         <v>3.25</v>
       </c>
       <c r="V32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W32" t="n">
         <v>1.4</v>
@@ -5150,7 +5150,7 @@
         <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
         <v>6.5</v>
@@ -5165,10 +5165,10 @@
         <v>6.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
         <v>1.3</v>
@@ -5177,18 +5177,18 @@
         <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W33" t="n">
         <v>1.4</v>
@@ -5221,13 +5221,13 @@
         <v>29</v>
       </c>
       <c r="AG33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH33" t="n">
         <v>7.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ33" t="n">
         <v>67</v>
@@ -5312,10 +5312,10 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q34" t="n">
         <v>1.65</v>
@@ -5326,10 +5326,10 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W34" t="n">
         <v>1.3</v>
@@ -5356,7 +5356,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF34" t="n">
         <v>29</v>
@@ -5365,10 +5365,10 @@
         <v>15</v>
       </c>
       <c r="AH34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ34" t="n">
         <v>41</v>
@@ -5459,18 +5459,18 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W35" t="n">
         <v>1.4</v>
@@ -5573,7 +5573,7 @@
         <v>2.1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
         <v>3.6</v>
@@ -5582,7 +5582,7 @@
         <v>2.75</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L36" t="n">
         <v>4</v>
@@ -5594,16 +5594,16 @@
         <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -5626,7 +5626,7 @@
         <v>2</v>
       </c>
       <c r="AA36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB36" t="n">
         <v>10</v>
@@ -5665,7 +5665,7 @@
         <v>19</v>
       </c>
       <c r="AN36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO36" t="n">
         <v>41</v>
@@ -6009,7 +6009,7 @@
         <v>3.6</v>
       </c>
       <c r="K39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
         <v>3</v>
@@ -6027,18 +6027,18 @@
         <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W39" t="n">
         <v>1.4</v>
@@ -6138,22 +6138,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H40" t="n">
         <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K40" t="n">
         <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M40" t="n">
         <v>1.08</v>
@@ -6218,7 +6218,7 @@
         <v>6</v>
       </c>
       <c r="AI40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ40" t="n">
         <v>51</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H41" t="n">
         <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J41" t="n">
         <v>3.75</v>
@@ -6297,10 +6297,10 @@
         <v>2.88</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O41" t="n">
         <v>1.29</v>
@@ -6438,10 +6438,10 @@
         <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -6458,10 +6458,10 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W42" t="n">
         <v>1.5</v>
@@ -6561,13 +6561,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H43" t="n">
         <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
@@ -6576,7 +6576,7 @@
         <v>2.38</v>
       </c>
       <c r="L43" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6591,16 +6591,16 @@
         <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R43" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T43" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U43" t="n">
         <v>2.38</v>
@@ -6609,10 +6609,10 @@
         <v>1.53</v>
       </c>
       <c r="W43" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X43" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y43" t="n">
         <v>1.5</v>
@@ -6630,7 +6630,7 @@
         <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE43" t="n">
         <v>17</v>
@@ -6639,7 +6639,7 @@
         <v>21</v>
       </c>
       <c r="AG43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH43" t="n">
         <v>7</v>
@@ -6709,19 +6709,19 @@
         <v>2.55</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M44" t="n">
         <v>1.05</v>
@@ -6730,24 +6730,24 @@
         <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W44" t="n">
         <v>1.4</v>
@@ -6756,16 +6756,16 @@
         <v>2.75</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z44" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC44" t="n">
         <v>10</v>
@@ -6780,22 +6780,22 @@
         <v>29</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH44" t="n">
         <v>6.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK44" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM44" t="n">
         <v>13</v>
@@ -6877,10 +6877,10 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R45" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -7129,13 +7129,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>3.7</v>
       </c>
       <c r="I47" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J47" t="n">
         <v>2.4</v>
@@ -7144,7 +7144,7 @@
         <v>2.38</v>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -7153,24 +7153,24 @@
         <v>15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P47" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V47" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W47" t="n">
         <v>1.3</v>
@@ -7179,13 +7179,13 @@
         <v>3.4</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB47" t="n">
         <v>10</v>
@@ -7194,7 +7194,7 @@
         <v>8.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE47" t="n">
         <v>13</v>
@@ -7221,7 +7221,7 @@
         <v>15</v>
       </c>
       <c r="AM47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN47" t="n">
         <v>13</v>
@@ -7233,7 +7233,7 @@
         <v>29</v>
       </c>
       <c r="AQ47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
@@ -7270,16 +7270,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H48" t="n">
         <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J48" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
         <v>1.91</v>
@@ -7314,28 +7314,28 @@
         <v>1.14</v>
       </c>
       <c r="W48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z48" t="n">
         <v>1.62</v>
-      </c>
-      <c r="X48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.57</v>
       </c>
       <c r="AA48" t="n">
         <v>8.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC48" t="n">
         <v>15</v>
       </c>
       <c r="AD48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE48" t="n">
         <v>41</v>
@@ -7359,10 +7359,10 @@
         <v>501</v>
       </c>
       <c r="AL48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN48" t="n">
         <v>9.5</v>
@@ -7418,93 +7418,93 @@
         <v>1.8</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J49" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K49" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
         <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R49" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W49" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X49" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD49" t="n">
         <v>15</v>
       </c>
       <c r="AE49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG49" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH49" t="n">
         <v>6.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK49" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AL49" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AM49" t="n">
         <v>21</v>
@@ -7519,10 +7519,14 @@
         <v>41</v>
       </c>
       <c r="AQ49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7556,22 +7560,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I50" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J50" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K50" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M50" t="n">
         <v>1.07</v>
@@ -7615,16 +7619,16 @@
         <v>5.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC50" t="n">
         <v>9</v>
       </c>
       <c r="AD50" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF50" t="n">
         <v>34</v>
@@ -7633,7 +7637,7 @@
         <v>8</v>
       </c>
       <c r="AH50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI50" t="n">
         <v>21</v>
@@ -7645,19 +7649,19 @@
         <v>501</v>
       </c>
       <c r="AL50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM50" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO50" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP50" t="n">
         <v>51</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>41</v>
       </c>
       <c r="AQ50" t="n">
         <v>51</v>
@@ -7727,10 +7731,10 @@
         <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R51" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -7862,16 +7866,16 @@
         <v>9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R52" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -7900,7 +7904,7 @@
         <v>13</v>
       </c>
       <c r="AC52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD52" t="n">
         <v>26</v>
@@ -7979,28 +7983,28 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K53" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="L53" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M53" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N53" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O53" t="n">
         <v>1.5</v>
@@ -8029,61 +8033,61 @@
         <v>2.15</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AB53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD53" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AE53" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AF53" t="n">
         <v>35</v>
       </c>
       <c r="AG53" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AH53" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AI53" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ53" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="n">
         <v>450</v>
       </c>
       <c r="AL53" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AM53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN53" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AO53" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AP53" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AQ53" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8156,10 +8160,10 @@
         <v>2.25</v>
       </c>
       <c r="S54" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T54" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U54" t="n">
         <v>2.5</v>
@@ -8265,40 +8269,40 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="H55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N55" t="n">
+        <v>10</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P55" t="n">
         <v>3.25</v>
       </c>
-      <c r="I55" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K55" t="n">
+      <c r="Q55" t="n">
         <v>2.05</v>
       </c>
-      <c r="L55" t="n">
-        <v>4</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N55" t="n">
-        <v>9</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P55" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R55" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -8321,31 +8325,31 @@
         <v>1.8</v>
       </c>
       <c r="AA55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD55" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF55" t="n">
         <v>29</v>
       </c>
       <c r="AG55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ55" t="n">
         <v>51</v>
@@ -8354,19 +8358,19 @@
         <v>301</v>
       </c>
       <c r="AL55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO55" t="n">
         <v>41</v>
       </c>
       <c r="AP55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ55" t="n">
         <v>41</v>
@@ -8429,7 +8433,7 @@
         <v>1.15</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Q56" t="n">
         <v>1.45</v>
@@ -8684,16 +8688,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>2.8</v>
       </c>
       <c r="I58" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J58" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K58" t="n">
         <v>1.83</v>
@@ -8714,10 +8718,10 @@
         <v>2.25</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R58" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -8743,7 +8747,7 @@
         <v>5.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC58" t="n">
         <v>11</v>
@@ -8752,13 +8756,13 @@
         <v>23</v>
       </c>
       <c r="AE58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF58" t="n">
         <v>41</v>
       </c>
       <c r="AG58" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH58" t="n">
         <v>6</v>
@@ -8782,7 +8786,7 @@
         <v>13</v>
       </c>
       <c r="AO58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP58" t="n">
         <v>34</v>
@@ -8829,22 +8833,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I59" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K59" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
@@ -8877,16 +8881,16 @@
         <v>1.5</v>
       </c>
       <c r="W59" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X59" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA59" t="n">
         <v>10</v>
@@ -8898,34 +8902,34 @@
         <v>8.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE59" t="n">
         <v>13</v>
       </c>
       <c r="AF59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI59" t="n">
         <v>12</v>
       </c>
       <c r="AJ59" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK59" t="n">
         <v>126</v>
       </c>
       <c r="AL59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN59" t="n">
         <v>13</v>
@@ -8934,7 +8938,7 @@
         <v>41</v>
       </c>
       <c r="AP59" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ59" t="n">
         <v>29</v>
@@ -8974,13 +8978,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H60" t="n">
         <v>3.7</v>
       </c>
       <c r="I60" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J60" t="n">
         <v>4.33</v>
@@ -8998,22 +9002,22 @@
         <v>15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P60" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R60" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T60" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U60" t="n">
         <v>2.5</v>
@@ -9028,10 +9032,10 @@
         <v>3.4</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA60" t="n">
         <v>15</v>
@@ -9040,7 +9044,7 @@
         <v>23</v>
       </c>
       <c r="AC60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD60" t="n">
         <v>41</v>
@@ -9049,7 +9053,7 @@
         <v>29</v>
       </c>
       <c r="AF60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG60" t="n">
         <v>15</v>
@@ -9058,16 +9062,16 @@
         <v>7.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ60" t="n">
         <v>41</v>
       </c>
       <c r="AK60" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM60" t="n">
         <v>10</v>
@@ -9119,16 +9123,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J61" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K61" t="n">
         <v>2.5</v>
@@ -9149,10 +9153,10 @@
         <v>4.33</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R61" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S61" t="n">
         <v>2.05</v>
@@ -9173,13 +9177,13 @@
         <v>3.4</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB61" t="n">
         <v>7</v>
@@ -9188,7 +9192,7 @@
         <v>8.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE61" t="n">
         <v>11</v>
@@ -9209,7 +9213,7 @@
         <v>51</v>
       </c>
       <c r="AK61" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL61" t="n">
         <v>21</v>
@@ -9218,7 +9222,7 @@
         <v>41</v>
       </c>
       <c r="AN61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO61" t="n">
         <v>81</v>
@@ -9294,10 +9298,10 @@
         <v>6</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R62" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S62" t="n">
         <v>1.8</v>
@@ -9427,10 +9431,10 @@
         <v>3.6</v>
       </c>
       <c r="M63" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O63" t="n">
         <v>1.14</v>
@@ -9572,10 +9576,10 @@
         <v>4.33</v>
       </c>
       <c r="M64" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O64" t="n">
         <v>1.2</v>
@@ -9584,10 +9588,10 @@
         <v>4.33</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R64" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S64" t="n">
         <v>1.93</v>
@@ -9747,10 +9751,10 @@
         <v>1.53</v>
       </c>
       <c r="W65" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y65" t="n">
         <v>1.53</v>
@@ -9795,7 +9799,7 @@
         <v>11</v>
       </c>
       <c r="AM65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN65" t="n">
         <v>9</v>
@@ -9847,10 +9851,10 @@
         <v>2.2</v>
       </c>
       <c r="H66" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I66" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J66" t="n">
         <v>3.1</v>
@@ -9859,13 +9863,13 @@
         <v>1.91</v>
       </c>
       <c r="L66" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N66" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O66" t="n">
         <v>1.53</v>
@@ -9888,22 +9892,22 @@
         <v>1.14</v>
       </c>
       <c r="W66" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z66" t="n">
         <v>1.57</v>
       </c>
-      <c r="X66" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AA66" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC66" t="n">
         <v>10</v>
@@ -9924,7 +9928,7 @@
         <v>6</v>
       </c>
       <c r="AI66" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ66" t="n">
         <v>81</v>
@@ -9933,28 +9937,28 @@
         <v>101</v>
       </c>
       <c r="AL66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM66" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN66" t="n">
         <v>15</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>13</v>
       </c>
       <c r="AO66" t="n">
         <v>41</v>
       </c>
       <c r="AP66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ66" t="n">
         <v>51</v>
       </c>
       <c r="AR66" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="67">
@@ -10180,10 +10184,10 @@
         <v>3</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z68" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA68" t="n">
         <v>9</v>
@@ -10210,7 +10214,7 @@
         <v>6.5</v>
       </c>
       <c r="AI68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ68" t="n">
         <v>41</v>
@@ -10553,28 +10557,28 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
         <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J71" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K71" t="n">
         <v>2.05</v>
       </c>
       <c r="L71" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M71" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -10609,10 +10613,10 @@
         <v>1.8</v>
       </c>
       <c r="AA71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC71" t="n">
         <v>13</v>
@@ -10627,7 +10631,7 @@
         <v>41</v>
       </c>
       <c r="AG71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH71" t="n">
         <v>6.5</v>
@@ -10645,7 +10649,7 @@
         <v>6.5</v>
       </c>
       <c r="AM71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN71" t="n">
         <v>9</v>
@@ -10654,10 +10658,10 @@
         <v>17</v>
       </c>
       <c r="AP71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10694,28 +10698,28 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H72" t="n">
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J72" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K72" t="n">
         <v>2.05</v>
       </c>
       <c r="L72" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M72" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O72" t="n">
         <v>1.36</v>
@@ -10753,7 +10757,7 @@
         <v>7.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC72" t="n">
         <v>10</v>
@@ -10783,22 +10787,22 @@
         <v>301</v>
       </c>
       <c r="AL72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO72" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP72" t="n">
         <v>26</v>
       </c>
       <c r="AQ72" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
@@ -10853,10 +10857,10 @@
         <v>4.5</v>
       </c>
       <c r="M73" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O73" t="n">
         <v>1.33</v>
@@ -10865,10 +10869,10 @@
         <v>3.25</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R73" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10976,28 +10980,28 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
+        <v>4</v>
+      </c>
+      <c r="I74" t="n">
         <v>3.9</v>
       </c>
-      <c r="I74" t="n">
-        <v>3.7</v>
-      </c>
       <c r="J74" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K74" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M74" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O74" t="n">
         <v>1.22</v>
@@ -11035,7 +11039,7 @@
         <v>8</v>
       </c>
       <c r="AB74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC74" t="n">
         <v>9</v>
@@ -11050,7 +11054,7 @@
         <v>23</v>
       </c>
       <c r="AG74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH74" t="n">
         <v>7.5</v>
@@ -11117,28 +11121,28 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H75" t="n">
         <v>7</v>
       </c>
       <c r="I75" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J75" t="n">
         <v>1.62</v>
       </c>
       <c r="K75" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L75" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M75" t="n">
         <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O75" t="n">
         <v>1.11</v>
@@ -11147,57 +11151,57 @@
         <v>6</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R75" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V75" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W75" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X75" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="Z75" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AA75" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB75" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC75" t="n">
         <v>9.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG75" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AH75" t="n">
         <v>15</v>
       </c>
       <c r="AI75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ75" t="n">
         <v>51</v>
@@ -11206,7 +11210,7 @@
         <v>151</v>
       </c>
       <c r="AL75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM75" t="n">
         <v>41</v>
@@ -11218,7 +11222,7 @@
         <v>81</v>
       </c>
       <c r="AP75" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ75" t="n">
         <v>41</v>
@@ -11258,22 +11262,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H76" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I76" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="J76" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="K76" t="n">
         <v>2.38</v>
       </c>
       <c r="L76" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="M76" t="n">
         <v>1.03</v>
@@ -11282,10 +11286,10 @@
         <v>10</v>
       </c>
       <c r="O76" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P76" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="n">
         <v>1.67</v>
@@ -11308,61 +11312,61 @@
         <v>3.25</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AA76" t="n">
         <v>17</v>
       </c>
       <c r="AB76" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC76" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD76" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE76" t="n">
         <v>51</v>
       </c>
-      <c r="AE76" t="n">
-        <v>41</v>
-      </c>
       <c r="AF76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN76" t="n">
         <v>9</v>
       </c>
-      <c r="AI76" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>600</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AO76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP76" t="n">
         <v>12</v>
       </c>
       <c r="AQ76" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
@@ -11399,96 +11403,96 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H77" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
         <v>3.7</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K77" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L77" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N77" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O77" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P77" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA77" t="n">
         <v>5.5</v>
-      </c>
-      <c r="V77" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W77" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X77" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>5</v>
       </c>
       <c r="AB77" t="n">
         <v>8.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD77" t="n">
         <v>19</v>
       </c>
       <c r="AE77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF77" t="n">
         <v>41</v>
       </c>
       <c r="AG77" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH77" t="n">
         <v>6.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ77" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK77" t="n">
         <v>1000</v>
       </c>
       <c r="AL77" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM77" t="n">
         <v>17</v>
@@ -11553,7 +11557,7 @@
         <v>1.65</v>
       </c>
       <c r="J78" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="K78" t="n">
         <v>2.25</v>
@@ -11582,7 +11586,7 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="V78" t="n">
         <v>1.36</v>
@@ -11703,30 +11707,30 @@
         <v>4.75</v>
       </c>
       <c r="M79" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N79" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O79" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P79" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R79" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V79" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W79" t="n">
         <v>1.62</v>
@@ -11759,7 +11763,7 @@
         <v>41</v>
       </c>
       <c r="AG79" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH79" t="n">
         <v>6</v>
@@ -11774,7 +11778,7 @@
         <v>101</v>
       </c>
       <c r="AL79" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM79" t="n">
         <v>19</v>
@@ -11792,10 +11796,10 @@
         <v>51</v>
       </c>
       <c r="AR79" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="80">
@@ -11830,96 +11834,96 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I80" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J80" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K80" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L80" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="M80" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N80" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="O80" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P80" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="R80" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="V80" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="W80" t="n">
         <v>1.42</v>
       </c>
       <c r="X80" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="AA80" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AB80" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC80" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD80" t="n">
         <v>40</v>
       </c>
       <c r="AE80" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF80" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG80" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AI80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ80" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK80" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL80" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AM80" t="n">
         <v>11</v>
@@ -11928,13 +11932,13 @@
         <v>9</v>
       </c>
       <c r="AO80" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP80" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ80" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -11971,22 +11975,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="H81" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I81" t="n">
-        <v>4.1</v>
+        <v>4.45</v>
       </c>
       <c r="J81" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="K81" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L81" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
@@ -11995,24 +11999,24 @@
         <v>8.25</v>
       </c>
       <c r="O81" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P81" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R81" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="V81" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W81" t="n">
         <v>1.34</v>
@@ -12021,13 +12025,13 @@
         <v>3</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z81" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA81" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AB81" t="n">
         <v>8.5</v>
@@ -12036,43 +12040,43 @@
         <v>8.25</v>
       </c>
       <c r="AD81" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE81" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG81" t="n">
         <v>8.25</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AI81" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ81" t="n">
         <v>60</v>
       </c>
       <c r="AK81" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL81" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM81" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN81" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO81" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AP81" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AQ81" t="n">
         <v>40</v>
@@ -12136,10 +12140,10 @@
         <v>26</v>
       </c>
       <c r="O82" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q82" t="n">
         <v>1.33</v>
@@ -12150,10 +12154,10 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V82" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W82" t="n">
         <v>1.2</v>
@@ -12253,22 +12257,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H83" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I83" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K83" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L83" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M83" t="n">
         <v>1.04</v>
@@ -12283,10 +12287,10 @@
         <v>3.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R83" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
@@ -12303,58 +12307,58 @@
         <v>3</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Z83" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB83" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>8.5</v>
       </c>
       <c r="AC83" t="n">
         <v>8.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE83" t="n">
         <v>13</v>
       </c>
       <c r="AF83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH83" t="n">
         <v>7.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ83" t="n">
         <v>51</v>
       </c>
       <c r="AK83" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL83" t="n">
         <v>13</v>
       </c>
       <c r="AM83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO83" t="n">
         <v>51</v>
       </c>
       <c r="AP83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ83" t="n">
         <v>41</v>
@@ -12394,13 +12398,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H84" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I84" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J84" t="n">
         <v>3.1</v>
@@ -12412,10 +12416,10 @@
         <v>3.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O84" t="n">
         <v>1.29</v>
@@ -12471,7 +12475,7 @@
         <v>10</v>
       </c>
       <c r="AH84" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI84" t="n">
         <v>13</v>
@@ -12498,7 +12502,7 @@
         <v>23</v>
       </c>
       <c r="AQ84" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr"/>
@@ -12672,101 +12676,101 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
         <v>2.72</v>
       </c>
       <c r="I86" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J86" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K86" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="L86" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P86" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R86" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="V86" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W86" t="n">
         <v>1.5</v>
       </c>
       <c r="X86" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA86" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB86" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE86" t="n">
         <v>24</v>
       </c>
       <c r="AF86" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG86" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AH86" t="n">
         <v>5.4</v>
       </c>
       <c r="AI86" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ86" t="n">
         <v>90</v>
       </c>
       <c r="AK86" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL86" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AM86" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN86" t="n">
         <v>11.25</v>
       </c>
       <c r="AO86" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP86" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.1</v>
@@ -755,13 +755,13 @@
         <v>7.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -782,10 +782,10 @@
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.3</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -875,10 +875,10 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
         <v>1.44</v>
@@ -896,7 +896,7 @@
         <v>7.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
         <v>9.5</v>
@@ -923,7 +923,7 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL3" t="n">
         <v>9.5</v>
@@ -938,10 +938,10 @@
         <v>34</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1040,10 +1040,10 @@
         <v>8.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1052,10 +1052,10 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH4" t="n">
         <v>6</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>5.5</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1085,10 +1085,10 @@
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="5">
@@ -1126,10 +1126,10 @@
         <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1138,7 +1138,7 @@
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1156,7 +1156,7 @@
         <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1182,7 +1182,7 @@
         <v>7.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
         <v>9</v>
@@ -1200,7 +1200,7 @@
         <v>9.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
         <v>251</v>
       </c>
       <c r="AL5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1279,7 +1279,7 @@
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1365,16 +1365,16 @@
         <v>26</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="7">
@@ -1409,22 +1409,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1439,22 +1439,22 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
         <v>1.44</v>
@@ -1502,13 +1502,13 @@
         <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO7" t="n">
         <v>126</v>
@@ -1520,10 +1520,10 @@
         <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="8">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
         <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
         <v>4.33</v>
@@ -1573,7 +1573,7 @@
         <v>1.8</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.14</v>
@@ -1588,10 +1588,10 @@
         <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
         <v>5.8</v>
@@ -1606,10 +1606,10 @@
         <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y8" t="n">
         <v>2.38</v>
@@ -1618,13 +1618,13 @@
         <v>1.53</v>
       </c>
       <c r="AA8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
         <v>41</v>
@@ -1654,19 +1654,19 @@
         <v>5.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
         <v>1.9</v>
@@ -1992,7 +1992,7 @@
         <v>2.77</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I11" t="n">
         <v>2.3</v>
@@ -2004,48 +2004,48 @@
         <v>2.22</v>
       </c>
       <c r="L11" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q11" t="n">
         <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="V11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W11" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB11" t="n">
         <v>16.5</v>
@@ -2060,13 +2060,13 @@
         <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="n">
         <v>12</v>
@@ -2078,7 +2078,7 @@
         <v>250</v>
       </c>
       <c r="AL11" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
         <v>12.5</v>
@@ -2087,7 +2087,7 @@
         <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
@@ -2415,25 +2415,25 @@
         <v>3.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="K14" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L14" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.26</v>
@@ -2468,10 +2468,10 @@
         <v>2.05</v>
       </c>
       <c r="AA14" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
         <v>12</v>
@@ -2486,16 +2486,16 @@
         <v>35</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AI14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="n">
         <v>400</v>
@@ -2504,16 +2504,16 @@
         <v>7.9</v>
       </c>
       <c r="AM14" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AN14" t="n">
         <v>8.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>24</v>
@@ -2553,87 +2553,87 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
         <v>2.52</v>
       </c>
       <c r="J15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L15" t="n">
         <v>2.95</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R15" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V15" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Y15" t="n">
         <v>1.44</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC15" t="n">
         <v>9.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE15" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AI15" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>32</v>
@@ -2642,22 +2642,22 @@
         <v>175</v>
       </c>
       <c r="AL15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AN15" t="n">
         <v>9.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2694,111 +2694,111 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="K16" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L16" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W16" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X16" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA16" t="n">
         <v>7.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AL16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AP16" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AQ16" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2868,15 +2868,15 @@
         <v>2.57</v>
       </c>
       <c r="R17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="V17" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W17" t="n">
         <v>1.55</v>
@@ -2894,13 +2894,13 @@
         <v>4.75</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AC17" t="n">
         <v>9.75</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -2909,10 +2909,10 @@
         <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI17" t="n">
         <v>25</v>
@@ -2927,7 +2927,7 @@
         <v>8.25</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN17" t="n">
         <v>17</v>
@@ -3280,22 +3280,22 @@
         <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3403,87 +3403,87 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W21" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X21" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA21" t="n">
         <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH21" t="n">
         <v>6</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
         <v>67</v>
@@ -3492,16 +3492,16 @@
         <v>351</v>
       </c>
       <c r="AL21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN21" t="n">
         <v>13</v>
       </c>
       <c r="AO21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP21" t="n">
         <v>34</v>
@@ -3510,10 +3510,10 @@
         <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="22">
@@ -3548,13 +3548,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J22" t="n">
         <v>5</v>
@@ -3566,10 +3566,10 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.62</v>
@@ -3586,10 +3586,10 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V22" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W22" t="n">
         <v>1.67</v>
@@ -3598,10 +3598,10 @@
         <v>2.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA22" t="n">
         <v>7.5</v>
@@ -3622,7 +3622,7 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH22" t="n">
         <v>6.5</v>
@@ -3640,7 +3640,7 @@
         <v>5</v>
       </c>
       <c r="AM22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN22" t="n">
         <v>10</v>
@@ -3842,22 +3842,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
         <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J24" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3872,10 +3872,10 @@
         <v>3.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S24" t="n">
         <v>2.75</v>
@@ -3884,10 +3884,10 @@
         <v>1.44</v>
       </c>
       <c r="U24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
         <v>1.4</v>
@@ -3902,13 +3902,13 @@
         <v>1.91</v>
       </c>
       <c r="AA24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
         <v>21</v>
@@ -3944,7 +3944,7 @@
         <v>11</v>
       </c>
       <c r="AO24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
@@ -3991,10 +3991,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
         <v>5</v>
@@ -4003,79 +4003,79 @@
         <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P25" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="R25" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X25" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AA25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB25" t="n">
         <v>7</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
         <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH25" t="n">
         <v>6.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
         <v>81</v>
@@ -4084,7 +4084,7 @@
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM25" t="n">
         <v>23</v>
@@ -4096,16 +4096,16 @@
         <v>51</v>
       </c>
       <c r="AP25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ25" t="n">
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="26">
@@ -4140,28 +4140,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L26" t="n">
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.62</v>
@@ -4170,10 +4170,10 @@
         <v>2.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -4200,16 +4200,16 @@
         <v>1.53</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC26" t="n">
         <v>11</v>
       </c>
-      <c r="AC26" t="n">
-        <v>12</v>
-      </c>
       <c r="AD26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE26" t="n">
         <v>29</v>
@@ -4227,22 +4227,22 @@
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK26" t="n">
         <v>101</v>
       </c>
       <c r="AL26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP26" t="n">
         <v>34</v>
@@ -4578,10 +4578,10 @@
         <v>1.33</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J29" t="n">
         <v>1.8</v>
@@ -4611,10 +4611,10 @@
         <v>2.35</v>
       </c>
       <c r="S29" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T29" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U29" t="n">
         <v>2.38</v>
@@ -4644,13 +4644,13 @@
         <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
@@ -4674,7 +4674,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
         <v>101</v>
@@ -4720,40 +4720,40 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="H30" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S30" t="n">
         <v>2.05</v>
@@ -4762,10 +4762,10 @@
         <v>1.8</v>
       </c>
       <c r="U30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
         <v>1.33</v>
@@ -4783,16 +4783,16 @@
         <v>8</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC30" t="n">
         <v>8.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
         <v>23</v>
@@ -4801,7 +4801,7 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -4813,22 +4813,22 @@
         <v>201</v>
       </c>
       <c r="AL30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN30" t="n">
         <v>15</v>
       </c>
       <c r="AO30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4865,48 +4865,48 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R31" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W31" t="n">
         <v>1.4</v>
@@ -4924,7 +4924,7 @@
         <v>11</v>
       </c>
       <c r="AB31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC31" t="n">
         <v>13</v>
@@ -4939,7 +4939,7 @@
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH31" t="n">
         <v>6.5</v>
@@ -4957,19 +4957,19 @@
         <v>7</v>
       </c>
       <c r="AM31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -5030,24 +5030,24 @@
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R32" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W32" t="n">
         <v>1.4</v>
@@ -5291,60 +5291,60 @@
         <v>3.75</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V34" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W34" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X34" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AA34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB34" t="n">
         <v>21</v>
@@ -5359,28 +5359,28 @@
         <v>29</v>
       </c>
       <c r="AF34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG34" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ34" t="n">
         <v>41</v>
       </c>
       <c r="AK34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL34" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN34" t="n">
         <v>8.5</v>
@@ -5392,7 +5392,7 @@
         <v>15</v>
       </c>
       <c r="AQ34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5429,13 +5429,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
         <v>2.3</v>
@@ -5459,30 +5459,30 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R35" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X35" t="n">
         <v>3</v>
       </c>
-      <c r="V35" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X35" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Y35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA35" t="n">
         <v>7.5</v>
@@ -5900,10 +5900,10 @@
         <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X38" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y38" t="n">
         <v>1.83</v>
@@ -6015,22 +6015,22 @@
         <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R39" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -6041,7 +6041,7 @@
         <v>1.3</v>
       </c>
       <c r="W39" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X39" t="n">
         <v>2.75</v>
@@ -6138,22 +6138,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H40" t="n">
         <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
         <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M40" t="n">
         <v>1.08</v>
@@ -6168,21 +6168,21 @@
         <v>2.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R40" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V40" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W40" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X40" t="n">
         <v>2.5</v>
@@ -6244,8 +6244,12 @@
       <c r="AQ40" t="n">
         <v>41</v>
       </c>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
+      <c r="AR40" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6323,7 +6327,7 @@
         <v>1.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X41" t="n">
         <v>2.75</v>
@@ -6420,28 +6424,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -6458,10 +6462,10 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V42" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W42" t="n">
         <v>1.5</v>
@@ -6476,16 +6480,16 @@
         <v>1.8</v>
       </c>
       <c r="AA42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC42" t="n">
         <v>10</v>
       </c>
       <c r="AD42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE42" t="n">
         <v>23</v>
@@ -6509,7 +6513,7 @@
         <v>351</v>
       </c>
       <c r="AL42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM42" t="n">
         <v>13</v>
@@ -6521,7 +6525,7 @@
         <v>29</v>
       </c>
       <c r="AP42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ42" t="n">
         <v>41</v>
@@ -6570,7 +6574,7 @@
         <v>2.75</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K43" t="n">
         <v>2.38</v>
@@ -6582,7 +6586,7 @@
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O43" t="n">
         <v>1.17</v>
@@ -6597,22 +6601,22 @@
         <v>2.35</v>
       </c>
       <c r="S43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T43" t="n">
         <v>1.95</v>
       </c>
-      <c r="T43" t="n">
-        <v>1.9</v>
-      </c>
       <c r="U43" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V43" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W43" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y43" t="n">
         <v>1.5</v>
@@ -6639,7 +6643,7 @@
         <v>21</v>
       </c>
       <c r="AG43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH43" t="n">
         <v>7</v>
@@ -6706,13 +6710,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J44" t="n">
         <v>3.25</v>
@@ -6721,7 +6725,7 @@
         <v>2.1</v>
       </c>
       <c r="L44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M44" t="n">
         <v>1.05</v>
@@ -6730,16 +6734,16 @@
         <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R44" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6756,16 +6760,16 @@
         <v>2.75</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
         <v>10</v>
@@ -6780,7 +6784,7 @@
         <v>29</v>
       </c>
       <c r="AG44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
         <v>6.5</v>
@@ -6792,10 +6796,10 @@
         <v>51</v>
       </c>
       <c r="AK44" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM44" t="n">
         <v>13</v>
@@ -6877,10 +6881,10 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R45" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -7132,13 +7136,13 @@
         <v>1.8</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I47" t="n">
         <v>3.9</v>
       </c>
       <c r="J47" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K47" t="n">
         <v>2.38</v>
@@ -7164,8 +7168,12 @@
       <c r="R47" t="n">
         <v>2.25</v>
       </c>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
+      <c r="S47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U47" t="n">
         <v>2.5</v>
       </c>
@@ -7179,13 +7187,13 @@
         <v>3.4</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB47" t="n">
         <v>10</v>
@@ -7233,7 +7241,7 @@
         <v>29</v>
       </c>
       <c r="AQ47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
@@ -7560,16 +7568,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H50" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I50" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K50" t="n">
         <v>2.1</v>
@@ -7578,22 +7586,22 @@
         <v>6.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O50" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P50" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R50" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -7604,10 +7612,10 @@
         <v>1.22</v>
       </c>
       <c r="W50" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X50" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y50" t="n">
         <v>2.2</v>
@@ -7634,7 +7642,7 @@
         <v>34</v>
       </c>
       <c r="AG50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH50" t="n">
         <v>7.5</v>
@@ -7649,7 +7657,7 @@
         <v>501</v>
       </c>
       <c r="AL50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM50" t="n">
         <v>29</v>
@@ -7719,30 +7727,30 @@
         <v>4.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R51" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V51" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W51" t="n">
         <v>1.4</v>
@@ -7775,7 +7783,7 @@
         <v>26</v>
       </c>
       <c r="AG51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH51" t="n">
         <v>6.5</v>
@@ -7872,10 +7880,10 @@
         <v>3.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R52" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -7986,19 +7994,19 @@
         <v>2.5</v>
       </c>
       <c r="H53" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I53" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="J53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K53" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="L53" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M53" t="n">
         <v>1.1</v>
@@ -8007,10 +8015,10 @@
         <v>5.8</v>
       </c>
       <c r="O53" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P53" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="Q53" t="n">
         <v>2.27</v>
@@ -8027,22 +8035,22 @@
         <v>1.16</v>
       </c>
       <c r="W53" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X53" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AB53" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AC53" t="n">
         <v>8.75</v>
@@ -8051,43 +8059,43 @@
         <v>21</v>
       </c>
       <c r="AE53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF53" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG53" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AH53" t="n">
         <v>5.1</v>
       </c>
       <c r="AI53" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AJ53" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="n">
         <v>450</v>
       </c>
       <c r="AL53" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AM53" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AN53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO53" t="n">
         <v>25</v>
       </c>
       <c r="AP53" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ53" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8145,31 +8153,31 @@
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O54" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P54" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R54" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S54" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T54" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U54" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V54" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W54" t="n">
         <v>1.3</v>
@@ -8269,48 +8277,48 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H55" t="n">
         <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J55" t="n">
         <v>2.63</v>
       </c>
       <c r="K55" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L55" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P55" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R55" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W55" t="n">
         <v>1.44</v>
@@ -8328,7 +8336,7 @@
         <v>6.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC55" t="n">
         <v>9</v>
@@ -8343,7 +8351,7 @@
         <v>29</v>
       </c>
       <c r="AG55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH55" t="n">
         <v>6.5</v>
@@ -8355,16 +8363,16 @@
         <v>51</v>
       </c>
       <c r="AK55" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL55" t="n">
         <v>10</v>
       </c>
       <c r="AM55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO55" t="n">
         <v>41</v>
@@ -8543,22 +8551,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H57" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J57" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K57" t="n">
         <v>2.05</v>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.08</v>
@@ -8573,10 +8581,10 @@
         <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R57" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8593,25 +8601,25 @@
         <v>2.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA57" t="n">
         <v>5.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC57" t="n">
         <v>9</v>
       </c>
       <c r="AD57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF57" t="n">
         <v>34</v>
@@ -8635,10 +8643,10 @@
         <v>12</v>
       </c>
       <c r="AM57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO57" t="n">
         <v>67</v>
@@ -8836,16 +8844,16 @@
         <v>1.8</v>
       </c>
       <c r="H59" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K59" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L59" t="n">
         <v>4.33</v>
@@ -8863,16 +8871,16 @@
         <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R59" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T59" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U59" t="n">
         <v>2.5</v>
@@ -8881,22 +8889,22 @@
         <v>1.5</v>
       </c>
       <c r="W59" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X59" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AA59" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB59" t="n">
         <v>10</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>11</v>
       </c>
       <c r="AC59" t="n">
         <v>8.5</v>
@@ -8908,25 +8916,25 @@
         <v>13</v>
       </c>
       <c r="AF59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK59" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM59" t="n">
         <v>23</v>
@@ -8941,7 +8949,7 @@
         <v>29</v>
       </c>
       <c r="AQ59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
@@ -9123,28 +9131,28 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H61" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J61" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K61" t="n">
         <v>2.5</v>
       </c>
       <c r="L61" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M61" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O61" t="n">
         <v>1.2</v>
@@ -9153,10 +9161,10 @@
         <v>4.33</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R61" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S61" t="n">
         <v>2.05</v>
@@ -9177,22 +9185,22 @@
         <v>3.4</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC61" t="n">
         <v>8.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE61" t="n">
         <v>11</v>
@@ -9204,16 +9212,16 @@
         <v>13</v>
       </c>
       <c r="AH61" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ61" t="n">
         <v>51</v>
       </c>
       <c r="AK61" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL61" t="n">
         <v>21</v>
@@ -9222,10 +9230,10 @@
         <v>41</v>
       </c>
       <c r="AN61" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO61" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP61" t="n">
         <v>51</v>
@@ -9431,10 +9439,10 @@
         <v>3.6</v>
       </c>
       <c r="M63" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O63" t="n">
         <v>1.14</v>
@@ -9558,19 +9566,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H64" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I64" t="n">
         <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K64" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L64" t="n">
         <v>4.33</v>
@@ -9579,19 +9587,19 @@
         <v>1.04</v>
       </c>
       <c r="N64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O64" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P64" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R64" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S64" t="n">
         <v>1.93</v>
@@ -9600,25 +9608,25 @@
         <v>1.93</v>
       </c>
       <c r="U64" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V64" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W64" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X64" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Z64" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB64" t="n">
         <v>9.5</v>
@@ -9630,16 +9638,16 @@
         <v>15</v>
       </c>
       <c r="AE64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH64" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI64" t="n">
         <v>13</v>
@@ -9648,13 +9656,13 @@
         <v>41</v>
       </c>
       <c r="AK64" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN64" t="n">
         <v>13</v>
@@ -9703,16 +9711,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H65" t="n">
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J65" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K65" t="n">
         <v>2.38</v>
@@ -9772,7 +9780,7 @@
         <v>11</v>
       </c>
       <c r="AD65" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE65" t="n">
         <v>21</v>
@@ -10002,19 +10010,19 @@
         <v>4.75</v>
       </c>
       <c r="J67" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K67" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O67" t="n">
         <v>1.4</v>
@@ -10023,10 +10031,10 @@
         <v>2.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R67" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
@@ -10043,19 +10051,19 @@
         <v>2.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA67" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB67" t="n">
         <v>8</v>
       </c>
       <c r="AC67" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD67" t="n">
         <v>15</v>
@@ -10067,7 +10075,7 @@
         <v>34</v>
       </c>
       <c r="AG67" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH67" t="n">
         <v>6</v>
@@ -10076,10 +10084,10 @@
         <v>17</v>
       </c>
       <c r="AJ67" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK67" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AL67" t="n">
         <v>11</v>
@@ -10099,8 +10107,12 @@
       <c r="AQ67" t="n">
         <v>51</v>
       </c>
-      <c r="AR67" t="inlineStr"/>
-      <c r="AS67" t="inlineStr"/>
+      <c r="AR67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10140,7 +10152,7 @@
         <v>3.4</v>
       </c>
       <c r="I68" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J68" t="n">
         <v>2.63</v>
@@ -10178,10 +10190,10 @@
         <v>1.4</v>
       </c>
       <c r="W68" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X68" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y68" t="n">
         <v>1.62</v>
@@ -10223,13 +10235,13 @@
         <v>151</v>
       </c>
       <c r="AL68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM68" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO68" t="n">
         <v>41</v>
@@ -10275,22 +10287,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H69" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I69" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J69" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K69" t="n">
         <v>2.25</v>
       </c>
       <c r="L69" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M69" t="n">
         <v>1.04</v>
@@ -10299,24 +10311,24 @@
         <v>13</v>
       </c>
       <c r="O69" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P69" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R69" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V69" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W69" t="n">
         <v>1.36</v>
@@ -10331,10 +10343,10 @@
         <v>2</v>
       </c>
       <c r="AA69" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC69" t="n">
         <v>8.5</v>
@@ -10343,7 +10355,7 @@
         <v>15</v>
       </c>
       <c r="AE69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF69" t="n">
         <v>23</v>
@@ -10355,7 +10367,7 @@
         <v>7</v>
       </c>
       <c r="AI69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ69" t="n">
         <v>41</v>
@@ -10373,13 +10385,13 @@
         <v>15</v>
       </c>
       <c r="AO69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP69" t="n">
         <v>34</v>
       </c>
       <c r="AQ69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr"/>
@@ -10416,48 +10428,52 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H70" t="n">
         <v>3.4</v>
       </c>
       <c r="I70" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K70" t="n">
         <v>2.3</v>
       </c>
       <c r="L70" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M70" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P70" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R70" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U70" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W70" t="n">
         <v>1.33</v>
@@ -10475,10 +10491,10 @@
         <v>13</v>
       </c>
       <c r="AB70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD70" t="n">
         <v>34</v>
@@ -10487,7 +10503,7 @@
         <v>23</v>
       </c>
       <c r="AF70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG70" t="n">
         <v>13</v>
@@ -10514,10 +10530,10 @@
         <v>9</v>
       </c>
       <c r="AO70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ70" t="n">
         <v>21</v>
@@ -10575,10 +10591,10 @@
         <v>2.63</v>
       </c>
       <c r="M71" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -10698,22 +10714,22 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="J72" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K72" t="n">
         <v>2.05</v>
       </c>
       <c r="L72" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M72" t="n">
         <v>1.08</v>
@@ -10728,18 +10744,18 @@
         <v>3</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R72" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V72" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W72" t="n">
         <v>1.44</v>
@@ -10754,19 +10770,19 @@
         <v>1.83</v>
       </c>
       <c r="AA72" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD72" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE72" t="n">
         <v>23</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>21</v>
       </c>
       <c r="AF72" t="n">
         <v>34</v>
@@ -10787,7 +10803,7 @@
         <v>301</v>
       </c>
       <c r="AL72" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM72" t="n">
         <v>13</v>
@@ -10796,10 +10812,10 @@
         <v>11</v>
       </c>
       <c r="AO72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP72" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ72" t="n">
         <v>34</v>
@@ -10980,48 +10996,48 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H74" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L74" t="n">
         <v>4</v>
       </c>
-      <c r="I74" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M74" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N74" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O74" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P74" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R74" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V74" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W74" t="n">
         <v>1.36</v>
@@ -11039,7 +11055,7 @@
         <v>8</v>
       </c>
       <c r="AB74" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC74" t="n">
         <v>9</v>
@@ -11051,10 +11067,10 @@
         <v>15</v>
       </c>
       <c r="AF74" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG74" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH74" t="n">
         <v>7.5</v>
@@ -11066,13 +11082,13 @@
         <v>51</v>
       </c>
       <c r="AK74" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL74" t="n">
         <v>12</v>
       </c>
       <c r="AM74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN74" t="n">
         <v>13</v>
@@ -11121,22 +11137,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H75" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I75" t="n">
         <v>7.5</v>
       </c>
       <c r="J75" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K75" t="n">
         <v>2.75</v>
       </c>
       <c r="L75" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M75" t="n">
         <v>1.01</v>
@@ -11151,18 +11167,18 @@
         <v>6</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R75" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V75" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W75" t="n">
         <v>1.22</v>
@@ -11171,10 +11187,10 @@
         <v>4</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA75" t="n">
         <v>10</v>
@@ -11186,22 +11202,22 @@
         <v>9.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE75" t="n">
         <v>11</v>
       </c>
       <c r="AF75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG75" t="n">
         <v>23</v>
       </c>
       <c r="AH75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ75" t="n">
         <v>51</v>
@@ -11210,13 +11226,13 @@
         <v>151</v>
       </c>
       <c r="AL75" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM75" t="n">
         <v>41</v>
       </c>
       <c r="AN75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO75" t="n">
         <v>81</v>
@@ -11262,22 +11278,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H76" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I76" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="J76" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K76" t="n">
         <v>2.38</v>
       </c>
       <c r="L76" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M76" t="n">
         <v>1.03</v>
@@ -11292,10 +11308,10 @@
         <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R76" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11312,10 +11328,10 @@
         <v>3.25</v>
       </c>
       <c r="Y76" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA76" t="n">
         <v>17</v>
@@ -11324,43 +11340,43 @@
         <v>34</v>
       </c>
       <c r="AC76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD76" t="n">
         <v>67</v>
       </c>
       <c r="AE76" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF76" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG76" t="n">
         <v>13</v>
       </c>
       <c r="AH76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ76" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK76" t="n">
         <v>800</v>
       </c>
       <c r="AL76" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM76" t="n">
         <v>7</v>
       </c>
       <c r="AN76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP76" t="n">
         <v>12</v>
@@ -11403,16 +11419,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J77" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
         <v>1.83</v>
@@ -11427,24 +11443,24 @@
         <v>6</v>
       </c>
       <c r="O77" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P77" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R77" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W77" t="n">
         <v>1.62</v>
@@ -11465,13 +11481,13 @@
         <v>8.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD77" t="n">
         <v>19</v>
       </c>
       <c r="AE77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF77" t="n">
         <v>41</v>
@@ -11483,7 +11499,7 @@
         <v>6.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ77" t="n">
         <v>81</v>
@@ -11492,7 +11508,7 @@
         <v>1000</v>
       </c>
       <c r="AL77" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM77" t="n">
         <v>17</v>
@@ -11510,10 +11526,10 @@
         <v>51</v>
       </c>
       <c r="AR77" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="78">
@@ -11569,7 +11585,7 @@
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O78" t="n">
         <v>1.26</v>
@@ -11604,7 +11620,7 @@
         <v>1.9</v>
       </c>
       <c r="AA78" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB78" t="n">
         <v>26</v>
@@ -11622,19 +11638,19 @@
         <v>45</v>
       </c>
       <c r="AG78" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AH78" t="n">
         <v>7.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ78" t="n">
         <v>75</v>
       </c>
       <c r="AK78" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL78" t="n">
         <v>7.2</v>
@@ -11689,13 +11705,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H79" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J79" t="n">
         <v>2.88</v>
@@ -11704,13 +11720,13 @@
         <v>1.91</v>
       </c>
       <c r="L79" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M79" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N79" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O79" t="n">
         <v>1.53</v>
@@ -11748,13 +11764,13 @@
         <v>5.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC79" t="n">
         <v>10</v>
       </c>
       <c r="AD79" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE79" t="n">
         <v>21</v>
@@ -11796,10 +11812,10 @@
         <v>51</v>
       </c>
       <c r="AR79" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="80">
@@ -11834,22 +11850,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I80" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J80" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K80" t="n">
         <v>2.07</v>
       </c>
       <c r="L80" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="M80" t="n">
         <v>1.07</v>
@@ -11864,7 +11880,7 @@
         <v>3</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R80" t="n">
         <v>1.72</v>
@@ -11890,19 +11906,19 @@
         <v>1.93</v>
       </c>
       <c r="AA80" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC80" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE80" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF80" t="n">
         <v>37</v>
@@ -11911,7 +11927,7 @@
         <v>6.7</v>
       </c>
       <c r="AH80" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AI80" t="n">
         <v>14</v>
@@ -11923,22 +11939,22 @@
         <v>500</v>
       </c>
       <c r="AL80" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AM80" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AN80" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP80" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -12119,45 +12135,45 @@
         <v>1.25</v>
       </c>
       <c r="H82" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J82" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K82" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L82" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M82" t="n">
         <v>1.01</v>
       </c>
       <c r="N82" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O82" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R82" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V82" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W82" t="n">
         <v>1.2</v>
@@ -12175,19 +12191,19 @@
         <v>11</v>
       </c>
       <c r="AB82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD82" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>9</v>
       </c>
       <c r="AE82" t="n">
         <v>10</v>
       </c>
       <c r="AF82" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG82" t="n">
         <v>23</v>
@@ -12196,13 +12212,13 @@
         <v>13</v>
       </c>
       <c r="AI82" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ82" t="n">
         <v>51</v>
       </c>
       <c r="AK82" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL82" t="n">
         <v>29</v>
@@ -12257,54 +12273,54 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I83" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L83" t="n">
         <v>5</v>
       </c>
-      <c r="J83" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K83" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L83" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M83" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N83" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O83" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P83" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="R83" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V83" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="W83" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X83" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y83" t="n">
         <v>1.83</v>
@@ -12316,25 +12332,25 @@
         <v>7</v>
       </c>
       <c r="AB83" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC83" t="n">
         <v>8.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF83" t="n">
         <v>26</v>
       </c>
       <c r="AG83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH83" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI83" t="n">
         <v>17</v>
@@ -12343,16 +12359,16 @@
         <v>51</v>
       </c>
       <c r="AK83" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL83" t="n">
         <v>13</v>
       </c>
       <c r="AM83" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO83" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.1</v>
@@ -722,10 +722,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>2.06</v>
@@ -746,22 +746,22 @@
         <v>3.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -776,13 +776,13 @@
         <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL2" t="n">
         <v>17</v>
@@ -861,10 +861,10 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
         <v>2.1</v>
@@ -875,10 +875,10 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
         <v>1.44</v>
@@ -1008,10 +1008,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1022,10 +1022,10 @@
         <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y4" t="n">
         <v>2.1</v>
@@ -1046,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1067,7 +1067,7 @@
         <v>501</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM4" t="n">
         <v>19</v>
@@ -1085,10 +1085,10 @@
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1126,7 +1126,7 @@
         <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
         <v>3.3</v>
@@ -1138,13 +1138,13 @@
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1156,7 +1156,7 @@
         <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1200,7 +1200,7 @@
         <v>9.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1212,7 +1212,7 @@
         <v>251</v>
       </c>
       <c r="AL5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
         <v>2.8</v>
@@ -1573,13 +1573,13 @@
         <v>1.8</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>1.67</v>
@@ -1588,10 +1588,10 @@
         <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
         <v>5.8</v>
@@ -1609,13 +1609,13 @@
         <v>1.73</v>
       </c>
       <c r="X8" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA8" t="n">
         <v>6.5</v>
@@ -1624,7 +1624,7 @@
         <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
         <v>41</v>
@@ -1642,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
         <v>101</v>
@@ -1654,13 +1654,13 @@
         <v>5.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN8" t="n">
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP8" t="n">
         <v>29</v>
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1722,7 +1722,7 @@
         <v>1.8</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.14</v>
@@ -1805,7 +1805,7 @@
         <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -1989,22 +1989,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
         <v>2.22</v>
       </c>
       <c r="L11" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2016,21 +2016,21 @@
         <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q11" t="n">
         <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
         <v>1.33</v>
@@ -2039,28 +2039,28 @@
         <v>3.05</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AA11" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG11" t="n">
         <v>8.5</v>
@@ -2069,28 +2069,28 @@
         <v>7</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="n">
         <v>250</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>23</v>
@@ -2130,37 +2130,37 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="I12" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="L12" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R12" t="n">
         <v>1.45</v>
@@ -2168,16 +2168,16 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="V12" t="n">
         <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="X12" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="Y12" t="n">
         <v>2.05</v>
@@ -2186,31 +2186,31 @@
         <v>1.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AE12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF12" t="n">
         <v>45</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AH12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>110</v>
@@ -2219,22 +2219,22 @@
         <v>900</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AM12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AN12" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2271,111 +2271,111 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.82</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.3</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.95</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>2.77</v>
+        <v>2.52</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="AM13" t="n">
-        <v>10.75</v>
+        <v>8.25</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>4.05</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I14" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4.05</v>
+        <v>4.35</v>
       </c>
       <c r="K14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2439,57 +2439,57 @@
         <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X14" t="n">
         <v>2.85</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X14" t="n">
-        <v>2.8</v>
       </c>
       <c r="Y14" t="n">
         <v>1.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AA14" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE14" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG14" t="n">
         <v>7.8</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI14" t="n">
         <v>14</v>
@@ -2498,22 +2498,22 @@
         <v>60</v>
       </c>
       <c r="AK14" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL14" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AM14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN14" t="n">
         <v>8.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>24</v>
@@ -2553,22 +2553,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="L15" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2580,7 +2580,7 @@
         <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
         <v>1.52</v>
@@ -2591,37 +2591,37 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="V15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W15" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Y15" t="n">
         <v>1.44</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AE15" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF15" t="n">
         <v>21</v>
@@ -2630,10 +2630,10 @@
         <v>9</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ15" t="n">
         <v>32</v>
@@ -2642,19 +2642,19 @@
         <v>175</v>
       </c>
       <c r="AL15" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AM15" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AO15" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AP15" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>19</v>
@@ -2835,48 +2835,48 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="J17" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="K17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R17" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W17" t="n">
         <v>1.55</v>
@@ -2885,28 +2885,28 @@
         <v>2.15</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Z17" t="n">
         <v>1.47</v>
       </c>
       <c r="AA17" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AB17" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG17" t="n">
         <v>5.9</v>
@@ -2915,31 +2915,31 @@
         <v>6.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AK17" t="n">
         <v>101</v>
       </c>
       <c r="AL17" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AP17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AQ17" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3138,7 +3138,7 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O19" t="n">
         <v>1.17</v>
@@ -3548,22 +3548,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K22" t="n">
         <v>1.83</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M22" t="n">
         <v>1.14</v>
@@ -3578,18 +3578,18 @@
         <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W22" t="n">
         <v>1.67</v>
@@ -3604,10 +3604,10 @@
         <v>1.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
@@ -3625,7 +3625,7 @@
         <v>5.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI22" t="n">
         <v>23</v>
@@ -3640,13 +3640,13 @@
         <v>5</v>
       </c>
       <c r="AM22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP22" t="n">
         <v>23</v>
@@ -3717,28 +3717,28 @@
         <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R23" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S23" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="T23" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="U23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
         <v>1.4</v>
@@ -3804,10 +3804,10 @@
         <v>26</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="24">
@@ -3991,13 +3991,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J25" t="n">
         <v>2.5</v>
@@ -4021,10 +4021,10 @@
         <v>2.63</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S25" t="n">
         <v>3.8</v>
@@ -4066,7 +4066,7 @@
         <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="n">
         <v>7</v>
@@ -4102,10 +4102,10 @@
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="26">
@@ -4140,22 +4140,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
         <v>1.83</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.14</v>
@@ -4209,10 +4209,10 @@
         <v>11</v>
       </c>
       <c r="AD26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE26" t="n">
         <v>26</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>29</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -4292,16 +4292,16 @@
         <v>2.55</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
         <v>2.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
         <v>3.5</v>
@@ -4333,10 +4333,10 @@
         <v>1.2</v>
       </c>
       <c r="W27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y27" t="n">
         <v>2</v>
@@ -4360,13 +4360,13 @@
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
@@ -4378,7 +4378,7 @@
         <v>351</v>
       </c>
       <c r="AL27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM27" t="n">
         <v>12</v>
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H28" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="I28" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J28" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="K28" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4461,7 +4461,7 @@
         <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q28" t="n">
         <v>1.7</v>
@@ -4481,52 +4481,52 @@
         <v>1.35</v>
       </c>
       <c r="X28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AA28" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE28" t="n">
         <v>12.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
         <v>9</v>
       </c>
       <c r="AH28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK28" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL28" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN28" t="n">
         <v>19</v>
@@ -4538,7 +4538,7 @@
         <v>60</v>
       </c>
       <c r="AQ28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O29" t="n">
         <v>1.17</v>
@@ -4605,22 +4605,22 @@
         <v>5</v>
       </c>
       <c r="Q29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.53</v>
       </c>
       <c r="W29" t="n">
         <v>1.29</v>
@@ -4720,22 +4720,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H30" t="n">
         <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K30" t="n">
         <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
@@ -4750,10 +4750,10 @@
         <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R30" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S30" t="n">
         <v>2.05</v>
@@ -4789,7 +4789,7 @@
         <v>8.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -4798,7 +4798,7 @@
         <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
         <v>7.5</v>
@@ -4822,13 +4822,13 @@
         <v>15</v>
       </c>
       <c r="AO30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP30" t="n">
         <v>34</v>
       </c>
       <c r="AQ30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4865,22 +4865,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J31" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
         <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -4903,10 +4903,10 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W31" t="n">
         <v>1.4</v>
@@ -4915,28 +4915,28 @@
         <v>2.75</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF31" t="n">
         <v>34</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>41</v>
       </c>
       <c r="AG31" t="n">
         <v>9.5</v>
@@ -4954,16 +4954,16 @@
         <v>251</v>
       </c>
       <c r="AL31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN31" t="n">
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP31" t="n">
         <v>17</v>
@@ -5030,24 +5030,24 @@
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R32" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W32" t="n">
         <v>1.4</v>
@@ -5147,13 +5147,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J33" t="n">
         <v>2.1</v>
@@ -5165,10 +5165,10 @@
         <v>6.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.3</v>
@@ -5177,18 +5177,18 @@
         <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R33" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W33" t="n">
         <v>1.4</v>
@@ -5206,13 +5206,13 @@
         <v>6</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC33" t="n">
         <v>8.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
@@ -5227,7 +5227,7 @@
         <v>7.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="n">
         <v>67</v>
@@ -5245,7 +5245,7 @@
         <v>21</v>
       </c>
       <c r="AO33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP33" t="n">
         <v>51</v>
@@ -5288,28 +5288,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K34" t="n">
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
         <v>1.22</v>
@@ -5365,7 +5365,7 @@
         <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI34" t="n">
         <v>13</v>
@@ -5380,7 +5380,7 @@
         <v>8.5</v>
       </c>
       <c r="AM34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN34" t="n">
         <v>8.5</v>
@@ -5600,10 +5600,10 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
         <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK36" t="n">
         <v>201</v>
@@ -5874,22 +5874,22 @@
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O38" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P38" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -5900,10 +5900,10 @@
         <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X38" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y38" t="n">
         <v>1.83</v>
@@ -6000,7 +6000,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I39" t="n">
         <v>2.25</v>
@@ -6018,7 +6018,7 @@
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.3</v>
@@ -6041,7 +6041,7 @@
         <v>1.3</v>
       </c>
       <c r="W39" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X39" t="n">
         <v>2.75</v>
@@ -6059,34 +6059,34 @@
         <v>15</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD39" t="n">
         <v>34</v>
       </c>
       <c r="AE39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF39" t="n">
         <v>34</v>
       </c>
       <c r="AG39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI39" t="n">
         <v>13</v>
       </c>
       <c r="AJ39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK39" t="n">
         <v>201</v>
       </c>
       <c r="AL39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM39" t="n">
         <v>11</v>
@@ -6101,7 +6101,7 @@
         <v>19</v>
       </c>
       <c r="AQ39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6138,63 +6138,63 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J40" t="n">
         <v>3.1</v>
       </c>
-      <c r="I40" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L40" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O40" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R40" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="V40" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="W40" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="X40" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB40" t="n">
         <v>11</v>
@@ -6212,25 +6212,25 @@
         <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH40" t="n">
         <v>6</v>
       </c>
       <c r="AI40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ40" t="n">
         <v>51</v>
       </c>
       <c r="AK40" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN40" t="n">
         <v>11</v>
@@ -6242,7 +6242,7 @@
         <v>26</v>
       </c>
       <c r="AQ40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR40" t="n">
         <v>1.78</v>
@@ -6327,7 +6327,7 @@
         <v>1.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X41" t="n">
         <v>2.75</v>
@@ -6424,22 +6424,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M42" t="n">
         <v>1.08</v>
@@ -6454,10 +6454,10 @@
         <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6480,16 +6480,16 @@
         <v>1.8</v>
       </c>
       <c r="AA42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC42" t="n">
         <v>10</v>
       </c>
       <c r="AD42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE42" t="n">
         <v>23</v>
@@ -6498,7 +6498,7 @@
         <v>34</v>
       </c>
       <c r="AG42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH42" t="n">
         <v>6</v>
@@ -6525,7 +6525,7 @@
         <v>29</v>
       </c>
       <c r="AP42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ42" t="n">
         <v>41</v>
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J43" t="n">
         <v>2.88</v>
       </c>
       <c r="K43" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6589,22 +6589,22 @@
         <v>17</v>
       </c>
       <c r="O43" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R43" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S43" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T43" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U43" t="n">
         <v>2.25</v>
@@ -6619,10 +6619,10 @@
         <v>3.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA43" t="n">
         <v>12</v>
@@ -6631,7 +6631,7 @@
         <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD43" t="n">
         <v>23</v>
@@ -6652,16 +6652,16 @@
         <v>11</v>
       </c>
       <c r="AJ43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK43" t="n">
         <v>101</v>
       </c>
       <c r="AL43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN43" t="n">
         <v>11</v>
@@ -6670,7 +6670,7 @@
         <v>29</v>
       </c>
       <c r="AP43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ43" t="n">
         <v>23</v>
@@ -6710,108 +6710,108 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K44" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L44" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="R44" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V44" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W44" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X44" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA44" t="n">
         <v>9</v>
       </c>
       <c r="AB44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG44" t="n">
         <v>13</v>
       </c>
-      <c r="AC44" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG44" t="n">
+      <c r="AH44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL44" t="n">
         <v>11</v>
       </c>
-      <c r="AH44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>9</v>
-      </c>
       <c r="AM44" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AN44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO44" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AP44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ44" t="n">
         <v>29</v>
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J46" t="n">
         <v>2.6</v>
@@ -7007,7 +7007,7 @@
         <v>2.3</v>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -7048,7 +7048,7 @@
         <v>2.2</v>
       </c>
       <c r="AA46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB46" t="n">
         <v>11</v>
@@ -7057,13 +7057,13 @@
         <v>9</v>
       </c>
       <c r="AD46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE46" t="n">
         <v>15</v>
       </c>
       <c r="AF46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG46" t="n">
         <v>13</v>
@@ -7072,7 +7072,7 @@
         <v>7</v>
       </c>
       <c r="AI46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ46" t="n">
         <v>41</v>
@@ -7136,13 +7136,13 @@
         <v>1.8</v>
       </c>
       <c r="H47" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I47" t="n">
         <v>3.9</v>
       </c>
       <c r="J47" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K47" t="n">
         <v>2.38</v>
@@ -7163,16 +7163,16 @@
         <v>4.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S47" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U47" t="n">
         <v>2.5</v>
@@ -7187,13 +7187,13 @@
         <v>3.4</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB47" t="n">
         <v>10</v>
@@ -7241,7 +7241,7 @@
         <v>29</v>
       </c>
       <c r="AQ47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
@@ -7284,7 +7284,7 @@
         <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J48" t="n">
         <v>5</v>
@@ -7293,7 +7293,7 @@
         <v>1.91</v>
       </c>
       <c r="L48" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M48" t="n">
         <v>1.1</v>
@@ -7302,16 +7302,16 @@
         <v>7</v>
       </c>
       <c r="O48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P48" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R48" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -7322,19 +7322,19 @@
         <v>1.14</v>
       </c>
       <c r="W48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z48" t="n">
         <v>1.57</v>
       </c>
-      <c r="X48" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AA48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB48" t="n">
         <v>19</v>
@@ -7385,10 +7385,10 @@
         <v>41</v>
       </c>
       <c r="AR48" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="49">
@@ -7568,54 +7568,54 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H50" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I50" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K50" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R50" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V50" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W50" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X50" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y50" t="n">
         <v>2.2</v>
@@ -7633,7 +7633,7 @@
         <v>9</v>
       </c>
       <c r="AD50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE50" t="n">
         <v>15</v>
@@ -7642,7 +7642,7 @@
         <v>34</v>
       </c>
       <c r="AG50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH50" t="n">
         <v>7.5</v>
@@ -7657,16 +7657,16 @@
         <v>501</v>
       </c>
       <c r="AL50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP50" t="n">
         <v>51</v>
@@ -7709,84 +7709,84 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K51" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L51" t="n">
         <v>4.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O51" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P51" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R51" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V51" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W51" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X51" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA51" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB51" t="n">
         <v>8.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD51" t="n">
         <v>15</v>
       </c>
       <c r="AE51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG51" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI51" t="n">
         <v>15</v>
@@ -7795,13 +7795,13 @@
         <v>51</v>
       </c>
       <c r="AK51" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL51" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN51" t="n">
         <v>15</v>
@@ -7850,22 +7850,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H52" t="n">
         <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J52" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K52" t="n">
         <v>2.05</v>
       </c>
       <c r="L52" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M52" t="n">
         <v>1.07</v>
@@ -7909,7 +7909,7 @@
         <v>8</v>
       </c>
       <c r="AB52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC52" t="n">
         <v>10</v>
@@ -7918,13 +7918,13 @@
         <v>26</v>
       </c>
       <c r="AE52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF52" t="n">
         <v>34</v>
       </c>
       <c r="AG52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH52" t="n">
         <v>5.5</v>
@@ -7939,10 +7939,10 @@
         <v>251</v>
       </c>
       <c r="AL52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN52" t="n">
         <v>11</v>
@@ -7994,19 +7994,19 @@
         <v>2.5</v>
       </c>
       <c r="H53" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="J53" t="n">
         <v>3.25</v>
       </c>
       <c r="K53" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="L53" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M53" t="n">
         <v>1.1</v>
@@ -8015,10 +8015,10 @@
         <v>5.8</v>
       </c>
       <c r="O53" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P53" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="Q53" t="n">
         <v>2.27</v>
@@ -8035,22 +8035,22 @@
         <v>1.16</v>
       </c>
       <c r="W53" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X53" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AB53" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AC53" t="n">
         <v>8.75</v>
@@ -8059,43 +8059,43 @@
         <v>21</v>
       </c>
       <c r="AE53" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF53" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG53" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AI53" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ53" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK53" t="n">
         <v>450</v>
       </c>
       <c r="AL53" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AM53" t="n">
         <v>9.75</v>
       </c>
       <c r="AN53" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO53" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP53" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ53" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8138,7 +8138,7 @@
         <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J54" t="n">
         <v>2.75</v>
@@ -8153,31 +8153,31 @@
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O54" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R54" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S54" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T54" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="U54" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V54" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W54" t="n">
         <v>1.3</v>
@@ -8277,54 +8277,54 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H55" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I55" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J55" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
       </c>
       <c r="L55" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O55" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R55" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V55" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W55" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X55" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y55" t="n">
         <v>1.95</v>
@@ -8336,7 +8336,7 @@
         <v>6.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC55" t="n">
         <v>9</v>
@@ -8345,13 +8345,13 @@
         <v>17</v>
       </c>
       <c r="AE55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH55" t="n">
         <v>6.5</v>
@@ -8363,16 +8363,16 @@
         <v>51</v>
       </c>
       <c r="AK55" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO55" t="n">
         <v>41</v>
@@ -8551,16 +8551,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J57" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K57" t="n">
         <v>2.05</v>
@@ -8572,33 +8572,33 @@
         <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P57" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R57" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V57" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W57" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X57" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y57" t="n">
         <v>2.25</v>
@@ -8607,7 +8607,7 @@
         <v>1.57</v>
       </c>
       <c r="AA57" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB57" t="n">
         <v>6.5</v>
@@ -8616,16 +8616,16 @@
         <v>9</v>
       </c>
       <c r="AD57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH57" t="n">
         <v>7</v>
@@ -8658,10 +8658,10 @@
         <v>51</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -8865,16 +8865,16 @@
         <v>15</v>
       </c>
       <c r="O59" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P59" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R59" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S59" t="n">
         <v>2.05</v>
@@ -8883,10 +8883,10 @@
         <v>1.8</v>
       </c>
       <c r="U59" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V59" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W59" t="n">
         <v>1.3</v>
@@ -8986,13 +8986,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
         <v>3.7</v>
       </c>
       <c r="I60" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J60" t="n">
         <v>4.33</v>
@@ -9010,28 +9010,28 @@
         <v>15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P60" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R60" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S60" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T60" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U60" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V60" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W60" t="n">
         <v>1.3</v>
@@ -9040,10 +9040,10 @@
         <v>3.4</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA60" t="n">
         <v>15</v>
@@ -9052,7 +9052,7 @@
         <v>23</v>
       </c>
       <c r="AC60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD60" t="n">
         <v>41</v>
@@ -9061,7 +9061,7 @@
         <v>29</v>
       </c>
       <c r="AF60" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG60" t="n">
         <v>15</v>
@@ -9070,16 +9070,16 @@
         <v>7.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ60" t="n">
         <v>41</v>
       </c>
       <c r="AK60" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM60" t="n">
         <v>10</v>
@@ -9306,10 +9306,10 @@
         <v>6</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R62" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S62" t="n">
         <v>1.8</v>
@@ -9566,16 +9566,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>3.6</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K64" t="n">
         <v>2.25</v>
@@ -9596,10 +9596,10 @@
         <v>4</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S64" t="n">
         <v>1.93</v>
@@ -9620,10 +9620,10 @@
         <v>3</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z64" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA64" t="n">
         <v>8</v>
@@ -9650,7 +9650,7 @@
         <v>7</v>
       </c>
       <c r="AI64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ64" t="n">
         <v>41</v>
@@ -10146,22 +10146,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H68" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I68" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J68" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K68" t="n">
         <v>2.25</v>
       </c>
       <c r="L68" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>1.04</v>
@@ -10176,10 +10176,10 @@
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R68" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -10205,13 +10205,13 @@
         <v>9</v>
       </c>
       <c r="AB68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE68" t="n">
         <v>15</v>
@@ -10220,13 +10220,13 @@
         <v>23</v>
       </c>
       <c r="AG68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH68" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ68" t="n">
         <v>41</v>
@@ -10247,10 +10247,10 @@
         <v>41</v>
       </c>
       <c r="AP68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr"/>
@@ -10287,16 +10287,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H69" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I69" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J69" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K69" t="n">
         <v>2.25</v>
@@ -10308,7 +10308,7 @@
         <v>1.04</v>
       </c>
       <c r="N69" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O69" t="n">
         <v>1.25</v>
@@ -10352,7 +10352,7 @@
         <v>8.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE69" t="n">
         <v>13</v>
@@ -10370,7 +10370,7 @@
         <v>15</v>
       </c>
       <c r="AJ69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK69" t="n">
         <v>201</v>
@@ -10428,22 +10428,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I70" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="J70" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K70" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L70" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="M70" t="n">
         <v>1.03</v>
@@ -10458,16 +10458,16 @@
         <v>4.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R70" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S70" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T70" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U70" t="n">
         <v>2.5</v>
@@ -10476,40 +10476,40 @@
         <v>1.5</v>
       </c>
       <c r="W70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X70" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z70" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA70" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC70" t="n">
         <v>13</v>
       </c>
-      <c r="AB70" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>12</v>
-      </c>
       <c r="AD70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF70" t="n">
         <v>29</v>
       </c>
       <c r="AG70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI70" t="n">
         <v>12</v>
@@ -10524,16 +10524,16 @@
         <v>10</v>
       </c>
       <c r="AM70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN70" t="n">
         <v>9</v>
       </c>
       <c r="AO70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ70" t="n">
         <v>21</v>
@@ -10591,10 +10591,10 @@
         <v>2.63</v>
       </c>
       <c r="M71" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -10603,18 +10603,18 @@
         <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R71" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V71" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W71" t="n">
         <v>1.44</v>
@@ -10714,34 +10714,34 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="J72" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K72" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M72" t="n">
         <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O72" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P72" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q72" t="n">
         <v>2.25</v>
@@ -10758,37 +10758,37 @@
         <v>1.22</v>
       </c>
       <c r="W72" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X72" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA72" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD72" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE72" t="n">
         <v>26</v>
       </c>
-      <c r="AE72" t="n">
-        <v>23</v>
-      </c>
       <c r="AF72" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG72" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH72" t="n">
         <v>6</v>
@@ -10800,22 +10800,22 @@
         <v>51</v>
       </c>
       <c r="AK72" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM72" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO72" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ72" t="n">
         <v>34</v>
@@ -10873,10 +10873,10 @@
         <v>4.5</v>
       </c>
       <c r="M73" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O73" t="n">
         <v>1.33</v>
@@ -10885,10 +10885,10 @@
         <v>3.25</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R73" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10996,16 +10996,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>3.9</v>
       </c>
       <c r="I74" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J74" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K74" t="n">
         <v>2.2</v>
@@ -11014,10 +11014,10 @@
         <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N74" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O74" t="n">
         <v>1.25</v>
@@ -11026,10 +11026,10 @@
         <v>3.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R74" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -11082,10 +11082,10 @@
         <v>51</v>
       </c>
       <c r="AK74" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM74" t="n">
         <v>19</v>
@@ -11137,34 +11137,34 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H75" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I75" t="n">
+        <v>8</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L75" t="n">
         <v>7.5</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L75" t="n">
-        <v>7</v>
       </c>
       <c r="M75" t="n">
         <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O75" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P75" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q75" t="n">
         <v>1.36</v>
@@ -11175,16 +11175,16 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V75" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W75" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X75" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Y75" t="n">
         <v>1.8</v>
@@ -11193,7 +11193,7 @@
         <v>1.91</v>
       </c>
       <c r="AA75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB75" t="n">
         <v>8</v>
@@ -11202,22 +11202,22 @@
         <v>9.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE75" t="n">
         <v>11</v>
       </c>
       <c r="AF75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG75" t="n">
         <v>23</v>
       </c>
       <c r="AH75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ75" t="n">
         <v>51</v>
@@ -11235,7 +11235,7 @@
         <v>23</v>
       </c>
       <c r="AO75" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP75" t="n">
         <v>51</v>
@@ -11278,16 +11278,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H76" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K76" t="n">
         <v>2.38</v>
@@ -11308,10 +11308,10 @@
         <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R76" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11328,10 +11328,10 @@
         <v>3.25</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA76" t="n">
         <v>17</v>
@@ -11340,43 +11340,43 @@
         <v>34</v>
       </c>
       <c r="AC76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD76" t="n">
         <v>67</v>
       </c>
       <c r="AE76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG76" t="n">
         <v>13</v>
       </c>
       <c r="AH76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ76" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK76" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL76" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM76" t="n">
         <v>7</v>
       </c>
       <c r="AN76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP76" t="n">
         <v>12</v>
@@ -11449,18 +11449,18 @@
         <v>2.25</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W77" t="n">
         <v>1.62</v>
@@ -11564,19 +11564,19 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="H78" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I78" t="n">
         <v>1.65</v>
       </c>
       <c r="J78" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="K78" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L78" t="n">
         <v>2.2</v>
@@ -11585,7 +11585,7 @@
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O78" t="n">
         <v>1.26</v>
@@ -11602,7 +11602,7 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="V78" t="n">
         <v>1.36</v>
@@ -11614,7 +11614,7 @@
         <v>2.85</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Z78" t="n">
         <v>1.9</v>
@@ -11635,28 +11635,28 @@
         <v>45</v>
       </c>
       <c r="AF78" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG78" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AH78" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI78" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ78" t="n">
         <v>75</v>
       </c>
       <c r="AK78" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL78" t="n">
         <v>7.2</v>
       </c>
       <c r="AM78" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AN78" t="n">
         <v>8.25</v>
@@ -11668,7 +11668,7 @@
         <v>13</v>
       </c>
       <c r="AQ78" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11711,7 +11711,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J79" t="n">
         <v>2.88</v>
@@ -11720,7 +11720,7 @@
         <v>1.91</v>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M79" t="n">
         <v>1.13</v>
@@ -11770,7 +11770,7 @@
         <v>10</v>
       </c>
       <c r="AD79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE79" t="n">
         <v>21</v>
@@ -11850,111 +11850,111 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H80" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I80" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="J80" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="K80" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="M80" t="n">
         <v>1.07</v>
       </c>
       <c r="N80" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="O80" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P80" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R80" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="V80" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W80" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X80" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AA80" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC80" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AE80" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF80" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG80" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AI80" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ80" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK80" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL80" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AM80" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AN80" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO80" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -12135,45 +12135,45 @@
         <v>1.25</v>
       </c>
       <c r="H82" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J82" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L82" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O82" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P82" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R82" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V82" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W82" t="n">
         <v>1.2</v>
@@ -12194,16 +12194,16 @@
         <v>8</v>
       </c>
       <c r="AC82" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE82" t="n">
         <v>10</v>
       </c>
       <c r="AF82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG82" t="n">
         <v>23</v>
@@ -12218,7 +12218,7 @@
         <v>51</v>
       </c>
       <c r="AK82" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL82" t="n">
         <v>29</v>
@@ -12432,10 +12432,10 @@
         <v>3.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O84" t="n">
         <v>1.29</v>
@@ -12444,18 +12444,18 @@
         <v>3.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R84" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V84" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W84" t="n">
         <v>1.4</v>
@@ -12555,27 +12555,27 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I85" t="n">
         <v>4.4</v>
       </c>
       <c r="J85" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="K85" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L85" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P85" t="n">
         <v>2.77</v>
@@ -12589,16 +12589,16 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="V85" t="n">
         <v>1.25</v>
       </c>
       <c r="W85" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X85" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Y85" t="n">
         <v>1.82</v>
@@ -12607,7 +12607,7 @@
         <v>1.78</v>
       </c>
       <c r="AA85" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB85" t="n">
         <v>8.25</v>
@@ -12616,10 +12616,10 @@
         <v>8.25</v>
       </c>
       <c r="AD85" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE85" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF85" t="n">
         <v>29</v>
@@ -12628,7 +12628,7 @@
         <v>8.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AI85" t="n">
         <v>15.5</v>
@@ -12640,10 +12640,10 @@
         <v>700</v>
       </c>
       <c r="AL85" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM85" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN85" t="n">
         <v>14.5</v>
@@ -12692,27 +12692,27 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="I86" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J86" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K86" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="L86" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P86" t="n">
         <v>2.4</v>
@@ -12726,46 +12726,46 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="V86" t="n">
         <v>1.18</v>
       </c>
       <c r="W86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X86" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA86" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AB86" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC86" t="n">
         <v>9.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE86" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF86" t="n">
         <v>37</v>
       </c>
       <c r="AG86" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AH86" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AI86" t="n">
         <v>15</v>
@@ -12777,10 +12777,10 @@
         <v>800</v>
       </c>
       <c r="AL86" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AM86" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN86" t="n">
         <v>11.25</v>
@@ -12835,22 +12835,22 @@
         <v>3.6</v>
       </c>
       <c r="I87" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="J87" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K87" t="n">
         <v>2.2</v>
       </c>
       <c r="L87" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="M87" t="n">
         <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O87" t="n">
         <v>1.27</v>
@@ -12879,13 +12879,13 @@
         <v>2.82</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AA87" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB87" t="n">
         <v>8.25</v>
@@ -12900,10 +12900,10 @@
         <v>13</v>
       </c>
       <c r="AF87" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG87" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AH87" t="n">
         <v>7.1</v>
@@ -12918,7 +12918,7 @@
         <v>500</v>
       </c>
       <c r="AL87" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM87" t="n">
         <v>25</v>
@@ -12930,7 +12930,7 @@
         <v>75</v>
       </c>
       <c r="AP87" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ87" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -722,10 +722,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>2.06</v>
@@ -755,7 +755,7 @@
         <v>8</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
@@ -779,13 +779,13 @@
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
         <v>201</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -837,19 +837,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>3.75</v>
@@ -911,7 +911,7 @@
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -929,7 +929,7 @@
         <v>9.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN3" t="n">
         <v>12</v>
@@ -1022,10 +1022,10 @@
         <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y4" t="n">
         <v>2.1</v>
@@ -1046,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1067,7 +1067,7 @@
         <v>501</v>
       </c>
       <c r="AL4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM4" t="n">
         <v>19</v>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
         <v>3.3</v>
@@ -1135,54 +1135,54 @@
         <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
         <v>9</v>
@@ -1191,28 +1191,28 @@
         <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
@@ -1439,10 +1439,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>3.15</v>
@@ -1451,10 +1451,10 @@
         <v>1.37</v>
       </c>
       <c r="U7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
         <v>1.44</v>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
         <v>2.8</v>
@@ -1576,10 +1576,10 @@
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.67</v>
@@ -1594,10 +1594,10 @@
         <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U8" t="n">
         <v>7</v>
@@ -2130,28 +2130,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
         <v>1.88</v>
       </c>
       <c r="L12" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.53</v>
@@ -2160,15 +2160,15 @@
         <v>2.35</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R12" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="V12" t="n">
         <v>1.16</v>
@@ -2189,28 +2189,28 @@
         <v>6.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
         <v>45</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AH12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>110</v>
@@ -2219,19 +2219,19 @@
         <v>900</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN12" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP12" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ12" t="n">
         <v>55</v>
@@ -2271,66 +2271,66 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="J13" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X13" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC13" t="n">
         <v>13.5</v>
@@ -2345,16 +2345,16 @@
         <v>55</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI13" t="n">
         <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK13" t="n">
         <v>1000</v>
@@ -2363,19 +2363,19 @@
         <v>5.8</v>
       </c>
       <c r="AM13" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AN13" t="n">
         <v>9</v>
       </c>
       <c r="AO13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2415,57 +2415,57 @@
         <v>4.05</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J14" t="n">
         <v>4.35</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L14" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="V14" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X14" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="Y14" t="n">
         <v>1.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA14" t="n">
         <v>12.5</v>
@@ -2474,7 +2474,7 @@
         <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
         <v>60</v>
@@ -2486,10 +2486,10 @@
         <v>37</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AI14" t="n">
         <v>14</v>
@@ -2498,10 +2498,10 @@
         <v>60</v>
       </c>
       <c r="AK14" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL14" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AM14" t="n">
         <v>9</v>
@@ -2513,10 +2513,10 @@
         <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2553,111 +2553,111 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="V15" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X15" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB15" t="n">
         <v>17.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
         <v>35</v>
       </c>
       <c r="AE15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
         <v>10.75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK15" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AL15" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AM15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
         <v>26</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2703,75 +2703,75 @@
         <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="V16" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="W16" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AC16" t="n">
         <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AI16" t="n">
         <v>13.5</v>
@@ -2780,13 +2780,13 @@
         <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN16" t="n">
         <v>13.5</v>
@@ -2798,7 +2798,7 @@
         <v>37</v>
       </c>
       <c r="AQ16" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -3006,18 +3006,18 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W18" t="n">
         <v>1.4</v>
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K19" t="n">
         <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3141,28 +3141,28 @@
         <v>17</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R19" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S19" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="U19" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W19" t="n">
         <v>1.29</v>
@@ -3183,19 +3183,19 @@
         <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>7.5</v>
@@ -3210,10 +3210,10 @@
         <v>101</v>
       </c>
       <c r="AL19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
         <v>13</v>
@@ -3723,10 +3723,10 @@
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R23" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="n">
         <v>2.55</v>
@@ -3735,10 +3735,10 @@
         <v>1.5</v>
       </c>
       <c r="U23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V23" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
         <v>1.4</v>
@@ -3991,13 +3991,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
         <v>2.5</v>
@@ -4140,7 +4140,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
@@ -4152,16 +4152,16 @@
         <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L26" t="n">
         <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
         <v>1.62</v>
@@ -4170,13 +4170,13 @@
         <v>2.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="T26" t="n">
         <v>1.16</v>
@@ -4203,7 +4203,7 @@
         <v>5.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC26" t="n">
         <v>11</v>
@@ -4227,7 +4227,7 @@
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="n">
         <v>101</v>
@@ -4292,16 +4292,16 @@
         <v>2.55</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
         <v>2.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L27" t="n">
         <v>3.5</v>
@@ -4313,30 +4313,30 @@
         <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y27" t="n">
         <v>2</v>
@@ -4360,13 +4360,13 @@
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
@@ -4378,7 +4378,7 @@
         <v>351</v>
       </c>
       <c r="AL27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="n">
         <v>12</v>
@@ -4387,19 +4387,19 @@
         <v>11</v>
       </c>
       <c r="AO27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP27" t="n">
         <v>26</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>23</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="28">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H28" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J28" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K28" t="n">
         <v>2.3</v>
       </c>
       <c r="L28" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4472,7 +4472,7 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="V28" t="n">
         <v>1.44</v>
@@ -4481,7 +4481,7 @@
         <v>1.35</v>
       </c>
       <c r="X28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Y28" t="n">
         <v>1.78</v>
@@ -4490,10 +4490,10 @@
         <v>1.93</v>
       </c>
       <c r="AA28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AC28" t="n">
         <v>8.5</v>
@@ -4523,19 +4523,19 @@
         <v>600</v>
       </c>
       <c r="AL28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM28" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AP28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ28" t="n">
         <v>55</v>
@@ -4575,19 +4575,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K29" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L29" t="n">
         <v>7.5</v>
@@ -4611,10 +4611,10 @@
         <v>2.4</v>
       </c>
       <c r="S29" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T29" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U29" t="n">
         <v>2.25</v>
@@ -4623,10 +4623,10 @@
         <v>1.57</v>
       </c>
       <c r="W29" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y29" t="n">
         <v>1.83</v>
@@ -4644,7 +4644,7 @@
         <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -4656,7 +4656,7 @@
         <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>19</v>
@@ -4668,10 +4668,10 @@
         <v>251</v>
       </c>
       <c r="AL29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN29" t="n">
         <v>26</v>
@@ -4720,40 +4720,40 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H30" t="n">
         <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K30" t="n">
         <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S30" t="n">
         <v>2.05</v>
@@ -4762,10 +4762,10 @@
         <v>1.8</v>
       </c>
       <c r="U30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W30" t="n">
         <v>1.33</v>
@@ -4774,10 +4774,10 @@
         <v>3.25</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA30" t="n">
         <v>8</v>
@@ -4789,7 +4789,7 @@
         <v>8.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -4798,7 +4798,7 @@
         <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
         <v>7.5</v>
@@ -4819,16 +4819,16 @@
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP30" t="n">
         <v>34</v>
       </c>
       <c r="AQ30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4865,28 +4865,28 @@
         </is>
       </c>
       <c r="G31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.4</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I31" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K31" t="n">
         <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -4903,10 +4903,10 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W31" t="n">
         <v>1.4</v>
@@ -4921,22 +4921,22 @@
         <v>1.91</v>
       </c>
       <c r="AA31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="n">
         <v>9.5</v>
@@ -4957,13 +4957,13 @@
         <v>7.5</v>
       </c>
       <c r="AM31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN31" t="n">
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
         <v>17</v>
@@ -5006,63 +5006,63 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J32" t="n">
         <v>3.25</v>
       </c>
-      <c r="I32" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L32" t="n">
         <v>3.4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R32" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V32" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AA32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB32" t="n">
         <v>13</v>
@@ -5071,7 +5071,7 @@
         <v>10</v>
       </c>
       <c r="AD32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE32" t="n">
         <v>21</v>
@@ -5080,37 +5080,37 @@
         <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI32" t="n">
         <v>13</v>
       </c>
       <c r="AJ32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK32" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP32" t="n">
         <v>21</v>
       </c>
       <c r="AQ32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5147,28 +5147,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K33" t="n">
         <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O33" t="n">
         <v>1.3</v>
@@ -5177,10 +5177,10 @@
         <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R33" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5191,16 +5191,16 @@
         <v>1.29</v>
       </c>
       <c r="W33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA33" t="n">
         <v>6</v>
@@ -5215,16 +5215,16 @@
         <v>11</v>
       </c>
       <c r="AE33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF33" t="n">
         <v>29</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI33" t="n">
         <v>19</v>
@@ -5236,19 +5236,19 @@
         <v>351</v>
       </c>
       <c r="AL33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO33" t="n">
         <v>67</v>
       </c>
       <c r="AP33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ33" t="n">
         <v>51</v>
@@ -5288,22 +5288,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J34" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L34" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -5312,24 +5312,24 @@
         <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W34" t="n">
         <v>1.36</v>
@@ -5344,31 +5344,31 @@
         <v>2.1</v>
       </c>
       <c r="AA34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF34" t="n">
         <v>29</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>34</v>
       </c>
       <c r="AG34" t="n">
         <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ34" t="n">
         <v>41</v>
@@ -5377,19 +5377,19 @@
         <v>151</v>
       </c>
       <c r="AL34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM34" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AN34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP34" t="n">
         <v>17</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>15</v>
       </c>
       <c r="AQ34" t="n">
         <v>23</v>
@@ -5429,13 +5429,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J35" t="n">
         <v>2.3</v>
@@ -5447,10 +5447,10 @@
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -5473,16 +5473,16 @@
         <v>1.33</v>
       </c>
       <c r="W35" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X35" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA35" t="n">
         <v>7.5</v>
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J36" t="n">
         <v>2.75</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L36" t="n">
         <v>4</v>
@@ -5653,7 +5653,7 @@
         <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="n">
         <v>201</v>
@@ -5711,66 +5711,66 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H37" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I37" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J37" t="n">
         <v>3.5</v>
       </c>
       <c r="K37" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L37" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P37" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R37" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V37" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W37" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC37" t="n">
         <v>11</v>
@@ -5785,16 +5785,16 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH37" t="n">
         <v>6</v>
       </c>
       <c r="AI37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="n">
         <v>1250</v>
@@ -5803,13 +5803,13 @@
         <v>7</v>
       </c>
       <c r="AM37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN37" t="n">
         <v>12</v>
       </c>
       <c r="AO37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP37" t="n">
         <v>29</v>
@@ -5818,10 +5818,10 @@
         <v>41</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="38">
@@ -5856,28 +5856,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J38" t="n">
         <v>3.75</v>
       </c>
       <c r="K38" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O38" t="n">
         <v>1.36</v>
@@ -5886,39 +5886,39 @@
         <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W38" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X38" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB38" t="n">
         <v>15</v>
       </c>
       <c r="AC38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
         <v>34</v>
@@ -5927,13 +5927,13 @@
         <v>26</v>
       </c>
       <c r="AF38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI38" t="n">
         <v>15</v>
@@ -5942,25 +5942,25 @@
         <v>51</v>
       </c>
       <c r="AK38" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM38" t="n">
         <v>11</v>
       </c>
       <c r="AN38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP38" t="n">
         <v>21</v>
       </c>
-      <c r="AP38" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -5997,40 +5997,40 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="J39" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -6053,31 +6053,31 @@
         <v>2</v>
       </c>
       <c r="AA39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="n">
         <v>12</v>
       </c>
       <c r="AD39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF39" t="n">
         <v>34</v>
       </c>
       <c r="AG39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ39" t="n">
         <v>51</v>
@@ -6089,19 +6089,19 @@
         <v>8</v>
       </c>
       <c r="AM39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6138,22 +6138,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J40" t="n">
         <v>2.88</v>
       </c>
-      <c r="J40" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K40" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L40" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
@@ -6168,10 +6168,10 @@
         <v>3.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R40" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -6197,25 +6197,25 @@
         <v>7.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD40" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG40" t="n">
         <v>9</v>
       </c>
       <c r="AH40" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI40" t="n">
         <v>15</v>
@@ -6224,25 +6224,25 @@
         <v>51</v>
       </c>
       <c r="AK40" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL40" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP40" t="n">
         <v>29</v>
       </c>
-      <c r="AP40" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR40" t="n">
         <v>1.78</v>
@@ -6283,22 +6283,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L41" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M41" t="n">
         <v>1.05</v>
@@ -6307,16 +6307,16 @@
         <v>11</v>
       </c>
       <c r="O41" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P41" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R41" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -6348,7 +6348,7 @@
         <v>12</v>
       </c>
       <c r="AD41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE41" t="n">
         <v>26</v>
@@ -6375,13 +6375,13 @@
         <v>8</v>
       </c>
       <c r="AM41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN41" t="n">
         <v>9</v>
       </c>
       <c r="AO41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP41" t="n">
         <v>17</v>
@@ -6424,22 +6424,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M42" t="n">
         <v>1.08</v>
@@ -6454,18 +6454,18 @@
         <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W42" t="n">
         <v>1.5</v>
@@ -6492,13 +6492,13 @@
         <v>23</v>
       </c>
       <c r="AE42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF42" t="n">
         <v>34</v>
       </c>
       <c r="AG42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH42" t="n">
         <v>6</v>
@@ -6513,7 +6513,7 @@
         <v>351</v>
       </c>
       <c r="AL42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM42" t="n">
         <v>13</v>
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="J43" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>2.4</v>
       </c>
       <c r="L43" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6601,16 +6601,16 @@
         <v>2.4</v>
       </c>
       <c r="S43" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U43" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V43" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W43" t="n">
         <v>1.29</v>
@@ -6625,16 +6625,16 @@
         <v>2.63</v>
       </c>
       <c r="AA43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB43" t="n">
         <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE43" t="n">
         <v>17</v>
@@ -6646,7 +6646,7 @@
         <v>17</v>
       </c>
       <c r="AH43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI43" t="n">
         <v>11</v>
@@ -6655,25 +6655,25 @@
         <v>29</v>
       </c>
       <c r="AK43" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN43" t="n">
         <v>11</v>
       </c>
       <c r="AO43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ43" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>23</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6719,7 +6719,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K44" t="n">
         <v>2.25</v>
@@ -6754,22 +6754,22 @@
         <v>1.4</v>
       </c>
       <c r="W44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA44" t="n">
         <v>9</v>
       </c>
       <c r="AB44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC44" t="n">
         <v>9</v>
@@ -6851,19 +6851,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
         <v>5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L45" t="n">
         <v>5.5</v>
@@ -6916,7 +6916,7 @@
         <v>8.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE45" t="n">
         <v>13</v>
@@ -6925,7 +6925,7 @@
         <v>26</v>
       </c>
       <c r="AG45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH45" t="n">
         <v>7.5</v>
@@ -6946,7 +6946,7 @@
         <v>26</v>
       </c>
       <c r="AN45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO45" t="n">
         <v>51</v>
@@ -7136,13 +7136,13 @@
         <v>1.8</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I47" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K47" t="n">
         <v>2.38</v>
@@ -7157,10 +7157,10 @@
         <v>15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P47" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q47" t="n">
         <v>1.65</v>
@@ -7175,10 +7175,10 @@
         <v>1.83</v>
       </c>
       <c r="U47" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V47" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W47" t="n">
         <v>1.3</v>
@@ -7278,22 +7278,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H48" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="J48" t="n">
         <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L48" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M48" t="n">
         <v>1.1</v>
@@ -7302,48 +7302,48 @@
         <v>7</v>
       </c>
       <c r="O48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P48" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R48" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z48" t="n">
         <v>1.62</v>
       </c>
-      <c r="X48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AA48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
         <v>15</v>
       </c>
       <c r="AD48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE48" t="n">
         <v>41</v>
@@ -7352,7 +7352,7 @@
         <v>51</v>
       </c>
       <c r="AG48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH48" t="n">
         <v>6.5</v>
@@ -7370,25 +7370,25 @@
         <v>5.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN48" t="n">
         <v>9.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ48" t="n">
         <v>41</v>
       </c>
       <c r="AR48" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="49">
@@ -7423,16 +7423,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H49" t="n">
         <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K49" t="n">
         <v>2</v>
@@ -7447,10 +7447,10 @@
         <v>8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P49" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q49" t="n">
         <v>2.35</v>
@@ -7461,28 +7461,28 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V49" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W49" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X49" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA49" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC49" t="n">
         <v>9</v>
@@ -7497,7 +7497,7 @@
         <v>34</v>
       </c>
       <c r="AG49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH49" t="n">
         <v>6.5</v>
@@ -7521,13 +7521,13 @@
         <v>15</v>
       </c>
       <c r="AO49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP49" t="n">
         <v>41</v>
       </c>
       <c r="AQ49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR49" t="n">
         <v>1.78</v>
@@ -7592,24 +7592,24 @@
         <v>9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P50" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R50" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V50" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W50" t="n">
         <v>1.5</v>
@@ -7709,48 +7709,48 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="H51" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="K51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O51" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P51" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R51" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V51" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="W51" t="n">
         <v>1.44</v>
@@ -7759,37 +7759,37 @@
         <v>2.63</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA51" t="n">
         <v>6.5</v>
       </c>
       <c r="AB51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC51" t="n">
         <v>8.5</v>
       </c>
-      <c r="AC51" t="n">
-        <v>9</v>
-      </c>
       <c r="AD51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE51" t="n">
         <v>15</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>17</v>
       </c>
       <c r="AF51" t="n">
         <v>29</v>
       </c>
       <c r="AG51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ51" t="n">
         <v>51</v>
@@ -7798,13 +7798,13 @@
         <v>301</v>
       </c>
       <c r="AL51" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM51" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO51" t="n">
         <v>51</v>
@@ -7850,28 +7850,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
         <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J52" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K52" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
         <v>1.33</v>
@@ -7888,10 +7888,10 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V52" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W52" t="n">
         <v>1.44</v>
@@ -7906,10 +7906,10 @@
         <v>1.95</v>
       </c>
       <c r="AA52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC52" t="n">
         <v>10</v>
@@ -7924,10 +7924,10 @@
         <v>34</v>
       </c>
       <c r="AG52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH52" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI52" t="n">
         <v>13</v>
@@ -7942,7 +7942,7 @@
         <v>9</v>
       </c>
       <c r="AM52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN52" t="n">
         <v>11</v>
@@ -8132,22 +8132,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
         <v>3.1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K54" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L54" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
@@ -8168,10 +8168,10 @@
         <v>2.25</v>
       </c>
       <c r="S54" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T54" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U54" t="n">
         <v>2.5</v>
@@ -8219,7 +8219,7 @@
         <v>12</v>
       </c>
       <c r="AJ54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK54" t="n">
         <v>126</v>
@@ -8228,7 +8228,7 @@
         <v>13</v>
       </c>
       <c r="AM54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN54" t="n">
         <v>11</v>
@@ -8237,7 +8237,7 @@
         <v>34</v>
       </c>
       <c r="AP54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ54" t="n">
         <v>26</v>
@@ -8277,19 +8277,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J55" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K55" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
         <v>4.33</v>
@@ -8315,10 +8315,10 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W55" t="n">
         <v>1.5</v>
@@ -8342,7 +8342,7 @@
         <v>9</v>
       </c>
       <c r="AD55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE55" t="n">
         <v>19</v>
@@ -8354,7 +8354,7 @@
         <v>8</v>
       </c>
       <c r="AH55" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI55" t="n">
         <v>17</v>
@@ -8366,10 +8366,10 @@
         <v>401</v>
       </c>
       <c r="AL55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN55" t="n">
         <v>13</v>
@@ -8841,22 +8841,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H59" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J59" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K59" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L59" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
@@ -8889,10 +8889,10 @@
         <v>1.44</v>
       </c>
       <c r="W59" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X59" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y59" t="n">
         <v>1.62</v>
@@ -8910,7 +8910,7 @@
         <v>8.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE59" t="n">
         <v>13</v>
@@ -8922,7 +8922,7 @@
         <v>15</v>
       </c>
       <c r="AH59" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI59" t="n">
         <v>13</v>
@@ -8937,7 +8937,7 @@
         <v>15</v>
       </c>
       <c r="AM59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN59" t="n">
         <v>13</v>
@@ -8949,7 +8949,7 @@
         <v>29</v>
       </c>
       <c r="AQ59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
@@ -8986,22 +8986,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H60" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I60" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="J60" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K60" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L60" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="M60" t="n">
         <v>1.03</v>
@@ -9016,10 +9016,10 @@
         <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R60" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S60" t="n">
         <v>1.98</v>
@@ -9034,22 +9034,22 @@
         <v>1.53</v>
       </c>
       <c r="W60" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X60" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA60" t="n">
         <v>15</v>
       </c>
       <c r="AB60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC60" t="n">
         <v>13</v>
@@ -9058,13 +9058,13 @@
         <v>41</v>
       </c>
       <c r="AE60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF60" t="n">
         <v>29</v>
       </c>
       <c r="AG60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH60" t="n">
         <v>7.5</v>
@@ -9073,22 +9073,22 @@
         <v>12</v>
       </c>
       <c r="AJ60" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK60" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL60" t="n">
         <v>10</v>
       </c>
       <c r="AM60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN60" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP60" t="n">
         <v>13</v>
@@ -9131,40 +9131,40 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H61" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J61" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K61" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L61" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M61" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O61" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P61" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R61" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S61" t="n">
         <v>2.05</v>
@@ -9179,10 +9179,10 @@
         <v>1.44</v>
       </c>
       <c r="W61" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X61" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y61" t="n">
         <v>1.91</v>
@@ -9194,28 +9194,28 @@
         <v>7.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC61" t="n">
         <v>8.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF61" t="n">
         <v>26</v>
       </c>
       <c r="AG61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH61" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ61" t="n">
         <v>51</v>
@@ -9224,16 +9224,16 @@
         <v>301</v>
       </c>
       <c r="AL61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM61" t="n">
         <v>41</v>
       </c>
       <c r="AN61" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AO61" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP61" t="n">
         <v>51</v>
@@ -9276,40 +9276,40 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="H62" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K62" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M62" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O62" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P62" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="R62" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="S62" t="n">
         <v>1.8</v>
@@ -9318,49 +9318,49 @@
         <v>2.05</v>
       </c>
       <c r="U62" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V62" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W62" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X62" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB62" t="n">
         <v>9.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF62" t="n">
         <v>19</v>
       </c>
       <c r="AG62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH62" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ62" t="n">
         <v>41</v>
@@ -9369,22 +9369,22 @@
         <v>126</v>
       </c>
       <c r="AL62" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN62" t="n">
         <v>21</v>
       </c>
-      <c r="AM62" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>17</v>
-      </c>
       <c r="AO62" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AP62" t="n">
         <v>41</v>
       </c>
       <c r="AQ62" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr"/>
@@ -9421,22 +9421,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>3.7</v>
       </c>
       <c r="I63" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="J63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K63" t="n">
         <v>2.5</v>
       </c>
-      <c r="K63" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L63" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M63" t="n">
         <v>1.02</v>
@@ -9445,16 +9445,16 @@
         <v>19</v>
       </c>
       <c r="O63" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P63" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R63" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S63" t="n">
         <v>1.8</v>
@@ -9463,10 +9463,10 @@
         <v>2.05</v>
       </c>
       <c r="U63" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V63" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W63" t="n">
         <v>1.25</v>
@@ -9475,61 +9475,61 @@
         <v>3.75</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z63" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB63" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD63" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF63" t="n">
         <v>19</v>
       </c>
       <c r="AG63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI63" t="n">
         <v>11</v>
       </c>
       <c r="AJ63" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO63" t="n">
         <v>34</v>
       </c>
-      <c r="AK63" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM63" t="n">
+      <c r="AP63" t="n">
         <v>21</v>
       </c>
-      <c r="AN63" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ63" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
@@ -9587,7 +9587,7 @@
         <v>1.04</v>
       </c>
       <c r="N64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O64" t="n">
         <v>1.22</v>
@@ -9711,22 +9711,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H65" t="n">
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J65" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K65" t="n">
         <v>2.38</v>
       </c>
       <c r="L65" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
@@ -9735,34 +9735,34 @@
         <v>17</v>
       </c>
       <c r="O65" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P65" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R65" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S65" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T65" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U65" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V65" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W65" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X65" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y65" t="n">
         <v>1.53</v>
@@ -9771,19 +9771,19 @@
         <v>2.38</v>
       </c>
       <c r="AA65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD65" t="n">
         <v>29</v>
       </c>
       <c r="AE65" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF65" t="n">
         <v>23</v>
@@ -9810,13 +9810,13 @@
         <v>13</v>
       </c>
       <c r="AN65" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ65" t="n">
         <v>21</v>
@@ -10025,24 +10025,24 @@
         <v>7</v>
       </c>
       <c r="O67" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P67" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R67" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V67" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W67" t="n">
         <v>1.5</v>
@@ -10108,10 +10108,10 @@
         <v>51</v>
       </c>
       <c r="AR67" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="68">
@@ -10176,10 +10176,10 @@
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R68" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -10287,28 +10287,28 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H69" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I69" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J69" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K69" t="n">
         <v>2.25</v>
       </c>
       <c r="L69" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O69" t="n">
         <v>1.25</v>
@@ -10317,10 +10317,10 @@
         <v>3.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R69" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
@@ -10343,25 +10343,25 @@
         <v>2</v>
       </c>
       <c r="AA69" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB69" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC69" t="n">
         <v>8.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF69" t="n">
         <v>23</v>
       </c>
       <c r="AG69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH69" t="n">
         <v>7</v>
@@ -10370,7 +10370,7 @@
         <v>15</v>
       </c>
       <c r="AJ69" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK69" t="n">
         <v>201</v>
@@ -10385,7 +10385,7 @@
         <v>15</v>
       </c>
       <c r="AO69" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP69" t="n">
         <v>34</v>
@@ -10573,22 +10573,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H71" t="n">
         <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J71" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K71" t="n">
         <v>2.05</v>
       </c>
       <c r="L71" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="M71" t="n">
         <v>1.07</v>
@@ -10629,19 +10629,19 @@
         <v>1.8</v>
       </c>
       <c r="AA71" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD71" t="n">
         <v>41</v>
       </c>
       <c r="AE71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF71" t="n">
         <v>41</v>
@@ -10662,22 +10662,22 @@
         <v>351</v>
       </c>
       <c r="AL71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM71" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10735,13 +10735,13 @@
         <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O72" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P72" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="n">
         <v>2.25</v>
@@ -10764,10 +10764,10 @@
         <v>2.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA72" t="n">
         <v>8.5</v>
@@ -10788,7 +10788,7 @@
         <v>41</v>
       </c>
       <c r="AG72" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH72" t="n">
         <v>6</v>
@@ -10996,48 +10996,48 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H74" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I74" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J74" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K74" t="n">
         <v>2.2</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M74" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="O74" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P74" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R74" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V74" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W74" t="n">
         <v>1.36</v>
@@ -11046,16 +11046,16 @@
         <v>3</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z74" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA74" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC74" t="n">
         <v>9</v>
@@ -11070,7 +11070,7 @@
         <v>26</v>
       </c>
       <c r="AG74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH74" t="n">
         <v>7.5</v>
@@ -11082,7 +11082,7 @@
         <v>51</v>
       </c>
       <c r="AK74" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL74" t="n">
         <v>11</v>
@@ -11137,22 +11137,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I75" t="n">
         <v>7</v>
       </c>
-      <c r="I75" t="n">
-        <v>8</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K75" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L75" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M75" t="n">
         <v>1.01</v>
@@ -11181,43 +11181,43 @@
         <v>1.83</v>
       </c>
       <c r="W75" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X75" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA75" t="n">
         <v>11</v>
       </c>
       <c r="AB75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC75" t="n">
         <v>9.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE75" t="n">
         <v>11</v>
       </c>
       <c r="AF75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG75" t="n">
         <v>23</v>
       </c>
       <c r="AH75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ75" t="n">
         <v>51</v>
@@ -11226,19 +11226,19 @@
         <v>151</v>
       </c>
       <c r="AL75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM75" t="n">
         <v>41</v>
       </c>
       <c r="AN75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO75" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP75" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ75" t="n">
         <v>41</v>
@@ -11278,54 +11278,54 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="I76" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="J76" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K76" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L76" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="M76" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N76" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O76" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="R76" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="V76" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="W76" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X76" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y76" t="n">
         <v>2</v>
@@ -11334,28 +11334,28 @@
         <v>1.73</v>
       </c>
       <c r="AA76" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD76" t="n">
         <v>67</v>
       </c>
       <c r="AE76" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF76" t="n">
         <v>51</v>
       </c>
       <c r="AG76" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH76" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI76" t="n">
         <v>21</v>
@@ -11364,10 +11364,10 @@
         <v>67</v>
       </c>
       <c r="AK76" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AL76" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM76" t="n">
         <v>7</v>
@@ -11376,13 +11376,13 @@
         <v>9</v>
       </c>
       <c r="AO76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
@@ -11422,13 +11422,13 @@
         <v>2.1</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I77" t="n">
         <v>3.6</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K77" t="n">
         <v>1.83</v>
@@ -11437,16 +11437,16 @@
         <v>4.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N77" t="n">
         <v>6</v>
       </c>
       <c r="O77" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P77" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="Q77" t="n">
         <v>2.63</v>
@@ -11460,7 +11460,7 @@
         <v>5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W77" t="n">
         <v>1.62</v>
@@ -11469,10 +11469,10 @@
         <v>2.2</v>
       </c>
       <c r="Y77" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA77" t="n">
         <v>5.5</v>
@@ -11481,13 +11481,13 @@
         <v>8.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD77" t="n">
         <v>19</v>
       </c>
       <c r="AE77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF77" t="n">
         <v>41</v>
@@ -11499,7 +11499,7 @@
         <v>6.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ77" t="n">
         <v>81</v>
@@ -11508,7 +11508,7 @@
         <v>1000</v>
       </c>
       <c r="AL77" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM77" t="n">
         <v>17</v>
@@ -11526,10 +11526,10 @@
         <v>51</v>
       </c>
       <c r="AR77" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="78">
@@ -11564,40 +11564,40 @@
         </is>
       </c>
       <c r="G78" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J78" t="n">
         <v>4.45</v>
       </c>
-      <c r="H78" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J78" t="n">
-        <v>4.85</v>
-      </c>
       <c r="K78" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L78" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="M78" t="n">
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O78" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P78" t="n">
         <v>3.45</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R78" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
@@ -11608,67 +11608,67 @@
         <v>1.36</v>
       </c>
       <c r="W78" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X78" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="Z78" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AA78" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC78" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO78" t="n">
         <v>15</v>
       </c>
-      <c r="AD78" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>45</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>600</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AP78" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ78" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11705,16 +11705,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4</v>
+      </c>
+      <c r="J79" t="n">
         <v>3</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2.88</v>
       </c>
       <c r="K79" t="n">
         <v>1.91</v>
@@ -11729,24 +11729,24 @@
         <v>6</v>
       </c>
       <c r="O79" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P79" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R79" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V79" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W79" t="n">
         <v>1.62</v>
@@ -11764,7 +11764,7 @@
         <v>5.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC79" t="n">
         <v>10</v>
@@ -11779,7 +11779,7 @@
         <v>41</v>
       </c>
       <c r="AG79" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH79" t="n">
         <v>6</v>
@@ -11794,7 +11794,7 @@
         <v>101</v>
       </c>
       <c r="AL79" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM79" t="n">
         <v>19</v>
@@ -11850,22 +11850,22 @@
         </is>
       </c>
       <c r="G80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J80" t="n">
         <v>3.7</v>
       </c>
-      <c r="H80" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J80" t="n">
-        <v>4.05</v>
-      </c>
       <c r="K80" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L80" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="M80" t="n">
         <v>1.07</v>
@@ -11897,61 +11897,61 @@
         <v>1.4</v>
       </c>
       <c r="X80" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AA80" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB80" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC80" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD80" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AE80" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF80" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AG80" t="n">
         <v>6.9</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AI80" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ80" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK80" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL80" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AM80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN80" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO80" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AP80" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AQ80" t="n">
         <v>29</v>
@@ -12132,22 +12132,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H82" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I82" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J82" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K82" t="n">
         <v>2.88</v>
       </c>
       <c r="L82" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M82" t="n">
         <v>1.02</v>
@@ -12170,43 +12170,43 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V82" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W82" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X82" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Z82" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB82" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC82" t="n">
         <v>9.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE82" t="n">
         <v>10</v>
       </c>
       <c r="AF82" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG82" t="n">
         <v>21</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>23</v>
       </c>
       <c r="AH82" t="n">
         <v>13</v>
@@ -12218,7 +12218,7 @@
         <v>51</v>
       </c>
       <c r="AK82" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AL82" t="n">
         <v>29</v>
@@ -12230,13 +12230,13 @@
         <v>26</v>
       </c>
       <c r="AO82" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP82" t="n">
         <v>51</v>
       </c>
       <c r="AQ82" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12417,10 +12417,10 @@
         <v>2.38</v>
       </c>
       <c r="H84" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I84" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J84" t="n">
         <v>3.1</v>
@@ -12432,10 +12432,10 @@
         <v>3.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O84" t="n">
         <v>1.29</v>
@@ -12452,10 +12452,10 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V84" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W84" t="n">
         <v>1.4</v>
@@ -12491,7 +12491,7 @@
         <v>10</v>
       </c>
       <c r="AH84" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI84" t="n">
         <v>13</v>
@@ -12518,7 +12518,7 @@
         <v>23</v>
       </c>
       <c r="AQ84" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -716,16 +716,16 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>2.06</v>
@@ -734,10 +734,10 @@
         <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
         <v>1.33</v>
@@ -746,22 +746,22 @@
         <v>3.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -776,13 +776,13 @@
         <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -849,7 +849,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
         <v>3.75</v>
@@ -861,10 +861,10 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
         <v>2.1</v>
@@ -875,10 +875,10 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
         <v>1.44</v>
@@ -896,7 +896,7 @@
         <v>7.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
         <v>9.5</v>
@@ -911,7 +911,7 @@
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -923,13 +923,13 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL3" t="n">
         <v>9.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN3" t="n">
         <v>12</v>
@@ -938,10 +938,10 @@
         <v>34</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -1008,10 +1008,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1034,7 +1034,7 @@
         <v>1.67</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB4" t="n">
         <v>8.5</v>
@@ -1046,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1067,7 +1067,7 @@
         <v>501</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM4" t="n">
         <v>19</v>
@@ -1085,10 +1085,10 @@
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="5">
@@ -1153,10 +1153,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1279,7 +1279,7 @@
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1323,7 +1323,7 @@
         <v>7.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1362,10 +1362,10 @@
         <v>11</v>
       </c>
       <c r="AO6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP6" t="n">
         <v>26</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1409,22 +1409,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1433,28 +1433,28 @@
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
         <v>1.44</v>
@@ -1463,22 +1463,22 @@
         <v>2.63</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA7" t="n">
         <v>5</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1487,16 +1487,16 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK7" t="n">
         <v>101</v>
@@ -1505,25 +1505,25 @@
         <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AQ7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="8">
@@ -1606,10 +1606,10 @@
         <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X8" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y8" t="n">
         <v>2.5</v>
@@ -1751,10 +1751,10 @@
         <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y9" t="n">
         <v>2.5</v>
@@ -2694,84 +2694,84 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="V16" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X16" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC16" t="n">
         <v>8.25</v>
       </c>
-      <c r="AB16" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AI16" t="n">
         <v>13.5</v>
@@ -2780,25 +2780,25 @@
         <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AL16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN16" t="n">
         <v>13</v>
       </c>
-      <c r="AM16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AO16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>37</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>40</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -3693,22 +3693,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3753,10 +3753,10 @@
         <v>2</v>
       </c>
       <c r="AA23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
         <v>13</v>
@@ -3768,37 +3768,37 @@
         <v>29</v>
       </c>
       <c r="AF23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
         <v>6.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK23" t="n">
         <v>201</v>
       </c>
       <c r="AL23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN23" t="n">
         <v>9</v>
       </c>
       <c r="AO23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP23" t="n">
         <v>17</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>15</v>
       </c>
       <c r="AQ23" t="n">
         <v>26</v>
@@ -3872,10 +3872,10 @@
         <v>3.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S24" t="n">
         <v>2.75</v>
@@ -3884,10 +3884,10 @@
         <v>1.44</v>
       </c>
       <c r="U24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
         <v>1.4</v>
@@ -3991,10 +3991,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
         <v>5</v>
@@ -4003,79 +4003,79 @@
         <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L25" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U25" t="n">
         <v>5.5</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R25" t="n">
+      <c r="V25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z25" t="n">
         <v>1.53</v>
       </c>
-      <c r="S25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AA25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB25" t="n">
         <v>7</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD25" t="n">
         <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH25" t="n">
         <v>6.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
         <v>81</v>
@@ -4084,7 +4084,7 @@
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM25" t="n">
         <v>23</v>
@@ -4096,16 +4096,16 @@
         <v>51</v>
       </c>
       <c r="AP25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ25" t="n">
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="26">
@@ -4140,22 +4140,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.2</v>
       </c>
-      <c r="J26" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.13</v>
@@ -4194,25 +4194,25 @@
         <v>2.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC26" t="n">
         <v>11</v>
       </c>
       <c r="AD26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE26" t="n">
         <v>23</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>26</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -4221,10 +4221,10 @@
         <v>5.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ26" t="n">
         <v>101</v>
@@ -4233,19 +4233,19 @@
         <v>101</v>
       </c>
       <c r="AL26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
@@ -5429,13 +5429,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
         <v>2.3</v>
@@ -5447,10 +5447,10 @@
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -5479,10 +5479,10 @@
         <v>2.75</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA35" t="n">
         <v>7.5</v>
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
         <v>3.7</v>
@@ -5582,7 +5582,7 @@
         <v>2.75</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L36" t="n">
         <v>4</v>
@@ -5594,36 +5594,36 @@
         <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R36" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W36" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z36" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA36" t="n">
         <v>7.5</v>
@@ -5641,22 +5641,22 @@
         <v>17</v>
       </c>
       <c r="AF36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK36" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL36" t="n">
         <v>11</v>
@@ -5674,7 +5674,7 @@
         <v>29</v>
       </c>
       <c r="AQ36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -7278,19 +7278,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H48" t="n">
         <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K48" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L48" t="n">
         <v>2.63</v>
@@ -7302,24 +7302,24 @@
         <v>7</v>
       </c>
       <c r="O48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P48" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R48" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W48" t="n">
         <v>1.57</v>
@@ -7328,10 +7328,10 @@
         <v>2.25</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA48" t="n">
         <v>9</v>
@@ -7340,7 +7340,7 @@
         <v>21</v>
       </c>
       <c r="AC48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD48" t="n">
         <v>51</v>
@@ -7352,7 +7352,7 @@
         <v>51</v>
       </c>
       <c r="AG48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH48" t="n">
         <v>6.5</v>
@@ -7367,7 +7367,7 @@
         <v>501</v>
       </c>
       <c r="AL48" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AM48" t="n">
         <v>7.5</v>
@@ -7385,10 +7385,10 @@
         <v>41</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="49">
@@ -7426,7 +7426,7 @@
         <v>1.85</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
         <v>4.1</v>
@@ -7447,10 +7447,10 @@
         <v>8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q49" t="n">
         <v>2.35</v>
@@ -7461,22 +7461,22 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W49" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X49" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA49" t="n">
         <v>6</v>
@@ -7491,13 +7491,13 @@
         <v>15</v>
       </c>
       <c r="AE49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF49" t="n">
         <v>34</v>
       </c>
       <c r="AG49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH49" t="n">
         <v>6.5</v>
@@ -7592,24 +7592,24 @@
         <v>9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P50" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R50" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V50" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W50" t="n">
         <v>1.5</v>
@@ -7709,13 +7709,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H51" t="n">
         <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J51" t="n">
         <v>2.38</v>
@@ -7724,7 +7724,7 @@
         <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -7747,28 +7747,28 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V51" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W51" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X51" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB51" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC51" t="n">
         <v>8.5</v>
@@ -7780,28 +7780,28 @@
         <v>15</v>
       </c>
       <c r="AF51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH51" t="n">
         <v>6.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ51" t="n">
         <v>51</v>
       </c>
       <c r="AK51" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL51" t="n">
         <v>13</v>
       </c>
       <c r="AM51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN51" t="n">
         <v>17</v>
@@ -8132,16 +8132,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H54" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I54" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J54" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K54" t="n">
         <v>2.38</v>
@@ -8153,7 +8153,7 @@
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O54" t="n">
         <v>1.18</v>
@@ -8162,16 +8162,16 @@
         <v>4.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R54" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S54" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T54" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U54" t="n">
         <v>2.5</v>
@@ -8201,7 +8201,7 @@
         <v>9</v>
       </c>
       <c r="AD54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE54" t="n">
         <v>15</v>
@@ -8210,7 +8210,7 @@
         <v>21</v>
       </c>
       <c r="AG54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH54" t="n">
         <v>7.5</v>
@@ -8231,7 +8231,7 @@
         <v>19</v>
       </c>
       <c r="AN54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO54" t="n">
         <v>34</v>
@@ -8315,10 +8315,10 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V55" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W55" t="n">
         <v>1.5</v>
@@ -8551,13 +8551,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H57" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
         <v>2.3</v>
@@ -8581,10 +8581,10 @@
         <v>2.63</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R57" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8601,10 +8601,10 @@
         <v>2.38</v>
       </c>
       <c r="Y57" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA57" t="n">
         <v>5</v>
@@ -8616,7 +8616,7 @@
         <v>9</v>
       </c>
       <c r="AD57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE57" t="n">
         <v>17</v>
@@ -8631,7 +8631,7 @@
         <v>7</v>
       </c>
       <c r="AI57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ57" t="n">
         <v>81</v>
@@ -8655,13 +8655,13 @@
         <v>51</v>
       </c>
       <c r="AQ57" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="58">
@@ -8720,10 +8720,10 @@
         <v>6</v>
       </c>
       <c r="O58" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q58" t="n">
         <v>2.88</v>
@@ -8734,10 +8734,10 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V58" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W58" t="n">
         <v>1.62</v>
@@ -10025,24 +10025,24 @@
         <v>7</v>
       </c>
       <c r="O67" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P67" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R67" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V67" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W67" t="n">
         <v>1.5</v>
@@ -10108,10 +10108,10 @@
         <v>51</v>
       </c>
       <c r="AR67" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="68">
@@ -10287,16 +10287,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I69" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J69" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K69" t="n">
         <v>2.25</v>
@@ -10305,19 +10305,19 @@
         <v>4.5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O69" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P69" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R69" t="n">
         <v>2</v>
@@ -10325,10 +10325,10 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V69" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W69" t="n">
         <v>1.36</v>
@@ -10337,10 +10337,10 @@
         <v>3</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z69" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA69" t="n">
         <v>8</v>
@@ -10355,19 +10355,19 @@
         <v>15</v>
       </c>
       <c r="AE69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF69" t="n">
         <v>23</v>
       </c>
       <c r="AG69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH69" t="n">
         <v>7</v>
       </c>
       <c r="AI69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ69" t="n">
         <v>41</v>
@@ -10385,7 +10385,7 @@
         <v>15</v>
       </c>
       <c r="AO69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP69" t="n">
         <v>34</v>
@@ -10603,10 +10603,10 @@
         <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -10879,16 +10879,16 @@
         <v>9</v>
       </c>
       <c r="O73" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P73" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R73" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -11419,34 +11419,34 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H77" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J77" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
         <v>1.83</v>
       </c>
       <c r="L77" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M77" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N77" t="n">
         <v>6</v>
       </c>
       <c r="O77" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P77" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="Q77" t="n">
         <v>2.63</v>
@@ -11460,7 +11460,7 @@
         <v>5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W77" t="n">
         <v>1.62</v>
@@ -11469,10 +11469,10 @@
         <v>2.2</v>
       </c>
       <c r="Y77" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA77" t="n">
         <v>5.5</v>
@@ -11481,13 +11481,13 @@
         <v>8.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD77" t="n">
         <v>19</v>
       </c>
       <c r="AE77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF77" t="n">
         <v>41</v>
@@ -11508,7 +11508,7 @@
         <v>1000</v>
       </c>
       <c r="AL77" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM77" t="n">
         <v>17</v>
@@ -11526,10 +11526,10 @@
         <v>51</v>
       </c>
       <c r="AR77" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="78">
@@ -11711,10 +11711,10 @@
         <v>2.9</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K79" t="n">
         <v>1.91</v>
@@ -11723,10 +11723,10 @@
         <v>4.75</v>
       </c>
       <c r="M79" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N79" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O79" t="n">
         <v>1.57</v>
@@ -12555,44 +12555,44 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H85" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I85" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="J85" t="n">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="K85" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L85" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P85" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R85" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="V85" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W85" t="n">
         <v>1.39</v>
@@ -12601,61 +12601,61 @@
         <v>2.55</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AA85" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AB85" t="n">
-        <v>8.25</v>
+        <v>7.1</v>
       </c>
       <c r="AC85" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD85" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AE85" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF85" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG85" t="n">
         <v>8.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AI85" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AJ85" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK85" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL85" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AM85" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AN85" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AO85" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AP85" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AQ85" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr"/>
@@ -12692,22 +12692,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H86" t="n">
         <v>2.77</v>
       </c>
       <c r="I86" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J86" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="L86" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -12715,10 +12715,10 @@
         <v>1.44</v>
       </c>
       <c r="P86" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R86" t="n">
         <v>1.5</v>
@@ -12726,7 +12726,7 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="V86" t="n">
         <v>1.18</v>
@@ -12738,22 +12738,22 @@
         <v>2.32</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA86" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB86" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD86" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE86" t="n">
         <v>23</v>
@@ -12771,22 +12771,22 @@
         <v>15</v>
       </c>
       <c r="AJ86" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK86" t="n">
         <v>800</v>
       </c>
       <c r="AL86" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM86" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN86" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AO86" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP86" t="n">
         <v>32</v>
@@ -12832,16 +12832,16 @@
         <v>1.7</v>
       </c>
       <c r="H87" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I87" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="J87" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="K87" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L87" t="n">
         <v>4.7</v>
@@ -12850,7 +12850,7 @@
         <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="O87" t="n">
         <v>1.27</v>
@@ -12873,19 +12873,19 @@
         <v>1.36</v>
       </c>
       <c r="W87" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X87" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AA87" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB87" t="n">
         <v>8.25</v>
@@ -12894,25 +12894,25 @@
         <v>8</v>
       </c>
       <c r="AD87" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE87" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE87" t="n">
-        <v>13</v>
-      </c>
       <c r="AF87" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG87" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AH87" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AI87" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ87" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK87" t="n">
         <v>500</v>
@@ -12921,7 +12921,7 @@
         <v>13</v>
       </c>
       <c r="AM87" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN87" t="n">
         <v>14.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -1409,22 +1409,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1433,28 +1433,28 @@
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="U7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
         <v>1.44</v>
@@ -1463,22 +1463,22 @@
         <v>2.63</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA7" t="n">
         <v>5</v>
       </c>
       <c r="AB7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1487,43 +1487,43 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AK7" t="n">
         <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AQ7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="8">
@@ -1561,13 +1561,13 @@
         <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I8" t="n">
         <v>2.45</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>1.8</v>
@@ -1576,22 +1576,22 @@
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
         <v>6</v>
@@ -1600,16 +1600,16 @@
         <v>1.13</v>
       </c>
       <c r="U8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X8" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y8" t="n">
         <v>2.5</v>
@@ -1636,7 +1636,7 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH8" t="n">
         <v>6</v>
@@ -1651,7 +1651,7 @@
         <v>451</v>
       </c>
       <c r="AL8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AM8" t="n">
         <v>9.5</v>
@@ -1710,7 +1710,7 @@
         <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
         <v>2.63</v>
@@ -1725,10 +1725,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -1781,10 +1781,10 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI9" t="n">
         <v>23</v>
@@ -3842,46 +3842,46 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R24" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S24" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="T24" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U24" t="n">
         <v>3.5</v>
@@ -3890,16 +3890,16 @@
         <v>1.29</v>
       </c>
       <c r="W24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA24" t="n">
         <v>8</v>
@@ -3911,16 +3911,16 @@
         <v>9.5</v>
       </c>
       <c r="AD24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE24" t="n">
         <v>21</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>29</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
         <v>7</v>
@@ -3935,13 +3935,13 @@
         <v>251</v>
       </c>
       <c r="AL24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
@@ -3953,10 +3953,10 @@
         <v>34</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="25">
@@ -3991,46 +3991,46 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P25" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="U25" t="n">
         <v>5.5</v>
@@ -4039,10 +4039,10 @@
         <v>1.14</v>
       </c>
       <c r="W25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y25" t="n">
         <v>2.38</v>
@@ -4060,16 +4060,16 @@
         <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH25" t="n">
         <v>6.5</v>
@@ -4078,16 +4078,16 @@
         <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="n">
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN25" t="n">
         <v>17</v>
@@ -4096,16 +4096,16 @@
         <v>51</v>
       </c>
       <c r="AP25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ25" t="n">
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="26">
@@ -4140,34 +4140,34 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L26" t="n">
         <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q26" t="n">
         <v>3.1</v>
@@ -4203,7 +4203,7 @@
         <v>5</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="n">
         <v>11</v>
@@ -4212,16 +4212,16 @@
         <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
         <v>23</v>
@@ -4236,7 +4236,7 @@
         <v>7</v>
       </c>
       <c r="AM26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN26" t="n">
         <v>15</v>
@@ -5429,16 +5429,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K35" t="n">
         <v>2.25</v>
@@ -5459,10 +5459,10 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -5473,10 +5473,10 @@
         <v>1.33</v>
       </c>
       <c r="W35" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X35" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y35" t="n">
         <v>1.8</v>
@@ -8132,16 +8132,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K54" t="n">
         <v>2.38</v>
@@ -8156,28 +8156,28 @@
         <v>17</v>
       </c>
       <c r="O54" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P54" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R54" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T54" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U54" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V54" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W54" t="n">
         <v>1.3</v>
@@ -8192,7 +8192,7 @@
         <v>2.38</v>
       </c>
       <c r="AA54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB54" t="n">
         <v>12</v>
@@ -8201,7 +8201,7 @@
         <v>9</v>
       </c>
       <c r="AD54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE54" t="n">
         <v>15</v>
@@ -8210,7 +8210,7 @@
         <v>21</v>
       </c>
       <c r="AG54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH54" t="n">
         <v>7.5</v>
@@ -8277,13 +8277,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H55" t="n">
         <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J55" t="n">
         <v>2.88</v>
@@ -8327,10 +8327,10 @@
         <v>2.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA55" t="n">
         <v>6.5</v>
@@ -8421,19 +8421,19 @@
         <v>1.28</v>
       </c>
       <c r="H56" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I56" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="J56" t="n">
         <v>1.7</v>
       </c>
       <c r="K56" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="L56" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -8441,35 +8441,35 @@
         <v>1.15</v>
       </c>
       <c r="P56" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R56" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="V56" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Z56" t="n">
         <v>1.8</v>
       </c>
       <c r="AA56" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AB56" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AC56" t="n">
         <v>8.75</v>
@@ -8484,10 +8484,10 @@
         <v>24</v>
       </c>
       <c r="AG56" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH56" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI56" t="n">
         <v>20</v>
@@ -8496,13 +8496,13 @@
         <v>80</v>
       </c>
       <c r="AK56" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL56" t="n">
         <v>28</v>
       </c>
       <c r="AM56" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN56" t="n">
         <v>27</v>
@@ -8511,10 +8511,10 @@
         <v>250</v>
       </c>
       <c r="AP56" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AQ56" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
@@ -8551,22 +8551,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J57" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K57" t="n">
         <v>2.05</v>
       </c>
       <c r="L57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M57" t="n">
         <v>1.08</v>
@@ -8589,16 +8589,16 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V57" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W57" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X57" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y57" t="n">
         <v>2.38</v>
@@ -8610,16 +8610,16 @@
         <v>5</v>
       </c>
       <c r="AB57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC57" t="n">
         <v>9</v>
       </c>
       <c r="AD57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF57" t="n">
         <v>41</v>
@@ -8628,28 +8628,28 @@
         <v>7</v>
       </c>
       <c r="AH57" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI57" t="n">
         <v>23</v>
       </c>
       <c r="AJ57" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="n">
         <v>101</v>
       </c>
       <c r="AL57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN57" t="n">
         <v>21</v>
       </c>
       <c r="AO57" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP57" t="n">
         <v>51</v>
@@ -8658,10 +8658,10 @@
         <v>67</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="58">
@@ -8720,10 +8720,10 @@
         <v>6</v>
       </c>
       <c r="O58" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P58" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q58" t="n">
         <v>2.88</v>
@@ -8734,10 +8734,10 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V58" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W58" t="n">
         <v>1.62</v>
@@ -10001,10 +10001,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I67" t="n">
         <v>4.75</v>
@@ -10025,30 +10025,30 @@
         <v>7</v>
       </c>
       <c r="O67" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P67" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R67" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V67" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W67" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X67" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y67" t="n">
         <v>2.1</v>
@@ -10069,13 +10069,13 @@
         <v>15</v>
       </c>
       <c r="AE67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF67" t="n">
         <v>34</v>
       </c>
       <c r="AG67" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH67" t="n">
         <v>6</v>
@@ -10087,13 +10087,13 @@
         <v>67</v>
       </c>
       <c r="AK67" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM67" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN67" t="n">
         <v>17</v>
@@ -10108,10 +10108,10 @@
         <v>51</v>
       </c>
       <c r="AR67" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="68">

--- a/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-14.xlsx
@@ -1725,16 +1725,16 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
         <v>3.4</v>
@@ -4158,10 +4158,10 @@
         <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.67</v>
@@ -4179,7 +4179,7 @@
         <v>5.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="U26" t="n">
         <v>6.5</v>
@@ -8135,19 +8135,19 @@
         <v>2.1</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J54" t="n">
         <v>2.63</v>
       </c>
       <c r="K54" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L54" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
@@ -8180,22 +8180,22 @@
         <v>1.53</v>
       </c>
       <c r="W54" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA54" t="n">
         <v>11</v>
       </c>
       <c r="AB54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC54" t="n">
         <v>9</v>
@@ -8207,10 +8207,10 @@
         <v>15</v>
       </c>
       <c r="AF54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH54" t="n">
         <v>7.5</v>
@@ -8222,25 +8222,25 @@
         <v>34</v>
       </c>
       <c r="AK54" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM54" t="n">
         <v>19</v>
       </c>
       <c r="AN54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO54" t="n">
         <v>34</v>
       </c>
       <c r="AP54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ54" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>26</v>
       </c>
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
@@ -8277,48 +8277,48 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H55" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I55" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J55" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
         <v>2</v>
       </c>
       <c r="L55" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P55" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R55" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W55" t="n">
         <v>1.5</v>
@@ -8327,25 +8327,25 @@
         <v>2.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA55" t="n">
         <v>6.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF55" t="n">
         <v>34</v>
@@ -8363,22 +8363,22 @@
         <v>51</v>
       </c>
       <c r="AK55" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ55" t="n">
         <v>41</v>
@@ -8418,103 +8418,103 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="H56" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="I56" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="J56" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="K56" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L56" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R56" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V56" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z56" t="n">
         <v>1.82</v>
       </c>
-      <c r="Z56" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AA56" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB56" t="n">
         <v>6.9</v>
       </c>
       <c r="AC56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD56" t="n">
         <v>8.75</v>
       </c>
-      <c r="AD56" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AE56" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF56" t="n">
         <v>24</v>
       </c>
       <c r="AG56" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH56" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI56" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AJ56" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK56" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL56" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM56" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN56" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO56" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AP56" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AQ56" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
